--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -77,7 +77,7 @@
     <t>222.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 9:30 AM</t>
+    <t>Wednesday, 10 September, 2025 9:31 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -44,12 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>BISOLOCK-D 10/25MG 20 F.C.TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>IVYMOND SYRUP</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -65,19 +80,13 @@
     <t>TIRATAM 500MG 30 F.C. TABLETS</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>222.00</t>
   </si>
   <si>
     <t>222.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 9:31 AM</t>
+    <t>Wednesday, 10 September, 2025 9:34 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -751,59 +760,92 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>21</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>271</v>
-      </c>
-      <c r="Q9" s="13"/>
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>16</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>23</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>21</v>
+      </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
-        <v>22</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
-        <v>23</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
-        <v>24</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="P10" s="13">
+        <v>292</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
+        <v>25</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
+        <v>26</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
+        <v>27</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -822,10 +864,15 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
     <t>IVYMOND SYRUP</t>
   </si>
   <si>
@@ -86,7 +98,16 @@
     <t>222.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 9:34 AM</t>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 10 September, 2025 9:35 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -760,13 +781,13 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
@@ -777,7 +798,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -786,20 +807,20 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -810,42 +831,108 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>292</v>
-      </c>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>26</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>16</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>27</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>25</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
-        <v>26</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
-        <v>27</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>29</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>12</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>22</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>30</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>313.19999999999999</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>32</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>33</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>34</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -869,10 +956,20 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -107,7 +107,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 9:35 AM</t>
+    <t>Wednesday, 10 September, 2025 9:37 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -107,7 +107,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 9:37 AM</t>
+    <t>Wednesday, 10 September, 2025 9:41 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -74,6 +74,21 @@
     <t>19.2000</t>
   </si>
   <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>IVYMOND SYRUP</t>
   </si>
   <si>
@@ -86,9 +101,6 @@
     <t>49.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>TIRATAM 500MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -107,7 +119,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 9:41 AM</t>
+    <t>Wednesday, 10 September, 2025 9:42 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -814,13 +826,13 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -847,21 +859,21 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>25</v>
@@ -873,66 +885,99 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>313.19999999999999</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
-        <v>32</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>33</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>12</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>27</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>34</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>336.19999999999999</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>36</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>37</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>38</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -966,10 +1011,15 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AMARYL 3 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>BISOLOCK-D 10/25MG 20 F.C.TAB</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>42.00</t>
   </si>
   <si>
     <t>21.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -101,6 +113,12 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>JOMOGESTIVE TAB</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>TIRATAM 500MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -119,7 +137,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 9:42 AM</t>
+    <t>Wednesday, 10 September, 2025 10:00 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -843,7 +861,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -852,31 +870,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>29</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -892,24 +910,24 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -918,66 +936,132 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>336.19999999999999</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
         <v>36</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>16</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
         <v>37</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
         <v>38</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c t="s" r="Q13" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>39</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>18</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>31</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>40</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>424.91000000000002</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>42</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>43</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>44</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1016,10 +1100,20 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -137,7 +137,16 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 10:00 AM</t>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 10 September, 2025 10:06 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1030,38 +1039,71 @@
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>424.91000000000002</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
         <v>42</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>18</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>31</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
         <v>43</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
         <v>44</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c t="s" r="Q15" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>439.91000000000002</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>45</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>46</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>47</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1110,10 +1152,15 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -146,7 +146,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 10:06 AM</t>
+    <t>Wednesday, 10 September, 2025 10:08 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -119,6 +119,18 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>TIRATAM 500MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -146,7 +158,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 10:08 AM</t>
+    <t>Wednesday, 10 September, 2025 10:26 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -985,7 +997,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -995,11 +1007,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>29</v>
@@ -1011,28 +1023,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>29</v>
@@ -1044,7 +1056,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1061,49 +1073,82 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>29</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>439.91000000000002</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
-        <v>45</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
         <v>46</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>18</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>31</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
         <v>47</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>479.91000000000002</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>49</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>50</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>51</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1157,10 +1202,15 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -131,6 +131,12 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>LUTOFOLONE 2 AMP.</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>TIRATAM 500MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -158,7 +164,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 10:26 AM</t>
+    <t>Wednesday, 10 September, 2025 10:34 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1030,7 +1036,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1040,14 +1046,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1056,28 +1062,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>29</v>
@@ -1089,7 +1095,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1106,49 +1112,82 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>29</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>479.91000000000002</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>48</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>18</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>31</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
         <v>49</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
         <v>50</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c t="s" r="Q17" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>499.91000000000002</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
         <v>51</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>52</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>53</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1207,10 +1246,15 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -164,7 +164,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 10:34 AM</t>
+    <t>Wednesday, 10 September, 2025 10:47 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -137,6 +137,12 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
     <t>TIRATAM 500MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -164,7 +170,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 10:47 AM</t>
+    <t>Wednesday, 10 September, 2025 11:05 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1069,7 +1075,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1079,11 +1085,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>29</v>
@@ -1095,28 +1101,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>29</v>
@@ -1128,7 +1134,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1145,49 +1151,82 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>29</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>499.91000000000002</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>50</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>18</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>31</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
         <v>51</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
         <v>52</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
+      <c t="s" r="Q18" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>539.90999999999997</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
         <v>53</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>54</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>55</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1251,10 +1290,15 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -170,7 +170,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 11:05 AM</t>
+    <t>Wednesday, 10 September, 2025 11:12 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -122,27 +122,39 @@
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>40.00</t>
+    <t>LUTOFOLONE 2 AMP.</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>2:5</t>
   </si>
   <si>
     <t>40.0000</t>
   </si>
   <si>
-    <t>LUTOFOLONE 2 AMP.</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>2:5</t>
-  </si>
-  <si>
     <t>TIRATAM 500MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -170,7 +182,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 11:12 AM</t>
+    <t>Wednesday, 10 September, 2025 12:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1009,7 +1021,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1019,14 +1031,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>39</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1052,7 +1064,7 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
@@ -1075,7 +1087,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1085,14 +1097,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1101,14 +1113,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1118,11 +1130,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>29</v>
@@ -1134,28 +1146,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>29</v>
@@ -1167,7 +1179,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1184,49 +1196,82 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>29</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>539.90999999999997</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
-        <v>53</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
         <v>54</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>18</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>31</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
         <v>55</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>655.90999999999997</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>57</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>58</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>59</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1295,10 +1340,15 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -182,7 +182,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 12:10 PM</t>
+    <t>Wednesday, 10 September, 2025 12:35 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -101,6 +101,15 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>IVYMOND SYRUP</t>
   </si>
   <si>
@@ -182,7 +191,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 12:35 PM</t>
+    <t>Wednesday, 10 September, 2025 12:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -955,24 +964,24 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -981,31 +990,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1014,31 +1023,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1047,14 +1056,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1064,14 +1073,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1080,14 +1089,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1097,7 +1106,7 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
@@ -1120,7 +1129,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1130,14 +1139,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1153,7 +1162,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1163,7 +1172,7 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
@@ -1186,13 +1195,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1225,7 +1234,7 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1240,38 +1249,71 @@
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>655.90999999999997</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
         <v>57</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>18</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>34</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
         <v>58</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
         <v>59</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c t="s" r="Q20" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>671.75</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>60</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>61</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>62</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1345,10 +1387,15 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -110,6 +110,21 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>IVYMOND SYRUP</t>
   </si>
   <si>
@@ -164,6 +179,15 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>PRIANIL C.R. 400MG 30 CONTROLLED REL. TAB.</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
     <t>TIRATAM 500MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -191,7 +215,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 12:43 PM</t>
+    <t>Wednesday, 10 September, 2025 12:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -997,24 +1021,24 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1023,28 +1047,28 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1056,20 +1080,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1080,7 +1104,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1089,28 +1113,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1122,14 +1146,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1139,14 +1163,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>47</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1162,7 +1186,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1172,14 +1196,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1188,14 +1212,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1205,14 +1229,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1221,28 +1245,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>29</v>
@@ -1254,66 +1278,165 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>59</v>
       </c>
-      <c t="s" r="Q20" s="12">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>16</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>13</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>60</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>29</v>
       </c>
     </row>
-    <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>671.75</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
-        <v>60</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
-        <v>61</v>
-      </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>62</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>18</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>39</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>63</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>65</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>18</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>39</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>66</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>813.04999999999995</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>68</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>69</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>70</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1392,10 +1515,25 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -215,7 +215,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 12:44 PM</t>
+    <t>Wednesday, 10 September, 2025 12:55 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AMPOFER 20MG/ML 5 AMP. FOR I.V. INJ./INF.</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>BISOLOCK-D 10/25MG 20 F.C.TAB</t>
   </si>
   <si>
@@ -197,6 +212,27 @@
     <t>222.0000</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>55:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -206,16 +242,34 @@
     <t>2.0000</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>Wednesday, 10 September, 2025 12:55 PM</t>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 10 September, 2025 1:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -906,7 +960,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -915,14 +969,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -932,11 +986,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -948,14 +1002,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -965,14 +1019,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -988,7 +1042,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -998,14 +1052,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1014,14 +1068,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1031,11 +1085,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1047,14 +1101,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1064,11 +1118,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1080,31 +1134,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1113,31 +1167,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1146,31 +1200,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1179,14 +1233,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1196,14 +1250,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1212,14 +1266,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1229,11 +1283,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1245,14 +1299,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1262,14 +1316,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1278,14 +1332,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1295,14 +1349,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1311,14 +1365,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1328,14 +1382,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1344,31 +1398,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1377,66 +1431,231 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>813.04999999999995</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
-        <v>68</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>71</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>72</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>44</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>73</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>74</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>23</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>44</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>75</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>77</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>23</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>44</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>78</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>80</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>23</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>44</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
         <v>69</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
-        <v>70</v>
-      </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>82</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>83</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>44</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>84</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>1000.05</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
+        <v>86</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>87</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>88</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1530,10 +1749,35 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -269,7 +269,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 1:02 PM</t>
+    <t>Wednesday, 10 September, 2025 1:10 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -269,7 +269,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 1:10 PM</t>
+    <t>Wednesday, 10 September, 2025 1:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -269,7 +269,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 1:16 PM</t>
+    <t>Wednesday, 10 September, 2025 1:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -158,6 +158,15 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>83.1600</t>
+  </si>
+  <si>
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
@@ -269,7 +278,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 1:22 PM</t>
+    <t>Wednesday, 10 September, 2025 1:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1240,7 +1249,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1257,7 +1266,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1266,14 +1275,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1283,14 +1292,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1299,14 +1308,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1316,7 +1325,7 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
@@ -1339,7 +1348,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1349,14 +1358,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1372,7 +1381,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1382,14 +1391,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1405,7 +1414,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1422,7 +1431,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1438,21 +1447,21 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>34</v>
@@ -1464,14 +1473,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1481,11 +1490,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>34</v>
@@ -1504,7 +1513,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1514,11 +1523,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>34</v>
@@ -1580,14 +1589,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1596,14 +1605,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1613,49 +1622,82 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
         <v>85</v>
       </c>
-      <c t="s" r="Q28" s="12">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>86</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>44</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>87</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>34</v>
       </c>
     </row>
-    <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>1000.05</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
-        <v>86</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
-        <v>87</v>
-      </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
-        <v>88</v>
-      </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>1083.21</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>89</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>90</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>91</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1774,10 +1816,15 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -167,6 +167,18 @@
     <t>83.1600</t>
   </si>
   <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
@@ -221,6 +233,24 @@
     <t>222.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">VANCE  30 TAB</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -248,7 +278,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>4.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -263,7 +293,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>30.0000</t>
+    <t>45.0000</t>
   </si>
   <si>
     <t>محلول ملح</t>
@@ -278,7 +308,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 1:30 PM</t>
+    <t>Wednesday, 10 September, 2025 2:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1282,7 +1312,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1292,14 +1322,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1315,7 +1345,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1325,14 +1355,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1341,14 +1371,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1358,11 +1388,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1374,14 +1404,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1391,14 +1421,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1407,14 +1437,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1424,14 +1454,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1440,14 +1470,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1457,14 +1487,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1473,20 +1503,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1513,7 +1543,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1523,11 +1553,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>34</v>
@@ -1539,20 +1569,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1563,7 +1593,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1579,7 +1609,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1589,11 +1619,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>34</v>
@@ -1605,14 +1635,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1622,14 +1652,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1638,14 +1668,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1655,49 +1685,148 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>90</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>23</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>44</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>91</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>34</v>
       </c>
     </row>
-    <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>1083.21</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
-        <v>89</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
-        <v>90</v>
-      </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
-        <v>91</v>
-      </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>93</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>23</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>44</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>82</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>95</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>96</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>44</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>97</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1245.04</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>99</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>100</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>101</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1821,10 +1950,25 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -308,7 +308,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 2:16 PM</t>
+    <t>Wednesday, 10 September, 2025 2:25 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AMBEZIM-G 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>AMPOFER 20MG/ML 5 AMP. FOR I.V. INJ./INF.</t>
   </si>
   <si>
@@ -77,6 +92,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>BISOLOCK-D 10/25MG 20 F.C.TAB</t>
   </si>
   <si>
@@ -113,7 +140,16 @@
     <t>23.0000</t>
   </si>
   <si>
-    <t>1:0</t>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
   </si>
   <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
@@ -125,6 +161,18 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:4</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
     <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
   </si>
   <si>
@@ -173,12 +221,6 @@
     <t>3:0</t>
   </si>
   <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
@@ -188,9 +230,6 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>LUTOFOLONE 2 AMP.</t>
   </si>
   <si>
@@ -224,6 +263,15 @@
     <t>53.4600</t>
   </si>
   <si>
+    <t>SPOTLESS FACE CREAM 18 GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>TIRATAM 500MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -296,19 +344,28 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>كريم فيرند لافلي الكبير</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
     <t>23:0</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 2:25 PM</t>
+    <t>Wednesday, 10 September, 2025 3:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1032,7 +1089,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1041,14 +1098,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1058,14 +1115,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1074,14 +1131,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1091,14 +1148,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1114,7 +1171,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1124,11 +1181,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1140,14 +1197,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1157,14 +1214,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1173,14 +1230,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1190,11 +1247,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1206,31 +1263,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1239,31 +1296,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1272,14 +1329,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1289,14 +1346,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1305,14 +1362,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1322,14 +1379,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1338,31 +1395,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1371,28 +1428,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1404,14 +1461,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1421,14 +1478,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1437,14 +1494,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1454,14 +1511,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1470,14 +1527,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1487,14 +1544,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1503,14 +1560,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1520,14 +1577,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1536,31 +1593,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1569,14 +1626,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1586,14 +1643,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1602,20 +1659,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1626,7 +1683,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1642,24 +1699,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1675,13 +1732,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1692,7 +1749,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1708,13 +1765,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1722,10 +1779,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1734,31 +1791,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1767,66 +1824,264 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>100</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>101</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>60</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>102</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>103</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>32</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>60</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>104</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>106</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>32</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>60</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>107</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>109</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>32</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>60</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
         <v>98</v>
       </c>
-      <c t="s" r="Q32" s="12">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1245.04</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
-        <v>99</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
-        <v>100</v>
-      </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
-        <v>101</v>
-      </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>111</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>112</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>60</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>113</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>115</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>116</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>60</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>52</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1497.96</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>118</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>119</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>120</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1965,10 +2220,40 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -44,24 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AMARYL 3 MG 30 TABS</t>
   </si>
   <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>AMBEZIM-G 30 F.C. TABS.</t>
   </si>
   <si>
@@ -92,6 +98,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>BETADERM 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -107,9 +125,6 @@
     <t>BISOLOCK-D 10/25MG 20 F.C.TAB</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>42.00</t>
   </si>
   <si>
@@ -185,9 +200,6 @@
     <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>IVYMOND SYRUP</t>
   </si>
   <si>
@@ -365,7 +377,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 3:53 PM</t>
+    <t>Wednesday, 10 September, 2025 3:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1049,14 +1061,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1065,14 +1077,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1082,14 +1094,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1098,14 +1110,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1115,14 +1127,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1131,14 +1143,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1148,11 +1160,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1164,14 +1176,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1181,14 +1193,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1197,14 +1209,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1214,14 +1226,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1230,14 +1242,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1247,11 +1259,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1263,14 +1275,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1280,14 +1292,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1296,14 +1308,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1313,14 +1325,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1329,14 +1341,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1346,11 +1358,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1362,14 +1374,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1379,14 +1391,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1402,24 +1414,24 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1428,28 +1440,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1461,31 +1473,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1494,31 +1506,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1527,14 +1539,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1544,14 +1556,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1560,14 +1572,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1577,14 +1589,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1593,14 +1605,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1610,14 +1622,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1626,14 +1638,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1643,14 +1655,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1659,14 +1671,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1676,11 +1688,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1692,31 +1704,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1725,14 +1737,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1742,14 +1754,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1758,31 +1770,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1791,14 +1803,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1808,14 +1820,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1824,31 +1836,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1857,31 +1869,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1890,31 +1902,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1923,31 +1935,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1956,31 +1968,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1989,31 +2001,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2022,66 +2034,132 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>115</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>116</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>64</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
         <v>117</v>
       </c>
-      <c t="s" r="Q38" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1497.96</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
         <v>118</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
+      <c t="s" r="Q39" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
         <v>119</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
         <v>120</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>64</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>57</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1631.6700000000001</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>122</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>123</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>124</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2250,10 +2328,20 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>87.00</t>
   </si>
   <si>
@@ -80,9 +95,6 @@
     <t>102.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>AMPOFER 20MG/ML 5 AMP. FOR I.V. INJ./INF.</t>
   </si>
   <si>
@@ -131,6 +143,15 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>CAFTOHIST 0.25% EYE DROPS 3 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -257,6 +278,15 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>ORLY 120MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -317,12 +347,6 @@
     <t>25:0</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -377,7 +401,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 3:55 PM</t>
+    <t>Wednesday, 10 September, 2025 4:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1061,14 +1085,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1077,14 +1101,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1094,14 +1118,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1134,7 +1158,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1143,14 +1167,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1160,14 +1184,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>32</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1200,7 +1224,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1216,7 +1240,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1226,11 +1250,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1242,14 +1266,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1266,7 +1290,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1282,7 +1306,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1292,14 +1316,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1308,14 +1332,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1325,14 +1349,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1341,14 +1365,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1398,7 +1422,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1414,7 +1438,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1431,7 +1455,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1447,7 +1471,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1457,14 +1481,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1473,31 +1497,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1506,31 +1530,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1539,31 +1563,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1572,31 +1596,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1605,14 +1629,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1622,14 +1646,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1638,14 +1662,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1655,11 +1679,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1671,14 +1695,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1688,14 +1712,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1704,14 +1728,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1721,14 +1745,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1737,14 +1761,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1754,14 +1778,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1770,31 +1794,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1803,14 +1827,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1820,14 +1844,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1836,31 +1860,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1869,28 +1893,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1902,20 +1926,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1926,7 +1950,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1942,24 +1966,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1968,20 +1992,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -1992,7 +2016,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2008,24 +2032,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2034,31 +2058,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2074,24 +2098,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2100,66 +2124,165 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
         <v>121</v>
       </c>
-      <c t="s" r="Q40" s="12">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1631.6700000000001</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>18</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>71</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>14</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
         <v>122</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
+      <c t="s" r="Q41" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
         <v>123</v>
       </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
         <v>124</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>71</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>125</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>127</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>128</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>71</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>64</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>1793.8699999999999</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
+        <v>130</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>131</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>132</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2338,10 +2461,25 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -278,6 +278,15 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>OCUMETHYL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>ORLY 120MG 30 CAPS.</t>
   </si>
   <si>
@@ -401,7 +410,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 4:54 PM</t>
+    <t>Wednesday, 10 September, 2025 5:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1801,7 +1810,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1818,7 +1827,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1834,7 +1843,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1844,14 +1853,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1867,7 +1876,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1877,14 +1886,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1900,13 +1909,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1917,7 +1926,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1933,13 +1942,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1966,13 +1975,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1980,7 +1989,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1992,20 +2001,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2013,10 +2022,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2025,31 +2034,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2058,14 +2067,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2075,11 +2084,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2098,7 +2107,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2108,14 +2117,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2148,7 +2157,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2174,14 +2183,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2190,14 +2199,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2207,14 +2216,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2223,14 +2232,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2240,49 +2249,82 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>130</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>131</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>71</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>64</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>1793.8699999999999</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
-        <v>130</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
-        <v>131</v>
-      </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
-        <v>132</v>
-      </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>1815.8699999999999</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>133</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>134</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>135</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2476,10 +2518,15 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -410,7 +410,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 5:24 PM</t>
+    <t>Wednesday, 10 September, 2025 5:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -134,6 +134,15 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>BISOLOCK-D 10/25MG 20 F.C.TAB</t>
   </si>
   <si>
@@ -410,7 +419,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 5:30 PM</t>
+    <t>Wednesday, 10 September, 2025 5:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1282,7 +1291,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1332,7 +1341,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1348,7 +1357,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1358,14 +1367,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1374,14 +1383,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1391,14 +1400,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1407,14 +1416,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1424,14 +1433,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1440,14 +1449,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1480,7 +1489,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1490,14 +1499,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1506,14 +1515,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1530,7 +1539,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1546,7 +1555,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1556,11 +1565,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1572,31 +1581,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1605,31 +1614,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1638,7 +1647,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1651,18 +1660,18 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1678,7 +1687,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1688,14 +1697,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1704,14 +1713,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1721,14 +1730,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1744,7 +1753,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1754,14 +1763,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1770,14 +1779,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1787,7 +1796,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -1810,7 +1819,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1827,7 +1836,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1843,7 +1852,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1860,7 +1869,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1876,7 +1885,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1886,14 +1895,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1909,7 +1918,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1919,14 +1928,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1942,13 +1951,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1959,7 +1968,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1975,13 +1984,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2008,13 +2017,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2022,7 +2031,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2034,20 +2043,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2055,10 +2064,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2067,31 +2076,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2100,28 +2109,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2140,24 +2149,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2179,7 +2188,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2190,7 +2199,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2212,18 +2221,18 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2232,31 +2241,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2265,66 +2274,99 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>133</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>134</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>74</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>67</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q45" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>1815.8699999999999</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
-        <v>133</v>
-      </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
-        <v>134</v>
-      </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
-        <v>135</v>
-      </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>1842.5999999999999</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>136</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>137</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>138</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2523,10 +2565,15 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>26.7300</t>
+  </si>
+  <si>
+    <t>BI-KETOGESIC 150 MG 30 TAB.</t>
   </si>
   <si>
     <t>BISOLOCK-D 10/25MG 20 F.C.TAB</t>
@@ -1324,7 +1327,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1334,11 +1337,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1350,7 +1353,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1367,14 +1370,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1383,14 +1386,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1400,14 +1403,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1416,14 +1419,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1433,14 +1436,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1449,14 +1452,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1466,14 +1469,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1482,14 +1485,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1499,11 +1502,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1515,14 +1518,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1532,14 +1535,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1548,14 +1551,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1565,14 +1568,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1581,14 +1584,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1598,11 +1601,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1621,24 +1624,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1647,31 +1650,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1680,7 +1683,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1693,18 +1696,18 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1713,14 +1716,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1730,14 +1733,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1746,14 +1749,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1763,14 +1766,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1779,14 +1782,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1796,14 +1799,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1812,14 +1815,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1829,11 +1832,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1845,14 +1848,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1862,14 +1865,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1878,14 +1881,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1895,14 +1898,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1911,14 +1914,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1928,14 +1931,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1944,14 +1947,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1961,14 +1964,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1977,31 +1980,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2010,28 +2013,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2043,28 +2046,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2076,31 +2079,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2109,31 +2112,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2142,28 +2145,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2175,31 +2178,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2208,7 +2211,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2221,18 +2224,18 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2241,7 +2244,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2254,18 +2257,18 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2274,31 +2277,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2307,66 +2310,99 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>134</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
         <v>135</v>
       </c>
-      <c t="s" r="Q45" s="12">
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>75</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>68</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>1842.5999999999999</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
-        <v>136</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>1869.3299999999999</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
         <v>137</v>
       </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
         <v>138</v>
       </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>139</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2570,10 +2606,15 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -122,6 +122,15 @@
     <t>105.0000</t>
   </si>
   <si>
+    <t>BACTICLOR 250MG/5ML SUSP 60 ML</t>
+  </si>
+  <si>
+    <t>136.00</t>
+  </si>
+  <si>
+    <t>136.0000</t>
+  </si>
+  <si>
     <t>BETADERM 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -230,6 +239,15 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
     <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -290,6 +308,15 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
     <t>OCUMETHYL EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -383,7 +410,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -422,7 +452,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 5:32 PM</t>
+    <t>Wednesday, 10 September, 2025 5:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1261,7 +1291,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1271,11 +1301,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1287,14 +1317,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1311,7 +1341,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1327,7 +1357,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1337,11 +1367,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1353,14 +1383,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1370,11 +1400,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1410,7 +1440,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1426,7 +1456,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1436,14 +1466,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1452,14 +1482,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1469,14 +1499,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1485,14 +1515,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1502,14 +1532,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1518,14 +1548,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1558,7 +1588,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1568,14 +1598,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1584,14 +1614,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1608,7 +1638,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1624,7 +1654,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1634,11 +1664,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1650,31 +1680,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1683,28 +1713,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1723,24 +1753,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1749,31 +1779,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1782,14 +1812,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1799,14 +1829,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1815,14 +1845,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1832,14 +1862,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1848,14 +1878,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1865,14 +1895,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1881,7 +1911,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1898,14 +1928,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1921,7 +1951,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1954,7 +1984,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1964,7 +1994,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -1987,7 +2017,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2004,7 +2034,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2020,13 +2050,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2037,7 +2067,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2053,7 +2083,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2063,7 +2093,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2086,13 +2116,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2100,10 +2130,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2112,20 +2142,20 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2136,7 +2166,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2152,21 +2182,21 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2178,20 +2208,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2199,7 +2229,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2218,24 +2248,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2244,28 +2274,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2284,24 +2314,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2310,20 +2340,20 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2334,7 +2364,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2343,66 +2373,165 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>1869.3299999999999</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
-        <v>137</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
         <v>138</v>
       </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>18</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>81</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>14</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
         <v>139</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c t="s" r="Q47" s="12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>140</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>141</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>81</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>142</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>144</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>145</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>81</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>71</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>2102.1100000000001</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>147</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>148</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>149</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2611,10 +2740,25 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -110,12 +110,24 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>-36.6300</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>210.00</t>
   </si>
   <si>
@@ -197,6 +209,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>-20.7900</t>
+  </si>
+  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
@@ -251,6 +272,15 @@
     <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
   </si>
   <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>134.0000</t>
+  </si>
+  <si>
     <t>IVYMOND SYRUP</t>
   </si>
   <si>
@@ -299,6 +329,15 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>-30.0000</t>
+  </si>
+  <si>
     <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
   </si>
   <si>
@@ -392,13 +431,13 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>25:0</t>
+    <t>24:0</t>
   </si>
   <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>55:0</t>
+    <t>54:0</t>
   </si>
   <si>
     <t>20.00</t>
@@ -428,9 +467,6 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>كريم فيرند لافلي الكبير</t>
   </si>
   <si>
@@ -452,7 +488,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 5:46 PM</t>
+    <t>Wednesday, 10 September, 2025 5:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1275,7 +1311,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1284,14 +1320,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1301,14 +1337,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1317,14 +1353,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1357,7 +1393,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1367,14 +1403,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1383,14 +1419,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1400,11 +1436,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1416,14 +1452,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1449,7 +1485,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1466,14 +1502,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1482,14 +1518,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1506,7 +1542,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1539,7 +1575,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1572,7 +1608,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1588,7 +1624,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1605,7 +1641,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1638,7 +1674,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1654,7 +1690,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1687,7 +1723,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1697,14 +1733,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1713,14 +1749,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1730,11 +1766,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1746,31 +1782,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1779,28 +1815,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1812,14 +1848,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1829,14 +1865,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1845,28 +1881,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1878,31 +1914,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1911,14 +1947,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1928,14 +1964,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1944,14 +1980,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1961,14 +1997,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1977,14 +2013,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1994,14 +2030,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2010,7 +2046,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2027,14 +2063,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2043,14 +2079,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2060,14 +2096,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2076,14 +2112,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2093,14 +2129,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2109,14 +2145,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2126,14 +2162,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2142,28 +2178,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2175,14 +2211,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2192,14 +2228,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2208,28 +2244,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2241,14 +2277,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>123</v>
+        <v>34</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2258,11 +2294,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2274,28 +2310,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2307,28 +2343,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2340,7 +2376,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2353,18 +2389,18 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>134</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2380,24 +2416,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2406,20 +2442,20 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2427,10 +2463,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2439,28 +2475,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>25</v>
@@ -2479,59 +2515,191 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>148</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>18</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>91</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>149</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q50" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>2102.1100000000001</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>151</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>18</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>91</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>14</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q51" s="12">
         <v>147</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
-        <v>148</v>
-      </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
-        <v>149</v>
-      </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>152</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>153</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>91</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>154</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>156</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>157</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>91</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>78</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>2198.6900000000001</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
+        <v>159</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>160</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>161</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2755,10 +2923,30 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -488,7 +488,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 5:53 PM</t>
+    <t>Wednesday, 10 September, 2025 5:54 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -221,13 +221,13 @@
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
-    <t>3:1</t>
+    <t>3:0</t>
   </si>
   <si>
     <t>50.00</t>
   </si>
   <si>
-    <t>25.0000</t>
+    <t>50.0000</t>
   </si>
   <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
@@ -251,6 +251,18 @@
     <t>7.9200</t>
   </si>
   <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
     <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
   </si>
   <si>
@@ -311,9 +323,6 @@
     <t>LAMIFEN 1% CREAM 15 GM</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
@@ -329,6 +338,15 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
     <t>MOVEASY 5 MG 20 F.C.TABS.</t>
   </si>
   <si>
@@ -356,6 +374,15 @@
     <t>71.0000</t>
   </si>
   <si>
+    <t>NO-URIC 300MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>OCUMETHYL EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -443,6 +470,21 @@
     <t>20.00</t>
   </si>
   <si>
+    <t>ديتول صغير</t>
+  </si>
+  <si>
+    <t>17.00</t>
+  </si>
+  <si>
+    <t>زيت الو ايفا85ملل</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -452,9 +494,6 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -479,6 +518,9 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>ليفه</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -488,7 +530,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 5:54 PM</t>
+    <t>Wednesday, 10 September, 2025 5:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1674,7 +1716,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1756,7 +1798,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1766,11 +1808,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1782,14 +1824,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1799,11 +1841,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1815,14 +1857,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1832,11 +1874,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1848,14 +1890,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1865,14 +1907,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1881,20 +1923,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1905,7 +1947,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1921,24 +1963,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1947,7 +1989,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1960,18 +2002,18 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1980,14 +2022,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1997,14 +2039,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2013,14 +2055,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2030,14 +2072,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2053,7 +2095,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2063,14 +2105,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2079,14 +2121,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2096,14 +2138,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2152,7 +2194,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2169,7 +2211,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2185,7 +2227,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2202,7 +2244,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2218,7 +2260,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2235,7 +2277,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2251,7 +2293,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2261,7 +2303,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2284,7 +2326,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2301,7 +2343,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2317,13 +2359,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2334,7 +2376,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2350,7 +2392,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2360,7 +2402,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2383,13 +2425,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2397,10 +2439,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2409,20 +2451,20 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>136</v>
+        <v>63</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2433,7 +2475,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2449,24 +2491,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2475,20 +2517,20 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2496,10 +2538,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2515,24 +2557,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>147</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2548,24 +2590,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2574,31 +2616,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>147</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2607,20 +2649,20 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2628,10 +2670,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2640,66 +2682,264 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>2198.6900000000001</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>158</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>18</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>95</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
         <v>159</v>
       </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
         <v>160</v>
       </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
+      <c t="s" r="Q54" s="12">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
         <v>161</v>
       </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>18</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>95</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>162</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>164</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>18</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>95</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>14</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>165</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>166</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>95</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>167</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>169</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>63</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>95</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>14</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>170</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>171</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>95</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>78</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>2405.1900000000001</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
+        <v>173</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>174</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>175</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2943,10 +3183,40 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -65,111 +65,114 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>AMARYL 3 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>AMBEZIM-G 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>AMPOFER 20MG/ML 5 AMP. FOR I.V. INJ./INF.</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>ANTI-COX II 15MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>-36.6300</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>BACTICLOR 250MG/5ML SUSP 60 ML</t>
+  </si>
+  <si>
+    <t>136.00</t>
+  </si>
+  <si>
+    <t>136.0000</t>
+  </si>
+  <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>BI-KETOGESIC 150 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>BISOLOCK-D 10/25MG 20 F.C.TAB</t>
+  </si>
+  <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>AMARYL 3 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>AMBEZIM-G 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>AMPOFER 20MG/ML 5 AMP. FOR I.V. INJ./INF.</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>275.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>ANTI-COX II 15MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>111.00</t>
-  </si>
-  <si>
-    <t>-36.6300</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>210.00</t>
-  </si>
-  <si>
-    <t>105.0000</t>
-  </si>
-  <si>
-    <t>BACTICLOR 250MG/5ML SUSP 60 ML</t>
-  </si>
-  <si>
-    <t>136.00</t>
-  </si>
-  <si>
-    <t>136.0000</t>
-  </si>
-  <si>
-    <t>BETADERM 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>BI ALCOFAN 150 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>BI-KETOGESIC 150 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>BISOLOCK-D 10/25MG 20 F.C.TAB</t>
-  </si>
-  <si>
     <t>42.00</t>
   </si>
   <si>
@@ -221,108 +224,111 @@
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:4</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
+    <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>134.0000</t>
+  </si>
+  <si>
+    <t>IVYMOND SYRUP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>JOMOGESTIVE TAB</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>83.1600</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>6:4</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>7.9200</t>
-  </si>
-  <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>21.7800</t>
-  </si>
-  <si>
-    <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>134.0000</t>
-  </si>
-  <si>
-    <t>IVYMOND SYRUP</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>JOMOGESTIVE TAB</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>83.1600</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
@@ -341,6 +347,9 @@
     <t>MILGA ADVANCE 30 F.C. TABS</t>
   </si>
   <si>
+    <t>2:1</t>
+  </si>
+  <si>
     <t>150.00</t>
   </si>
   <si>
@@ -446,9 +455,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
@@ -521,6 +527,9 @@
     <t>ليفه</t>
   </si>
   <si>
+    <t>7:0</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -530,7 +539,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 5:56 PM</t>
+    <t>Wednesday, 10 September, 2025 6:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1534,7 +1543,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1544,11 +1553,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1560,14 +1569,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1577,11 +1586,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1593,14 +1602,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1610,11 +1619,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1626,14 +1635,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1643,11 +1652,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1659,7 +1668,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1676,11 +1685,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>37</v>
@@ -1692,14 +1701,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1709,11 +1718,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1725,14 +1734,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1742,11 +1751,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1758,14 +1767,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1775,11 +1784,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>32</v>
@@ -1791,14 +1800,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1808,11 +1817,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1824,7 +1833,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1841,11 +1850,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1857,7 +1866,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1874,11 +1883,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1890,7 +1899,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1907,11 +1916,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1923,7 +1932,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1940,11 +1949,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>25</v>
@@ -1956,28 +1965,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1989,7 +1998,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2002,15 +2011,15 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2022,7 +2031,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2039,11 +2048,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>32</v>
@@ -2055,14 +2064,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2088,7 +2097,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2105,11 +2114,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>25</v>
@@ -2121,14 +2130,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2138,11 +2147,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2154,14 +2163,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2171,11 +2180,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2187,7 +2196,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2204,11 +2213,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>37</v>
@@ -2220,7 +2229,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2237,11 +2246,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2253,14 +2262,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2270,11 +2279,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2286,14 +2295,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2303,11 +2312,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2319,14 +2328,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2336,11 +2345,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2352,7 +2361,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2369,11 +2378,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2385,14 +2394,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2402,11 +2411,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2418,7 +2427,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2435,11 +2444,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2451,28 +2460,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2484,7 +2493,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2501,11 +2510,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2517,24 +2526,24 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2550,14 +2559,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2567,11 +2576,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2583,20 +2592,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2604,7 +2613,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>25</v>
@@ -2616,28 +2625,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>25</v>
@@ -2649,28 +2658,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2682,28 +2691,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2715,31 +2724,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2748,28 +2757,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2781,20 +2790,20 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2802,10 +2811,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2814,28 +2823,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>25</v>
@@ -2847,20 +2856,20 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>63</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2880,28 +2889,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2915,7 +2924,7 @@
     </row>
     <row r="61" ht="16.5" customHeight="1">
       <c t="s" r="A61" s="14">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -2923,13 +2932,13 @@
       <c r="E61" s="14"/>
       <c r="F61" s="14"/>
       <c t="s" r="G61" s="15">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H61" s="15"/>
       <c r="I61" s="15"/>
       <c r="J61" s="16"/>
       <c t="s" r="K61" s="17">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L61" s="17"/>
       <c r="M61" s="17"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -233,6 +233,21 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -497,7 +512,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>8.0000</t>
+    <t>10.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -506,7 +521,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -539,7 +554,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 6:05 PM</t>
+    <t>Wednesday, 10 September, 2025 6:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1741,7 +1756,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1751,11 +1766,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1767,14 +1782,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1784,14 +1799,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1800,14 +1815,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1817,11 +1832,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1833,14 +1848,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1850,14 +1865,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1866,14 +1881,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1883,11 +1898,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1899,14 +1914,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1916,11 +1931,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1932,7 +1947,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1949,14 +1964,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1965,31 +1980,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1998,31 +2013,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2031,20 +2046,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2055,7 +2070,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2071,24 +2086,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2104,7 +2119,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2121,7 +2136,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2137,7 +2152,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2147,14 +2162,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2170,7 +2185,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2180,14 +2195,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2196,14 +2211,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2213,14 +2228,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2229,14 +2244,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2246,11 +2261,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2262,14 +2277,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2279,14 +2294,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2295,14 +2310,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2312,14 +2327,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2328,7 +2343,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2345,11 +2360,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2361,14 +2376,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2378,14 +2393,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2394,14 +2409,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2411,11 +2426,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2427,14 +2442,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2444,11 +2459,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2460,28 +2475,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2493,14 +2508,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2510,14 +2525,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2526,28 +2541,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2566,7 +2581,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2583,7 +2598,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2599,24 +2614,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>53</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2632,24 +2647,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2665,24 +2680,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2698,24 +2713,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2731,13 +2746,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2745,10 +2760,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2757,28 +2772,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2790,7 +2805,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2803,18 +2818,18 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2823,20 +2838,20 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>53</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2863,13 +2878,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>53</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2877,10 +2892,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2889,66 +2904,132 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>176</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>177</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>101</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>14</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q60" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>2405.1900000000001</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
-        <v>176</v>
-      </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
-        <v>177</v>
-      </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
         <v>178</v>
       </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>179</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>101</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>84</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>2433.9499999999998</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>181</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>182</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>183</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3222,10 +3303,20 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -224,7 +224,7 @@
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
-    <t>3:1</t>
+    <t>3:0</t>
   </si>
   <si>
     <t>50.00</t>
@@ -251,57 +251,69 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
+    <t>5:2</t>
+  </si>
+  <si>
     <t>48.00</t>
   </si>
   <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:4</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
+    <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
+  </si>
+  <si>
     <t>15.8400</t>
   </si>
   <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>6:4</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>7.9200</t>
-  </si>
-  <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>21.7800</t>
-  </si>
-  <si>
-    <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
-  </si>
-  <si>
     <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
   </si>
   <si>
@@ -341,9 +353,6 @@
     <t>LAMIFEN 1% CREAM 15 GM</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
@@ -359,117 +368,123 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>MAVILOR 5MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
     <t>MILGA ADVANCE 30 F.C. TABS</t>
   </si>
   <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>-30.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
+    <t>NO-URIC 300MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>OCUMETHYL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>ORLY 120MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>PRIANIL C.R. 400MG 30 CONTROLLED REL. TAB.</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>SPOTLESS FACE CREAM 18 GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>TIRATAM 500MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>222.00</t>
+  </si>
+  <si>
+    <t>222.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VANCE  30 TAB</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>-30.0000</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>71.0000</t>
-  </si>
-  <si>
-    <t>NO-URIC 300MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>OCUMETHYL EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>ORLY 120MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>79.2000</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>2:5</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>PRIANIL C.R. 400MG 30 CONTROLLED REL. TAB.</t>
-  </si>
-  <si>
-    <t>162.00</t>
-  </si>
-  <si>
-    <t>53.4600</t>
-  </si>
-  <si>
-    <t>SPOTLESS FACE CREAM 18 GM</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>TIRATAM 500MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>222.00</t>
-  </si>
-  <si>
-    <t>222.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VANCE  30 TAB</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
@@ -491,12 +506,6 @@
     <t>20.00</t>
   </si>
   <si>
-    <t>ديتول صغير</t>
-  </si>
-  <si>
-    <t>17.00</t>
-  </si>
-  <si>
     <t>زيت الو ايفا85ملل</t>
   </si>
   <si>
@@ -524,6 +533,9 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -542,9 +554,6 @@
     <t>ليفه</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -554,7 +563,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 6:07 PM</t>
+    <t>Wednesday, 10 September, 2025 6:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1822,7 +1831,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1832,14 +1841,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1848,14 +1857,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1872,7 +1881,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1905,7 +1914,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1921,7 +1930,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1954,7 +1963,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1987,7 +1996,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1997,11 +2006,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2013,14 +2022,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2030,14 +2039,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2046,20 +2055,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2070,7 +2079,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2086,24 +2095,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2112,7 +2121,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2125,18 +2134,18 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2145,14 +2154,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2162,14 +2171,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2178,14 +2187,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2195,14 +2204,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2218,7 +2227,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2228,14 +2237,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2244,14 +2253,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2261,11 +2270,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2277,14 +2286,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2294,14 +2303,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2310,7 +2319,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2327,11 +2336,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2343,14 +2352,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2360,14 +2369,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2376,14 +2385,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2393,14 +2402,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2409,7 +2418,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2426,11 +2435,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2442,14 +2451,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2459,14 +2468,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2475,14 +2484,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2492,11 +2501,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2508,14 +2517,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2525,11 +2534,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2541,28 +2550,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2574,14 +2583,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2591,14 +2600,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2607,28 +2616,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2640,14 +2649,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2657,14 +2666,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2673,31 +2682,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>146</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2706,31 +2715,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2746,24 +2755,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2779,24 +2788,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2812,13 +2821,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2829,7 +2838,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2851,7 +2860,7 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2862,7 +2871,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2884,18 +2893,18 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2904,31 +2913,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2937,20 +2946,20 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>53</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -2958,10 +2967,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2970,66 +2979,132 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
         <v>180</v>
       </c>
-      <c t="s" r="Q61" s="12">
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>64</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>105</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>14</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q62" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>2433.9499999999998</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
         <v>181</v>
       </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
         <v>182</v>
       </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>105</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>88</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
         <v>183</v>
       </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>2581.79</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
+        <v>184</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>185</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>186</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3313,10 +3388,20 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -563,7 +563,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 6:09 PM</t>
+    <t>Wednesday, 10 September, 2025 6:10 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -455,6 +455,18 @@
     <t>53.4600</t>
   </si>
   <si>
+    <t>SILDEN 100 MG 8F.C. TABS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>SILDEN 50 MG 4 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>5.5000</t>
+  </si>
+  <si>
     <t>SPOTLESS FACE CREAM 18 GM</t>
   </si>
   <si>
@@ -563,7 +575,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 6:10 PM</t>
+    <t>Wednesday, 10 September, 2025 6:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2623,24 +2635,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2649,14 +2661,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2666,14 +2678,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2682,14 +2694,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2699,11 +2711,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2715,14 +2727,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2732,14 +2744,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2748,14 +2760,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>53</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2765,14 +2777,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2781,31 +2793,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2814,14 +2826,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2831,14 +2843,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2847,14 +2859,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>53</v>
+        <v>167</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2864,14 +2876,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2880,14 +2892,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2897,14 +2909,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2913,14 +2925,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2930,14 +2942,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2963,14 +2975,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2979,14 +2991,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2996,14 +3008,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3012,14 +3024,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3033,10 +3045,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3045,14 +3057,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3062,49 +3074,115 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>184</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>64</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>105</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>14</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q64" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>2581.79</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
-        <v>184</v>
-      </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
         <v>185</v>
       </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
         <v>186</v>
       </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>105</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>88</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>2595.21</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
+        <v>188</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
+        <v>189</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>190</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3398,10 +3476,20 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -575,7 +575,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 6:12 PM</t>
+    <t>Wednesday, 10 September, 2025 6:17 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -125,6 +125,15 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>ASMAKAST 5 MG 30 CHEWABLE TAB</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
@@ -194,9 +203,6 @@
     <t>0:6</t>
   </si>
   <si>
-    <t>120.00</t>
-  </si>
-  <si>
     <t>19.2000</t>
   </si>
   <si>
@@ -212,6 +218,18 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
@@ -575,7 +593,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 6:17 PM</t>
+    <t>Wednesday, 10 September, 2025 6:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1447,7 +1465,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1464,7 +1482,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1480,7 +1498,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1490,11 +1508,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1506,14 +1524,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1530,7 +1548,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1546,7 +1564,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1556,11 +1574,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1572,14 +1590,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1589,11 +1607,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1605,14 +1623,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1629,7 +1647,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1645,7 +1663,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1655,14 +1673,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1671,14 +1689,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1688,14 +1706,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1704,14 +1722,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1721,14 +1739,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1737,14 +1755,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1754,11 +1772,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1770,14 +1788,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1787,14 +1805,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1803,14 +1821,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1820,14 +1838,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1836,14 +1854,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1853,14 +1871,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1869,14 +1887,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1886,11 +1904,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1902,14 +1920,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1919,11 +1937,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>32</v>
@@ -1935,14 +1953,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1952,11 +1970,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1968,14 +1986,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1992,7 +2010,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2008,7 +2026,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2041,7 +2059,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2051,11 +2069,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2067,14 +2085,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2084,14 +2102,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2100,31 +2118,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2133,31 +2151,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2173,24 +2191,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2199,31 +2217,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2232,14 +2250,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2249,14 +2267,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2265,14 +2283,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2282,14 +2300,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2298,14 +2316,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2315,14 +2333,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2331,14 +2349,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2348,11 +2366,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2364,14 +2382,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2381,14 +2399,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2437,7 +2455,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2454,7 +2472,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2470,7 +2488,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2487,7 +2505,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2503,7 +2521,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2536,7 +2554,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2553,7 +2571,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2569,7 +2587,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>56</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2579,7 +2597,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2602,7 +2620,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2645,14 +2663,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2661,14 +2679,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2678,11 +2696,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2694,31 +2712,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2727,14 +2745,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2744,14 +2762,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2767,13 +2785,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2781,7 +2799,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>31</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2793,14 +2811,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2817,7 +2835,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2833,24 +2851,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>165</v>
+        <v>56</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>154</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2872,7 +2890,7 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2880,10 +2898,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2892,31 +2910,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2932,24 +2950,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>53</v>
+        <v>173</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2965,13 +2983,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -2982,7 +3000,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2998,24 +3016,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3024,31 +3042,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3057,31 +3075,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>181</v>
+        <v>48</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3090,20 +3108,20 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3111,10 +3129,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3123,66 +3141,132 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>88</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>190</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>66</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>111</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>14</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q66" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>2595.21</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
-        <v>188</v>
-      </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
-        <v>189</v>
-      </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
-        <v>190</v>
-      </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>191</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>192</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>111</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>94</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="P68" s="13">
+        <v>2665.8099999999999</v>
+      </c>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c t="s" r="A69" s="14">
+        <v>194</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c t="s" r="G69" s="15">
+        <v>195</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c t="s" r="K69" s="17">
+        <v>196</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="317">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3486,10 +3570,20 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="K69:Q69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -368,6 +368,15 @@
     <t>83.1600</t>
   </si>
   <si>
+    <t>LACTOMAX 10 SACHETS</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>LAMIFEN 1% CREAM 15 GM</t>
   </si>
   <si>
@@ -509,6 +518,18 @@
     <t>110.00</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -539,12 +560,6 @@
     <t>زيت الو ايفا85ملل</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -566,6 +581,15 @@
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
+    <t>فرشه شعر اطفال الجو</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -593,7 +617,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 6:22 PM</t>
+    <t>Wednesday, 10 September, 2025 6:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2290,7 +2314,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2300,11 +2324,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2316,14 +2340,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2333,14 +2357,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2356,7 +2380,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2366,14 +2390,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2382,14 +2406,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2399,14 +2423,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2415,14 +2439,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2432,14 +2456,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2472,7 +2496,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2505,7 +2529,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2521,7 +2545,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2538,7 +2562,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2554,7 +2578,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2587,7 +2611,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2620,7 +2644,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2637,7 +2661,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2653,7 +2677,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>32</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2663,14 +2687,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2686,7 +2710,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2696,14 +2720,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2719,7 +2743,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2729,11 +2753,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2745,14 +2769,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2762,11 +2786,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2778,31 +2802,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2818,13 +2842,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2851,13 +2875,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2865,7 +2889,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2877,20 +2901,20 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2898,10 +2922,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2910,31 +2934,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2943,31 +2967,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2976,14 +3000,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2993,14 +3017,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3009,14 +3033,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>56</v>
+        <v>180</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3026,14 +3050,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3042,14 +3066,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3059,14 +3083,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>120</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3075,14 +3099,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3092,14 +3116,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3108,7 +3132,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3125,14 +3149,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>115</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3141,14 +3165,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>187</v>
+        <v>48</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3158,14 +3182,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3181,7 +3205,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3191,11 +3215,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3207,14 +3231,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3224,49 +3248,148 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q67" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>194</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>195</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>111</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>196</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>198</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>66</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>111</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>14</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q69" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="68" ht="24.75" customHeight="1">
-      <c r="P68" s="13">
-        <v>2665.8099999999999</v>
-      </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
-        <v>194</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
-        <v>195</v>
-      </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
-        <v>196</v>
-      </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>199</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>200</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>111</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>94</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>2761.8099999999999</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
+        <v>202</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
+        <v>203</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
+        <v>204</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3580,10 +3703,25 @@
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -617,7 +617,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 6:34 PM</t>
+    <t>Wednesday, 10 September, 2025 6:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -473,6 +473,15 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>PEDICAL PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>PRIANIL C.R. 400MG 30 CONTROLLED REL. TAB.</t>
   </si>
   <si>
@@ -617,7 +626,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 6:36 PM</t>
+    <t>Wednesday, 10 September, 2025 6:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2743,7 +2752,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2760,7 +2769,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2776,7 +2785,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2786,11 +2795,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2802,14 +2811,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2819,11 +2828,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2835,31 +2844,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2875,13 +2884,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2908,13 +2917,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2922,7 +2931,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2934,20 +2943,20 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>170</v>
+        <v>56</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2955,7 +2964,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2967,14 +2976,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2984,14 +2993,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3000,31 +3009,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3033,14 +3042,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3050,11 +3059,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>14</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
@@ -3073,7 +3082,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3083,14 +3092,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3099,14 +3108,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3116,14 +3125,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3156,7 +3165,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3172,7 +3181,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3182,14 +3191,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3198,7 +3207,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3215,11 +3224,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3238,7 +3247,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3248,14 +3257,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>115</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3264,14 +3273,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>195</v>
+        <v>56</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3281,14 +3290,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3297,14 +3306,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3314,14 +3323,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3330,14 +3339,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>200</v>
+        <v>66</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3347,49 +3356,82 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>2761.8099999999999</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
         <v>202</v>
       </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
         <v>203</v>
       </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>111</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>94</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
         <v>204</v>
       </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>2813.8099999999999</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>205</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>206</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>207</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3718,10 +3760,15 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -626,7 +626,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 6:39 PM</t>
+    <t>Wednesday, 10 September, 2025 6:41 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -134,6 +134,15 @@
     <t>39.6000</t>
   </si>
   <si>
+    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>46.5300</t>
+  </si>
+  <si>
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
@@ -473,6 +482,15 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
     <t>PEDICAL PLUS SYRUP 100 ML</t>
   </si>
   <si>
@@ -521,6 +539,18 @@
     <t>222.0000</t>
   </si>
   <si>
+    <t>TRYPTIZOL 25MG 30 TAB</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>10.8900</t>
+  </si>
+  <si>
     <t xml:space="preserve">VANCE  30 TAB</t>
   </si>
   <si>
@@ -626,7 +656,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 6:41 PM</t>
+    <t>Wednesday, 10 September, 2025 6:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1498,7 +1528,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1531,7 +1561,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1548,7 +1578,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1564,7 +1594,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1574,11 +1604,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1590,14 +1620,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1614,7 +1644,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1630,7 +1660,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1640,11 +1670,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1656,14 +1686,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1673,11 +1703,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1689,14 +1719,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1713,7 +1743,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1729,7 +1759,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1739,14 +1769,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1772,14 +1802,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1788,14 +1818,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1805,11 +1835,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1821,14 +1851,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1845,7 +1875,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1861,7 +1891,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1871,14 +1901,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1887,14 +1917,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1904,14 +1934,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1920,14 +1950,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1937,11 +1967,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1953,14 +1983,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1970,14 +2000,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1986,14 +2016,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2010,7 +2040,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2026,7 +2056,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2036,14 +2066,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2052,14 +2082,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2076,7 +2106,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2092,7 +2122,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2125,7 +2155,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2158,7 +2188,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2168,11 +2198,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2184,14 +2214,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2201,14 +2231,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2224,24 +2254,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2250,31 +2280,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2283,7 +2313,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2296,18 +2326,18 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2323,7 +2353,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2340,7 +2370,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2356,7 +2386,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2366,11 +2396,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2382,14 +2412,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2399,14 +2429,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2422,7 +2452,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2432,14 +2462,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2448,14 +2478,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2465,14 +2495,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2481,14 +2511,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2498,14 +2528,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2538,7 +2568,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2571,7 +2601,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2587,7 +2617,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2604,7 +2634,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2620,7 +2650,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2653,7 +2683,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2686,7 +2716,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2703,7 +2733,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2719,7 +2749,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2729,14 +2759,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2752,7 +2782,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2762,7 +2792,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2785,7 +2815,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2818,7 +2848,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2828,14 +2858,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2844,14 +2874,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2861,11 +2891,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2877,31 +2907,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>106</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2910,14 +2940,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2927,14 +2957,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2950,13 +2980,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2964,7 +2994,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2976,14 +3006,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3049,24 +3079,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>59</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3088,7 +3118,7 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3096,10 +3126,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3108,31 +3138,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3141,31 +3171,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>56</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3174,28 +3204,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>25</v>
@@ -3207,28 +3237,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3240,31 +3270,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3273,31 +3303,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>115</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3306,31 +3336,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>198</v>
+        <v>51</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3339,28 +3369,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3372,66 +3402,165 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>203</v>
+        <v>59</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q71" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>207</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>208</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>114</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>209</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>211</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>69</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>114</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>14</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q73" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>2813.8099999999999</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
-        <v>205</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
-        <v>206</v>
-      </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
-        <v>207</v>
-      </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>212</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>213</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>114</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>97</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>214</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="P75" s="13">
+        <v>2930.6300000000001</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
+        <v>215</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
+        <v>216</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
+        <v>217</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3765,10 +3894,25 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -389,6 +389,15 @@
     <t>LAMIFEN 1% CREAM 15 GM</t>
   </si>
   <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
@@ -590,7 +599,7 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>54:0</t>
+    <t>53:0</t>
   </si>
   <si>
     <t>20.00</t>
@@ -656,7 +665,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 6:45 PM</t>
+    <t>Wednesday, 10 September, 2025 6:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2452,7 +2461,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2469,7 +2478,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2485,7 +2494,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2495,14 +2504,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2511,14 +2520,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2528,14 +2537,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2544,14 +2553,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2561,14 +2570,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2601,7 +2610,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2634,7 +2643,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2650,7 +2659,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2667,7 +2676,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2683,7 +2692,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2716,7 +2725,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2749,7 +2758,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2766,7 +2775,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2782,7 +2791,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2792,14 +2801,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2815,7 +2824,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2825,14 +2834,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2848,7 +2857,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2865,7 +2874,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2881,7 +2890,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2898,7 +2907,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2914,7 +2923,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>34</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2924,11 +2933,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2940,14 +2949,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2957,11 +2966,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -2973,31 +2982,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3013,13 +3022,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3046,7 +3055,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3056,14 +3065,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3072,20 +3081,20 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3093,10 +3102,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3105,20 +3114,20 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>59</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3126,7 +3135,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3138,14 +3147,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3155,14 +3164,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3171,31 +3180,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3204,14 +3213,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3221,11 +3230,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>14</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>25</v>
@@ -3244,7 +3253,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3254,14 +3263,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>123</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3270,14 +3279,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3287,14 +3296,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>123</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3327,7 +3336,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3343,7 +3352,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3353,14 +3362,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3369,7 +3378,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3386,11 +3395,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3409,7 +3418,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3419,14 +3428,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>14</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>118</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3435,14 +3444,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>59</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3452,14 +3461,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3468,14 +3477,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>69</v>
+        <v>211</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3485,14 +3494,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3501,14 +3510,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>213</v>
+        <v>69</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3518,49 +3527,82 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>2930.6300000000001</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
         <v>215</v>
       </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
         <v>216</v>
       </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>114</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>97</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
         <v>217</v>
       </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>2989.6300000000001</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>218</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>219</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>220</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3909,10 +3951,15 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -509,6 +509,15 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>PHENADONE SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
     <t>PRIANIL C.R. 400MG 30 CONTROLLED REL. TAB.</t>
   </si>
   <si>
@@ -665,7 +674,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 6:46 PM</t>
+    <t>Wednesday, 10 September, 2025 6:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2923,7 +2932,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2940,7 +2949,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2956,7 +2965,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2966,11 +2975,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -2982,14 +2991,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>59</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2999,11 +3008,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3015,31 +3024,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3055,13 +3064,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3088,7 +3097,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3098,14 +3107,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3114,20 +3123,20 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3135,10 +3144,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3147,20 +3156,20 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>59</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3168,7 +3177,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3180,14 +3189,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3197,14 +3206,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3213,31 +3222,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3246,14 +3255,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3263,14 +3272,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>14</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3286,7 +3295,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3296,14 +3305,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3312,14 +3321,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3329,14 +3338,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3369,7 +3378,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3385,7 +3394,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3395,14 +3404,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3411,7 +3420,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3428,11 +3437,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3451,7 +3460,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3461,14 +3470,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3477,14 +3486,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>211</v>
+        <v>59</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3494,14 +3503,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>14</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3510,14 +3519,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>69</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3527,14 +3536,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>15</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3543,14 +3552,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>216</v>
+        <v>69</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3560,49 +3569,82 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>2989.6300000000001</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
         <v>218</v>
       </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
         <v>219</v>
       </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>114</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>97</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
         <v>220</v>
       </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c t="s" r="Q76" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>3026.6300000000001</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>221</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>222</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>223</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3956,10 +3998,15 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -275,6 +275,15 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>DICETEL 100MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -287,6 +296,15 @@
     <t>31.6800</t>
   </si>
   <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
     <t>DRAMENEX 50MG 20 TABS.</t>
   </si>
   <si>
@@ -308,6 +326,15 @@
     <t>7.9200</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>FLAGYL 500MG 20 TAB.</t>
   </si>
   <si>
@@ -317,6 +344,15 @@
     <t>17.0000</t>
   </si>
   <si>
+    <t>FLATIDYL 40MG 30 CHEWABLE TABS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
     <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
   </si>
   <si>
@@ -494,9 +530,6 @@
     <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
   </si>
   <si>
-    <t>180.00</t>
-  </si>
-  <si>
     <t>59.4000</t>
   </si>
   <si>
@@ -674,7 +707,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 6:54 PM</t>
+    <t>Wednesday, 10 September, 2025 6:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2041,7 +2074,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2051,14 +2084,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2067,14 +2100,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2091,7 +2124,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2107,7 +2140,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2117,14 +2150,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2133,14 +2166,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2150,11 +2183,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2166,14 +2199,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2190,7 +2223,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2206,7 +2239,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2239,7 +2272,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2249,11 +2282,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2265,14 +2298,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2282,14 +2315,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2298,20 +2331,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2322,7 +2355,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2338,21 +2371,21 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2364,14 +2397,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2381,14 +2414,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2404,7 +2437,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2421,7 +2454,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2437,21 +2470,21 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2463,31 +2496,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2496,14 +2529,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2513,14 +2546,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2529,14 +2562,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2546,14 +2579,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2562,14 +2595,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2579,11 +2612,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2595,7 +2628,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2612,14 +2645,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2628,14 +2661,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2645,14 +2678,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2661,14 +2694,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2678,11 +2711,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2694,14 +2727,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2711,11 +2744,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2734,7 +2767,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2751,7 +2784,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2767,7 +2800,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2784,7 +2817,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2800,7 +2833,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2833,7 +2866,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2843,7 +2876,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -2866,7 +2899,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2883,7 +2916,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2932,7 +2965,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2949,7 +2982,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2965,7 +2998,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2975,14 +3008,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2998,7 +3031,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>32</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3012,7 +3045,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3041,14 +3074,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3057,28 +3090,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3090,14 +3123,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3107,14 +3140,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3123,14 +3156,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3140,11 +3173,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3156,7 +3189,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3169,18 +3202,18 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3189,28 +3222,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>69</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3222,14 +3255,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3239,14 +3272,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3255,31 +3288,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3288,31 +3321,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>59</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3321,28 +3354,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>123</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3354,31 +3387,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>59</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3387,28 +3420,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>14</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>25</v>
@@ -3420,31 +3453,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>51</v>
+        <v>210</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3453,28 +3486,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3486,7 +3519,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3499,18 +3532,18 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3519,28 +3552,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>59</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>25</v>
@@ -3552,28 +3585,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>15</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3585,66 +3618,198 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>219</v>
+        <v>51</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>97</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>3026.6300000000001</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
-        <v>221</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
-        <v>222</v>
-      </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
         <v>223</v>
       </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>59</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>126</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>14</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>224</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>225</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>126</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>226</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>228</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>69</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>126</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>14</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>229</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>230</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>126</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>103</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>231</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="P81" s="13">
+        <v>3266.9499999999998</v>
+      </c>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="14">
+        <v>232</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c t="s" r="G82" s="15">
+        <v>233</v>
+      </c>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c t="s" r="K82" s="17">
+        <v>234</v>
+      </c>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="382">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4003,10 +4168,30 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="K82:Q82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -707,7 +707,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 6:55 PM</t>
+    <t>Wednesday, 10 September, 2025 7:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -275,6 +275,12 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>DICETEL 100MG 20 F.C. TABS.</t>
   </si>
   <si>
@@ -287,9 +293,6 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>5:2</t>
-  </si>
-  <si>
     <t>48.00</t>
   </si>
   <si>
@@ -314,6 +317,15 @@
     <t>14.0000</t>
   </si>
   <si>
+    <t>EURONEMIA 100MG/5ML 5 AMP FOR I.V. OR INF.</t>
+  </si>
+  <si>
+    <t>192.50</t>
+  </si>
+  <si>
+    <t>77.0000</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -635,13 +647,13 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>24:0</t>
+    <t>23:0</t>
   </si>
   <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>53:0</t>
+    <t>52:0</t>
   </si>
   <si>
     <t>20.00</t>
@@ -665,7 +677,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
@@ -683,6 +695,9 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>كريم فيرند لافلي الكبير</t>
   </si>
   <si>
@@ -701,13 +716,13 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>23:0</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>Wednesday, 10 September, 2025 7:01 PM</t>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 10 September, 2025 7:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2041,7 +2056,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2055,10 +2070,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2067,7 +2082,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2084,11 +2099,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2100,14 +2115,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2117,11 +2132,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>32</v>
@@ -2133,7 +2148,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2150,11 +2165,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2166,7 +2181,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2183,11 +2198,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2199,14 +2214,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2239,7 +2254,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2249,14 +2264,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2265,14 +2280,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2282,11 +2297,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2298,14 +2313,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2315,11 +2330,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2331,14 +2346,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2348,11 +2363,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2364,14 +2379,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2381,11 +2396,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2397,14 +2412,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2414,11 +2429,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2430,14 +2445,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2447,14 +2462,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2463,20 +2478,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2487,7 +2502,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2503,24 +2518,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2529,7 +2544,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2542,18 +2557,18 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2562,14 +2577,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2579,14 +2594,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2595,14 +2610,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2612,11 +2627,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2628,14 +2643,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2645,11 +2660,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2661,14 +2676,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2678,14 +2693,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2694,14 +2709,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2711,14 +2726,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2727,14 +2742,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2744,14 +2759,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2760,14 +2775,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2777,14 +2792,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2793,7 +2808,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2810,14 +2825,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2826,7 +2841,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2843,14 +2858,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2859,14 +2874,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2876,14 +2891,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2892,14 +2907,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2909,11 +2924,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2925,14 +2940,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2942,11 +2957,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2958,14 +2973,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2975,14 +2990,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2991,14 +3006,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3008,14 +3023,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3024,14 +3039,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3041,14 +3056,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3057,14 +3072,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3074,14 +3089,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3090,14 +3105,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3107,11 +3122,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3123,14 +3138,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3140,14 +3155,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3156,14 +3171,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>34</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3173,11 +3188,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>118</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>104</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3189,14 +3204,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>59</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3206,11 +3221,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3222,31 +3237,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3255,28 +3270,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3288,14 +3303,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3312,7 +3327,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3328,24 +3343,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>59</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>31</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3354,28 +3369,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3411,7 +3426,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3433,18 +3448,18 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3453,28 +3468,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>14</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>80</v>
@@ -3486,31 +3501,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>135</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3519,31 +3534,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3552,7 +3567,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3565,18 +3580,18 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3585,31 +3600,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3618,7 +3633,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3631,15 +3646,15 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3651,31 +3666,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>130</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3684,31 +3699,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>225</v>
+        <v>59</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>14</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3717,31 +3732,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>69</v>
+        <v>230</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>14</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>15</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3750,66 +3765,99 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>69</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
-      <c r="P81" s="13">
-        <v>3266.9499999999998</v>
-      </c>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c t="s" r="A82" s="14">
-        <v>232</v>
-      </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c t="s" r="G82" s="15">
-        <v>233</v>
-      </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="16"/>
-      <c t="s" r="K82" s="17">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
         <v>234</v>
       </c>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>235</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>130</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>107</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>236</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>3432.8299999999999</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
+        <v>237</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>238</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>239</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4188,10 +4236,15 @@
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -722,7 +722,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 7:03 PM</t>
+    <t>Wednesday, 10 September, 2025 7:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -722,7 +722,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 7:26 PM</t>
+    <t>Wednesday, 10 September, 2025 7:27 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -722,7 +722,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 7:27 PM</t>
+    <t>Wednesday, 10 September, 2025 7:32 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -260,6 +260,27 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>CYANOHEPTAN 6 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -293,10 +314,13 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
+    <t>4:2</t>
+  </si>
+  <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>31.6800</t>
+    <t>79.6800</t>
   </si>
   <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
@@ -326,6 +350,15 @@
     <t>77.0000</t>
   </si>
   <si>
+    <t>EXFORGE 10MG/160MG 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>218.00</t>
+  </si>
+  <si>
+    <t>218.0000</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -572,6 +605,15 @@
     <t>53.4600</t>
   </si>
   <si>
+    <t>ROSITOR 20MG 14 F.C.TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>SILDEN 100 MG 8F.C. TABS</t>
   </si>
   <si>
@@ -605,9 +647,6 @@
     <t>TRYPTIZOL 25MG 30 TAB</t>
   </si>
   <si>
-    <t>4:2</t>
-  </si>
-  <si>
     <t>33.00</t>
   </si>
   <si>
@@ -668,7 +707,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>10.0000</t>
+    <t>11:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -722,7 +761,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 7:32 PM</t>
+    <t>Wednesday, 10 September, 2025 7:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2040,7 +2079,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2056,7 +2095,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2066,14 +2105,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2089,7 +2128,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2099,14 +2138,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2115,14 +2154,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2132,11 +2171,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>32</v>
@@ -2148,14 +2187,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2165,14 +2204,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2181,14 +2220,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2198,14 +2237,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2214,7 +2253,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2231,14 +2270,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2247,14 +2286,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2264,14 +2303,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2280,7 +2319,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2297,14 +2336,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2313,14 +2352,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2330,14 +2369,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2346,14 +2385,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2363,14 +2402,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2379,14 +2418,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2396,11 +2435,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2412,14 +2451,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2429,11 +2468,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2445,14 +2484,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2462,11 +2501,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2478,14 +2517,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2495,14 +2534,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2511,31 +2550,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2544,28 +2583,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2577,14 +2616,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2594,14 +2633,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2610,7 +2649,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2623,15 +2662,15 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2643,31 +2682,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2676,14 +2715,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2693,14 +2732,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2709,14 +2748,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2726,14 +2765,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2742,7 +2781,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2759,14 +2798,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2775,14 +2814,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2792,11 +2831,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>46</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2808,14 +2847,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2825,14 +2864,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2841,14 +2880,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2858,14 +2897,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2874,14 +2913,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2891,14 +2930,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2907,14 +2946,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2924,14 +2963,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2940,14 +2979,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2957,14 +2996,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2973,14 +3012,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2990,14 +3029,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3006,14 +3045,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3023,14 +3062,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3039,14 +3078,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>34</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3056,11 +3095,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3072,14 +3111,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3089,14 +3128,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3105,14 +3144,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3122,14 +3161,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3138,14 +3177,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3155,11 +3194,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3171,14 +3210,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3188,11 +3227,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>121</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3204,14 +3243,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>59</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3221,14 +3260,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3237,14 +3276,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3254,14 +3293,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3270,31 +3309,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3303,14 +3342,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3320,11 +3359,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3336,14 +3375,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3353,11 +3392,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>133</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3369,7 +3408,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3382,18 +3421,18 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3402,28 +3441,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>69</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3435,14 +3474,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>208</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3459,7 +3498,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3475,24 +3514,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>140</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3501,20 +3540,20 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>214</v>
+        <v>59</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3522,10 +3561,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3541,21 +3580,21 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>217</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>139</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>140</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3567,31 +3606,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>59</v>
+        <v>221</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3600,28 +3639,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>59</v>
+        <v>225</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>80</v>
@@ -3633,31 +3672,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>51</v>
+        <v>227</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3666,28 +3705,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3699,7 +3738,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3712,18 +3751,18 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>14</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>51</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3732,31 +3771,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>230</v>
+        <v>59</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3765,28 +3804,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>15</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3798,66 +3837,198 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>235</v>
+        <v>51</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>107</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>240</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>59</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>141</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>14</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>242</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>243</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>141</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>244</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>245</v>
+      </c>
+      <c t="s" r="Q83" s="12">
         <v>25</v>
       </c>
     </row>
-    <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>3432.8299999999999</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
-        <v>237</v>
-      </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
-        <v>238</v>
-      </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
-        <v>239</v>
-      </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>246</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>69</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>141</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>14</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>247</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>248</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>141</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>118</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="P86" s="13">
+        <v>3928.8299999999999</v>
+      </c>
+      <c r="Q86" s="13"/>
+    </row>
+    <row r="87" ht="16.5" customHeight="1">
+      <c t="s" r="A87" s="14">
+        <v>250</v>
+      </c>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c t="s" r="G87" s="15">
+        <v>251</v>
+      </c>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c t="s" r="K87" s="17">
+        <v>252</v>
+      </c>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="407">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4241,10 +4412,30 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="K87:Q87"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -260,6 +260,18 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>CYANOHEPTAN 6 I.M. AMP. 2 ML</t>
   </si>
   <si>
@@ -341,6 +353,15 @@
     <t>14.0000</t>
   </si>
   <si>
+    <t>EPIDEXONE 1MG/ML EYE/EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
     <t>EURONEMIA 100MG/5ML 5 AMP FOR I.V. OR INF.</t>
   </si>
   <si>
@@ -362,264 +383,279 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>6:4</t>
+    <t>6:2</t>
   </si>
   <si>
     <t>24.00</t>
   </si>
   <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>FLATIDYL 40MG 30 CHEWABLE TABS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
+    <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>134.0000</t>
+  </si>
+  <si>
+    <t>IVYMOND SYRUP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>JOMOGESTIVE TAB</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>83.1600</t>
+  </si>
+  <si>
+    <t>LACTOMAX 10 SACHETS</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>LUTOFOLONE 2 AMP.</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>MAVILOR 5MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>-30.0000</t>
+  </si>
+  <si>
+    <t>NESTOGEN 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>255.00</t>
+  </si>
+  <si>
+    <t>255.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
+    <t>NO-URIC 300MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>OCUMETHYL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>ORLY 120MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>PEDICAL PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>PHENADONE SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>PRIANIL C.R. 400MG 30 CONTROLLED REL. TAB.</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>ROSITOR 20MG 14 F.C.TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>SILDEN 100 MG 8F.C. TABS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
     <t>7.9200</t>
   </si>
   <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>FLATIDYL 40MG 30 CHEWABLE TABS</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>21.7800</t>
-  </si>
-  <si>
-    <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>134.0000</t>
-  </si>
-  <si>
-    <t>IVYMOND SYRUP</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>JOMOGESTIVE TAB</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>83.1600</t>
-  </si>
-  <si>
-    <t>LACTOMAX 10 SACHETS</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>LUTOFOLONE 2 AMP.</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>MAVILOR 5MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>MILGA ADVANCE 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>-30.0000</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>71.0000</t>
-  </si>
-  <si>
-    <t>NO-URIC 300MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>OCUMETHYL EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>ORLY 120MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>79.2000</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>2:5</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>59.4000</t>
-  </si>
-  <si>
-    <t>PEDICAL PLUS SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>PHENADONE SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>PRIANIL C.R. 400MG 30 CONTROLLED REL. TAB.</t>
-  </si>
-  <si>
-    <t>162.00</t>
-  </si>
-  <si>
-    <t>53.4600</t>
-  </si>
-  <si>
-    <t>ROSITOR 20MG 14 F.C.TAB</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>SILDEN 100 MG 8F.C. TABS</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>SILDEN 50 MG 4 F.C. TABS.</t>
   </si>
   <si>
@@ -647,9 +683,6 @@
     <t>TRYPTIZOL 25MG 30 TAB</t>
   </si>
   <si>
-    <t>33.00</t>
-  </si>
-  <si>
     <t>10.8900</t>
   </si>
   <si>
@@ -749,19 +782,19 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>لونا انبوبه كبير</t>
+  </si>
+  <si>
     <t>ليفه</t>
   </si>
   <si>
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>22:0</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>Wednesday, 10 September, 2025 7:40 PM</t>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>Wednesday, 10 September, 2025 8:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2095,7 +2128,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2105,11 +2138,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2121,14 +2154,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2145,7 +2178,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2171,14 +2204,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2187,14 +2220,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2204,14 +2237,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2220,14 +2253,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2244,7 +2277,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2260,7 +2293,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2270,14 +2303,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2286,14 +2319,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2303,11 +2336,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2319,14 +2352,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2336,14 +2369,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2352,7 +2385,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2369,11 +2402,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2385,14 +2418,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2425,7 +2458,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2442,7 +2475,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2458,7 +2491,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2468,14 +2501,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2484,14 +2517,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2501,11 +2534,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2517,14 +2550,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2534,11 +2567,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2550,14 +2583,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2567,11 +2600,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2583,14 +2616,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2600,11 +2633,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2616,7 +2649,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2633,14 +2666,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2649,31 +2682,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2689,24 +2722,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2715,31 +2748,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2748,31 +2781,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2781,14 +2814,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2798,14 +2831,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2814,14 +2847,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2831,11 +2864,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2847,14 +2880,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2864,11 +2897,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>52</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>25</v>
@@ -2880,14 +2913,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2897,14 +2930,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2913,14 +2946,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2930,14 +2963,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>46</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2946,14 +2979,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2963,11 +2996,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2979,14 +3012,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2996,14 +3029,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3012,7 +3045,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3029,11 +3062,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3045,14 +3078,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3062,14 +3095,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3078,14 +3111,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3095,11 +3128,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3111,14 +3144,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3128,14 +3161,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3144,14 +3177,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3161,14 +3194,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3177,14 +3210,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>185</v>
+        <v>34</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3194,11 +3227,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3210,14 +3243,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3227,14 +3260,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>121</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3243,14 +3276,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3260,14 +3293,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3276,14 +3309,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3293,11 +3326,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3309,14 +3342,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3326,11 +3359,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3342,7 +3375,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3359,11 +3392,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3375,14 +3408,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>202</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3392,14 +3425,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>119</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3408,14 +3441,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3425,11 +3458,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3441,28 +3474,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3474,14 +3507,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>213</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3491,14 +3524,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>141</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3507,14 +3540,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3524,11 +3557,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3540,28 +3573,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>31</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3573,14 +3606,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3590,11 +3623,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3606,14 +3639,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>221</v>
+        <v>105</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3623,11 +3656,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>222</v>
+        <v>85</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3639,31 +3672,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>225</v>
+        <v>59</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>151</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3672,31 +3705,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>158</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3705,31 +3738,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>150</v>
+        <v>233</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>151</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3738,31 +3771,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>59</v>
+        <v>236</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>14</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>232</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3771,31 +3804,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>59</v>
+        <v>238</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>80</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3804,28 +3837,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3837,31 +3870,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>243</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3870,7 +3903,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3883,18 +3916,18 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>14</v>
+        <v>245</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>51</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3903,31 +3936,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>243</v>
+        <v>51</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3936,28 +3969,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>14</v>
+        <v>249</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3969,66 +4002,198 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>248</v>
+        <v>59</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>253</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>254</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>148</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>255</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>256</v>
+      </c>
+      <c t="s" r="Q86" s="12">
         <v>25</v>
       </c>
     </row>
-    <row r="86" ht="25.5" customHeight="1">
-      <c r="P86" s="13">
-        <v>3928.8299999999999</v>
-      </c>
-      <c r="Q86" s="13"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c t="s" r="A87" s="14">
-        <v>250</v>
-      </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c t="s" r="G87" s="15">
-        <v>251</v>
-      </c>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="16"/>
-      <c t="s" r="K87" s="17">
-        <v>252</v>
-      </c>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>257</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>16</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>148</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>165</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>258</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>69</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>148</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>14</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>259</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>260</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>148</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>125</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>4319.75</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
+        <v>261</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
+        <v>262</v>
+      </c>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
+        <v>263</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="407">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4432,10 +4597,30 @@
     <mergeCell ref="H85:K85"/>
     <mergeCell ref="L85:M85"/>
     <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -794,7 +794,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 8:25 PM</t>
+    <t>Wednesday, 10 September, 2025 8:33 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -215,12 +215,21 @@
     <t>19.2000</t>
   </si>
   <si>
+    <t>CEFOZON 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>23.00</t>
   </si>
   <si>
@@ -296,13 +305,13 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>3:3</t>
+    <t>3:2</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
-    <t>11.8800</t>
+    <t>23.7600</t>
   </si>
   <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
@@ -311,9 +320,6 @@
     <t>5:2</t>
   </si>
   <si>
-    <t>23.7600</t>
-  </si>
-  <si>
     <t>DICETEL 100MG 20 F.C. TABS.</t>
   </si>
   <si>
@@ -329,9 +335,6 @@
     <t>4:2</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>79.6800</t>
   </si>
   <si>
@@ -443,6 +446,15 @@
     <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
   </si>
   <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
     <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
   </si>
   <si>
@@ -611,6 +623,12 @@
     <t>59.4000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
     <t>PEDICAL PLUS SYRUP 100 ML</t>
   </si>
   <si>
@@ -671,6 +689,9 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">STOPADOL  FORTE  SACHET</t>
+  </si>
+  <si>
     <t>TIRATAM 500MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -740,18 +761,12 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>11:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
     <t>3.00</t>
   </si>
   <si>
-    <t>9.0000</t>
-  </si>
-  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
@@ -794,7 +809,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 8:33 PM</t>
+    <t>Wednesday, 10 September, 2025 8:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1980,7 +1995,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1996,7 +2011,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2006,11 +2021,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2022,14 +2037,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2046,7 +2061,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2062,7 +2077,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2072,14 +2087,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2088,14 +2103,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2105,11 +2120,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2121,14 +2136,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2138,11 +2153,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2154,14 +2169,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2194,7 +2209,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2204,14 +2219,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2220,14 +2235,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2237,7 +2252,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2260,7 +2275,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2270,14 +2285,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2286,14 +2301,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2303,14 +2318,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2319,14 +2334,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2336,14 +2351,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2352,14 +2367,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2369,11 +2384,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2385,14 +2400,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2402,14 +2417,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2418,14 +2433,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2435,14 +2450,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2451,14 +2466,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2468,14 +2483,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2484,14 +2499,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2501,14 +2516,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>127</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2517,14 +2532,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2534,14 +2549,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2550,14 +2565,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2567,11 +2582,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2583,14 +2598,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2600,11 +2615,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2616,14 +2631,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2633,11 +2648,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2649,14 +2664,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2666,11 +2681,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2682,14 +2697,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2699,11 +2714,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2722,7 +2737,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2732,14 +2747,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2748,31 +2763,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2781,31 +2796,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2814,31 +2829,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2847,31 +2862,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2880,14 +2895,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2897,14 +2912,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2913,14 +2928,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2930,11 +2945,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2946,14 +2961,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2963,11 +2978,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -2979,14 +2994,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2996,14 +3011,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3012,14 +3027,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3029,14 +3044,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3052,7 +3067,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3062,11 +3077,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3078,14 +3093,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3095,14 +3110,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3111,14 +3126,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3128,14 +3143,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3144,7 +3159,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3161,14 +3176,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3177,7 +3192,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3194,11 +3209,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3210,14 +3225,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3227,14 +3242,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3243,7 +3258,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3260,11 +3275,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3276,14 +3291,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3293,14 +3308,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3309,14 +3324,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>196</v>
+        <v>59</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3326,11 +3341,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3342,7 +3357,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3359,11 +3374,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3375,14 +3390,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>59</v>
+        <v>200</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3392,11 +3407,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3408,14 +3423,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3425,14 +3440,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>130</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3441,14 +3456,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3458,11 +3473,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3474,7 +3489,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3491,11 +3506,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3507,14 +3522,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>213</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3524,14 +3539,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>141</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3540,14 +3555,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3557,11 +3572,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3573,28 +3588,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3606,14 +3621,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3623,14 +3638,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>221</v>
+        <v>142</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3639,14 +3654,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3656,11 +3671,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3672,28 +3687,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>31</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3705,28 +3720,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>228</v>
+        <v>59</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3738,14 +3753,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>232</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3755,14 +3770,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3771,31 +3786,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>236</v>
+        <v>107</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>158</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3804,31 +3819,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>238</v>
+        <v>59</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3837,28 +3852,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>157</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>158</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3870,31 +3885,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>59</v>
+        <v>239</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>191</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>243</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3903,31 +3918,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>59</v>
+        <v>243</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>245</v>
+        <v>14</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>246</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3936,31 +3951,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>51</v>
+        <v>245</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3969,28 +3984,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>249</v>
+        <v>161</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>250</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4002,7 +4017,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4015,18 +4030,18 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>14</v>
+        <v>249</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4035,31 +4050,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>254</v>
+        <v>59</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>256</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4068,28 +4083,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>165</v>
+        <v>224</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4101,28 +4116,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>14</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4134,66 +4149,198 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>260</v>
+        <v>59</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>139</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>80</v>
+        <v>51</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>4319.75</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>258</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>259</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>152</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>260</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
         <v>261</v>
       </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
+      <c t="s" r="Q90" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
         <v>262</v>
       </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>16</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>152</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>169</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
         <v>263</v>
       </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>69</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>152</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>14</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>264</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>265</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>152</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>126</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="P94" s="13">
+        <v>4610.1300000000001</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
+        <v>266</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
+        <v>267</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
+        <v>268</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4617,10 +4764,30 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -443,6 +443,12 @@
     <t>21.7800</t>
   </si>
   <si>
+    <t>GLUCOPHAGE XR 500 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>77.00</t>
+  </si>
+  <si>
     <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -665,6 +671,15 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>SALIBET OINT. 30 GM</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
     <t>SILDEN 100 MG 8F.C. TABS</t>
   </si>
   <si>
@@ -809,7 +824,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 8:48 PM</t>
+    <t>Wednesday, 10 September, 2025 8:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2737,7 +2752,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2747,14 +2762,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2763,14 +2778,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2780,11 +2795,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2796,14 +2811,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2813,14 +2828,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2829,31 +2844,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2862,31 +2877,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2908,18 +2923,18 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2928,14 +2943,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2945,14 +2960,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2961,14 +2976,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2978,14 +2993,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>52</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3011,14 +3026,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>52</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3027,14 +3042,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3044,14 +3059,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3060,14 +3075,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3077,14 +3092,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3100,7 +3115,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3110,14 +3125,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3133,7 +3148,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3147,10 +3162,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3159,7 +3174,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3176,14 +3191,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3192,14 +3207,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3209,14 +3224,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3225,14 +3240,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3242,14 +3257,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3258,14 +3273,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3275,14 +3290,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3291,14 +3306,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3308,11 +3323,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3324,14 +3339,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3341,11 +3356,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3357,14 +3372,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3374,14 +3389,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3390,14 +3405,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3407,14 +3422,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3423,14 +3438,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3440,14 +3455,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3463,7 +3478,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3473,11 +3488,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>130</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3496,7 +3511,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3510,10 +3525,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3522,14 +3537,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3539,11 +3554,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3555,14 +3570,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3572,14 +3587,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3588,14 +3603,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3605,14 +3620,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3621,14 +3636,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>219</v>
+        <v>59</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3638,14 +3653,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3654,7 +3669,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3671,14 +3686,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3694,24 +3709,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>69</v>
+        <v>224</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>142</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3733,18 +3748,18 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>156</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3753,28 +3768,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3786,31 +3801,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3826,13 +3841,13 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -3840,7 +3855,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>31</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3852,14 +3867,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>235</v>
+        <v>107</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3869,14 +3884,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>88</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3885,31 +3900,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>239</v>
+        <v>59</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>241</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3918,31 +3933,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>162</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3951,31 +3966,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>170</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3991,24 +4006,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>248</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4017,31 +4032,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>59</v>
+        <v>250</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4050,31 +4065,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>251</v>
+        <v>163</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4083,31 +4098,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4116,31 +4131,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4149,31 +4164,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4189,24 +4204,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>259</v>
+        <v>51</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4215,31 +4230,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>201</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4255,24 +4270,24 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>69</v>
+        <v>264</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>14</v>
+        <v>265</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4281,66 +4296,132 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>265</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>268</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>69</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>154</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>14</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>269</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>270</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>154</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>126</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
         <v>140</v>
       </c>
-      <c t="s" r="Q93" s="12">
+      <c t="s" r="Q95" s="12">
         <v>83</v>
       </c>
     </row>
-    <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>4610.1300000000001</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
-        <v>266</v>
-      </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
-        <v>267</v>
-      </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
-        <v>268</v>
-      </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="P96" s="13">
+        <v>4716.1300000000001</v>
+      </c>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
+        <v>271</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
+        <v>272</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
+        <v>273</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4784,10 +4865,20 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -569,6 +569,15 @@
     <t>255.0000</t>
   </si>
   <si>
+    <t>NEUROGLOPENTIN 400MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
     <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
   </si>
   <si>
@@ -824,7 +833,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 8:51 PM</t>
+    <t>Wednesday, 10 September, 2025 9:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3280,7 +3289,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3313,7 +3322,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3330,7 +3339,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3346,7 +3355,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3379,7 +3388,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3412,7 +3421,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3429,7 +3438,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3445,7 +3454,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>202</v>
+        <v>32</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3455,14 +3464,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3478,7 +3487,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>32</v>
+        <v>205</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3488,14 +3497,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3504,14 +3513,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3521,11 +3530,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>74</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3537,14 +3546,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3554,14 +3563,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3577,7 +3586,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3610,7 +3619,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3627,7 +3636,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3643,7 +3652,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3660,7 +3669,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3709,7 +3718,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>224</v>
+        <v>59</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3719,14 +3728,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>142</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3742,7 +3751,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>59</v>
+        <v>227</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3752,11 +3761,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3768,31 +3777,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3808,7 +3817,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3818,11 +3827,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>158</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3834,28 +3843,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>181</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3874,7 +3883,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3884,14 +3893,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>88</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3900,31 +3909,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>88</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>31</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3933,20 +3942,20 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>240</v>
+        <v>59</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -3954,7 +3963,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3966,14 +3975,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3983,14 +3992,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3999,31 +4008,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>14</v>
+        <v>248</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>164</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>83</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4032,14 +4041,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4049,14 +4058,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>251</v>
+        <v>14</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4072,7 +4081,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>253</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4082,14 +4091,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>163</v>
+        <v>254</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4098,14 +4107,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4115,14 +4124,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>254</v>
+        <v>163</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4131,7 +4140,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4148,14 +4157,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>53</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4164,14 +4173,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4181,14 +4190,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>230</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4197,7 +4206,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4214,11 +4223,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4237,7 +4246,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4247,14 +4256,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>14</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4263,14 +4272,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>264</v>
+        <v>59</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4280,14 +4289,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>14</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4296,14 +4305,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>267</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4313,14 +4322,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>171</v>
+        <v>268</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>203</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4329,14 +4338,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4346,11 +4355,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>15</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4362,14 +4371,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>270</v>
+        <v>69</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4379,49 +4388,82 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>272</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>273</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>154</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>126</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
         <v>140</v>
       </c>
-      <c t="s" r="Q95" s="12">
+      <c t="s" r="Q96" s="12">
         <v>83</v>
       </c>
     </row>
-    <row r="96" ht="25.5" customHeight="1">
-      <c r="P96" s="13">
-        <v>4716.1300000000001</v>
-      </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
-        <v>271</v>
-      </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
-        <v>272</v>
-      </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
-        <v>273</v>
-      </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>4746.8199999999997</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>274</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>275</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>276</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4875,10 +4917,15 @@
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
     <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -833,7 +833,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 9:00 PM</t>
+    <t>Wednesday, 10 September, 2025 9:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -749,6 +749,27 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>VILDAGLUSE PLUS 50/1000MG 30 TABS</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>147.0000</t>
+  </si>
+  <si>
+    <t>VIRECTA 100 MG 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>1:7</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>58.0800</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -833,7 +854,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 9:01 PM</t>
+    <t>Wednesday, 10 September, 2025 9:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4015,7 +4036,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>247</v>
+        <v>59</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4025,14 +4046,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4041,31 +4062,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>83</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4074,31 +4095,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>172</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4107,14 +4128,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>258</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4124,14 +4145,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4140,14 +4161,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>59</v>
+        <v>260</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4157,14 +4178,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4173,14 +4194,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4190,14 +4211,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>259</v>
+        <v>163</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4206,14 +4227,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4223,14 +4244,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4239,14 +4260,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4256,14 +4277,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4272,14 +4293,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4289,14 +4310,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>14</v>
+        <v>232</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4305,14 +4326,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>267</v>
+        <v>51</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4322,14 +4343,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4338,14 +4359,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4355,14 +4376,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>206</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4371,14 +4392,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>69</v>
+        <v>274</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4388,14 +4409,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>14</v>
+        <v>275</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>15</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4404,14 +4425,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>273</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4421,49 +4442,115 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>278</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>69</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>154</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>14</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>279</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>280</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>154</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>126</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
         <v>140</v>
       </c>
-      <c t="s" r="Q96" s="12">
+      <c t="s" r="Q98" s="12">
         <v>83</v>
       </c>
     </row>
-    <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>4746.8199999999997</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
-        <v>274</v>
-      </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
-        <v>275</v>
-      </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
-        <v>276</v>
-      </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>4951.8999999999996</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>281</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>282</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>283</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4922,10 +5009,20 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -638,6 +638,15 @@
     <t>59.4000</t>
   </si>
   <si>
+    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -716,6 +725,12 @@
     <t xml:space="preserve">STOPADOL  FORTE  SACHET</t>
   </si>
   <si>
+    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>TIRATAM 500MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -773,13 +788,10 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>16.8300</t>
+    <t>67.8300</t>
   </si>
   <si>
     <t>بلاستر مترسيلك 2 سم</t>
@@ -806,6 +818,9 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -854,7 +869,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 9:03 PM</t>
+    <t>Wednesday, 10 September, 2025 9:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3588,10 +3603,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>74</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3600,14 +3615,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3617,14 +3632,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3640,7 +3655,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3673,7 +3688,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3690,7 +3705,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3706,7 +3721,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3723,7 +3738,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3772,7 +3787,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>227</v>
+        <v>59</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3782,14 +3797,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>142</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3805,7 +3820,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>59</v>
+        <v>230</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3815,11 +3830,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3831,31 +3846,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3871,7 +3886,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3881,11 +3896,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>158</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3897,28 +3912,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3937,7 +3952,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3947,14 +3962,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3970,13 +3985,13 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -3984,7 +3999,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>31</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3996,14 +4011,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>243</v>
+        <v>107</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4013,14 +4028,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>244</v>
+        <v>88</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4029,7 +4044,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4042,15 +4057,15 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4062,14 +4077,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4079,14 +4094,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4095,14 +4110,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>254</v>
+        <v>59</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4112,14 +4127,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4128,31 +4143,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>14</v>
+        <v>256</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>164</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>83</v>
+        <v>128</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4161,31 +4176,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>260</v>
+        <v>34</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>172</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4194,14 +4209,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>262</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4211,14 +4226,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4234,7 +4249,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>59</v>
+        <v>264</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4244,14 +4259,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>245</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4260,14 +4275,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4277,14 +4292,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>266</v>
+        <v>163</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4300,7 +4315,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4310,14 +4325,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4326,14 +4341,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4343,14 +4358,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4359,14 +4374,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4376,14 +4391,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4399,7 +4414,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>274</v>
+        <v>51</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4409,14 +4424,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4425,14 +4440,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4442,14 +4457,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>206</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4465,7 +4480,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>69</v>
+        <v>279</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4475,14 +4490,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>14</v>
+        <v>280</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>15</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4491,14 +4506,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>280</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4508,49 +4523,115 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>283</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>69</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>154</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>14</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>284</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>285</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>154</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>126</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
         <v>140</v>
       </c>
-      <c t="s" r="Q98" s="12">
+      <c t="s" r="Q100" s="12">
         <v>83</v>
       </c>
     </row>
-    <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>4951.8999999999996</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
-        <v>281</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
-        <v>282</v>
-      </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
-        <v>283</v>
-      </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>5217.8999999999996</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>286</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>287</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>288</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5019,10 +5100,20 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -869,7 +869,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 9:04 PM</t>
+    <t>Wednesday, 10 September, 2025 9:06 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -314,6 +314,18 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>DESA 5MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -332,417 +344,429 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>95.5200</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>EPIDEXONE 1MG/ML EYE/EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>EURONEMIA 100MG/5ML 5 AMP FOR I.V. OR INF.</t>
+  </si>
+  <si>
+    <t>192.50</t>
+  </si>
+  <si>
+    <t>77.0000</t>
+  </si>
+  <si>
+    <t>EXFORGE 10MG/160MG 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>218.00</t>
+  </si>
+  <si>
+    <t>218.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>FLATIDYL 40MG 30 CHEWABLE TABS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
+    <t>GLUCOPHAGE XR 500 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>77.00</t>
+  </si>
+  <si>
+    <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>134.0000</t>
+  </si>
+  <si>
+    <t>IVYMOND SYRUP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>JOMOGESTIVE TAB</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>83.1600</t>
+  </si>
+  <si>
+    <t>LACTOMAX 10 SACHETS</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>LUTOFOLONE 2 AMP.</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>MAVILOR 5MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>-30.0000</t>
+  </si>
+  <si>
+    <t>NESTOGEN 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>255.00</t>
+  </si>
+  <si>
+    <t>255.0000</t>
+  </si>
+  <si>
+    <t>NEUROGLOPENTIN 400MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>NORHINOSE 50MCG/DOSE NASAL SPRAY 120 DOSES</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
+    <t>NO-URIC 300MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>OCUMETHYL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>ORLY 120MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PEDICAL PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>PHENADONE SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>PRIANIL C.R. 400MG 30 CONTROLLED REL. TAB.</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>ROSITOR 20MG 14 F.C.TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>SALIBET OINT. 30 GM</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>SILDEN 100 MG 8F.C. TABS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
+    <t>SILDEN 50 MG 4 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>5.5000</t>
+  </si>
+  <si>
+    <t>SPOTLESS FACE CREAM 18 GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOPADOL  FORTE  SACHET</t>
+  </si>
+  <si>
+    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>TIRATAM 500MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>222.00</t>
+  </si>
+  <si>
+    <t>222.0000</t>
+  </si>
+  <si>
+    <t>TRYPTIZOL 25MG 30 TAB</t>
+  </si>
+  <si>
     <t>4:2</t>
   </si>
   <si>
-    <t>79.6800</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>50.5000</t>
-  </si>
-  <si>
-    <t>DRAMENEX 50MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t>EPIDEXONE 1MG/ML EYE/EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>13.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>EURONEMIA 100MG/5ML 5 AMP FOR I.V. OR INF.</t>
-  </si>
-  <si>
-    <t>192.50</t>
-  </si>
-  <si>
-    <t>77.0000</t>
-  </si>
-  <si>
-    <t>EXFORGE 10MG/160MG 14 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>218.00</t>
-  </si>
-  <si>
-    <t>218.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>FLATIDYL 40MG 30 CHEWABLE TABS</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>21.7800</t>
-  </si>
-  <si>
-    <t>GLUCOPHAGE XR 500 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>77.00</t>
-  </si>
-  <si>
-    <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>134.0000</t>
-  </si>
-  <si>
-    <t>IVYMOND SYRUP</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>JOMOGESTIVE TAB</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>83.1600</t>
-  </si>
-  <si>
-    <t>LACTOMAX 10 SACHETS</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>LUTOFOLONE 2 AMP.</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>MAVILOR 5MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>MILGA ADVANCE 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>-30.0000</t>
-  </si>
-  <si>
-    <t>NESTOGEN 1 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>255.00</t>
-  </si>
-  <si>
-    <t>255.0000</t>
-  </si>
-  <si>
-    <t>NEUROGLOPENTIN 400MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>71.0000</t>
-  </si>
-  <si>
-    <t>NO-URIC 300MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>OCUMETHYL EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>ORLY 120MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>79.2000</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>2:5</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>59.4000</t>
-  </si>
-  <si>
-    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PEDICAL PLUS SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>PHENADONE SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>PRIANIL C.R. 400MG 30 CONTROLLED REL. TAB.</t>
-  </si>
-  <si>
-    <t>162.00</t>
-  </si>
-  <si>
-    <t>53.4600</t>
-  </si>
-  <si>
-    <t>ROSITOR 20MG 14 F.C.TAB</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>SALIBET OINT. 30 GM</t>
-  </si>
-  <si>
-    <t>29.00</t>
-  </si>
-  <si>
-    <t>29.0000</t>
-  </si>
-  <si>
-    <t>SILDEN 100 MG 8F.C. TABS</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>7.9200</t>
-  </si>
-  <si>
-    <t>SILDEN 50 MG 4 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>5.5000</t>
-  </si>
-  <si>
-    <t>SPOTLESS FACE CREAM 18 GM</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STOPADOL  FORTE  SACHET</t>
-  </si>
-  <si>
-    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>TIRATAM 500MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>222.00</t>
-  </si>
-  <si>
-    <t>222.0000</t>
-  </si>
-  <si>
-    <t>TRYPTIZOL 25MG 30 TAB</t>
-  </si>
-  <si>
     <t>10.8900</t>
   </si>
   <si>
@@ -794,6 +818,9 @@
     <t>67.8300</t>
   </si>
   <si>
+    <t>ZISROCIN 500MG 3 CAP</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -869,7 +896,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 9:06 PM</t>
+    <t>Wednesday, 10 September, 2025 9:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2345,14 +2372,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2361,14 +2388,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2378,14 +2405,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2394,14 +2421,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2411,14 +2438,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2427,14 +2454,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2444,14 +2471,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2460,14 +2487,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2477,11 +2504,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2493,14 +2520,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2510,14 +2537,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2526,14 +2553,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2543,14 +2570,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2559,14 +2586,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2576,14 +2603,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2592,14 +2619,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2609,14 +2636,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2632,7 +2659,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2642,14 +2669,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2658,14 +2685,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2675,11 +2702,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2691,14 +2718,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2708,11 +2735,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2724,14 +2751,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2741,11 +2768,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2757,14 +2784,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2774,11 +2801,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2790,14 +2817,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2807,14 +2834,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2823,14 +2850,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2840,14 +2867,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2856,14 +2883,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2873,11 +2900,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>70</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2889,14 +2916,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2906,14 +2933,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2922,31 +2949,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2955,31 +2982,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2988,7 +3015,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3001,18 +3028,18 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>39</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3021,14 +3048,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3038,14 +3065,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3054,14 +3081,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3071,14 +3098,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>52</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3087,7 +3114,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3104,14 +3131,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>52</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3120,14 +3147,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3137,14 +3164,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3153,14 +3180,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3170,14 +3197,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3186,14 +3213,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3207,10 +3234,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3219,14 +3246,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3236,14 +3263,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3252,7 +3279,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3269,14 +3296,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3285,14 +3312,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3302,14 +3329,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3318,7 +3345,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3335,14 +3362,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3351,14 +3378,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3368,11 +3395,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3384,14 +3411,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3401,14 +3428,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3417,14 +3444,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3434,11 +3461,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3450,7 +3477,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3467,11 +3494,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3483,14 +3510,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3500,14 +3527,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3516,14 +3543,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>205</v>
+        <v>59</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3533,11 +3560,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3549,7 +3576,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3566,11 +3593,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>130</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3582,14 +3609,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>25</v>
+        <v>212</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3599,11 +3626,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3615,14 +3642,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3632,11 +3659,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>135</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3648,14 +3675,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3665,11 +3692,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3681,14 +3708,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3698,14 +3725,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3714,14 +3741,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3731,14 +3758,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3747,14 +3774,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3764,11 +3791,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3780,14 +3807,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3797,14 +3824,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3813,14 +3840,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>230</v>
+        <v>59</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3830,14 +3857,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>142</v>
+        <v>231</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3846,7 +3873,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3863,14 +3890,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3879,31 +3906,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>69</v>
+        <v>237</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>147</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3912,7 +3939,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3925,18 +3952,18 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>158</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3945,28 +3972,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>39</v>
+        <v>242</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3978,28 +4005,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4011,14 +4038,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4028,14 +4055,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4044,28 +4071,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>31</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4077,14 +4104,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4094,14 +4121,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>249</v>
+        <v>88</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4110,7 +4137,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4123,15 +4150,15 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>253</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4143,14 +4170,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4160,14 +4187,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4176,14 +4203,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4193,14 +4220,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4209,31 +4236,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>14</v>
+        <v>264</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>164</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>83</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4242,31 +4269,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>264</v>
+        <v>34</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>172</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4275,28 +4302,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4308,31 +4335,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>59</v>
+        <v>271</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>268</v>
+        <v>14</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4341,31 +4368,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>59</v>
+        <v>273</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>53</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>69</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4374,28 +4401,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>235</v>
+        <v>168</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>236</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4407,31 +4434,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4440,7 +4467,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4453,18 +4480,18 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>14</v>
+        <v>280</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4473,31 +4500,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>279</v>
+        <v>51</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4513,21 +4540,21 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>171</v>
+        <v>283</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>206</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4539,20 +4566,20 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4560,10 +4587,10 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>15</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4572,66 +4599,165 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>126</v>
+        <v>289</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>140</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q100" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>291</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>16</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>159</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>176</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>292</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>69</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>159</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>14</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>293</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>294</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>159</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>131</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q103" s="12">
         <v>83</v>
       </c>
     </row>
-    <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>5217.8999999999996</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
-        <v>286</v>
-      </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
-        <v>287</v>
-      </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
-        <v>288</v>
-      </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="P104" s="13">
+        <v>5429.7399999999998</v>
+      </c>
+      <c r="Q104" s="13"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="14">
+        <v>295</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c t="s" r="G105" s="15">
+        <v>296</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c t="s" r="K105" s="17">
+        <v>297</v>
+      </c>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="497">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5110,10 +5236,25 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="K105:Q105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -896,7 +896,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 9:08 PM</t>
+    <t>Wednesday, 10 September, 2025 9:09 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -65,498 +65,519 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>57.4200</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>AMARYL 3 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>AMBEZIM-G 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>AMPOFER 20MG/ML 5 AMP. FOR I.V. INJ./INF.</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>ANTI-COX II 15MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>-36.6300</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>ASMAKAST 5 MG 30 CHEWABLE TAB</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
+    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>46.5300</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>210.0000</t>
+  </si>
+  <si>
+    <t>BACTICLOR 250MG/5ML SUSP 60 ML</t>
+  </si>
+  <si>
+    <t>136.00</t>
+  </si>
+  <si>
+    <t>136.0000</t>
+  </si>
+  <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>BI-KETOGESIC 150 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>BISOLOCK-D 10/25MG 20 F.C.TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>CAFTOHIST 0.25% EYE DROPS 3 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
+    <t>CEFOZON 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>-20.7900</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CYANOHEPTAN 6 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DESA 5MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>DEXATROL EYE/EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>DICETEL 100MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>95.5200</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>EPIDEXONE 1MG/ML EYE/EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>EURONEMIA 100MG/5ML 5 AMP FOR I.V. OR INF.</t>
+  </si>
+  <si>
+    <t>192.50</t>
+  </si>
+  <si>
+    <t>77.0000</t>
+  </si>
+  <si>
+    <t>EXFORGE 10MG/160MG 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>218.00</t>
+  </si>
+  <si>
+    <t>218.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>AMARYL 3 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>AMBEZIM-G 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>AMPOFER 20MG/ML 5 AMP. FOR I.V. INJ./INF.</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>275.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>ANTI-COX II 15MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>111.00</t>
-  </si>
-  <si>
-    <t>-36.6300</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>ASMAKAST 5 MG 30 CHEWABLE TAB</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>39.6000</t>
-  </si>
-  <si>
-    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>46.5300</t>
-  </si>
-  <si>
-    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>210.00</t>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>FLATIDYL 40MG 30 CHEWABLE TABS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
+    <t>GLUCOPHAGE XR 500 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>77.00</t>
+  </si>
+  <si>
+    <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>134.0000</t>
+  </si>
+  <si>
+    <t>ITEM-N SHAMPOO 60ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>IVYMOND SYRUP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>JOMOGESTIVE TAB</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>83.1600</t>
+  </si>
+  <si>
+    <t>LACTOMAX 10 SACHETS</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>LUTOFOLONE 2 AMP.</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>MAVILOR 5MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>105.00</t>
   </si>
   <si>
     <t>105.0000</t>
   </si>
   <si>
-    <t>BACTICLOR 250MG/5ML SUSP 60 ML</t>
-  </si>
-  <si>
-    <t>136.00</t>
-  </si>
-  <si>
-    <t>136.0000</t>
-  </si>
-  <si>
-    <t>BETADERM 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>BI ALCOFAN 150 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>BI-KETOGESIC 150 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>BISOLOCK-D 10/25MG 20 F.C.TAB</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>CAFTOHIST 0.25% EYE DROPS 3 ML</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>19.2000</t>
-  </si>
-  <si>
-    <t>CEFOZON 1 GM VIAL</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>19:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>COLOVATIL 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>-20.7900</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>16:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CYANOHEPTAN 6 I.M. AMP. 2 ML</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DESA 5MG 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>DICETEL 100MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>95.5200</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>50.5000</t>
-  </si>
-  <si>
-    <t>DRAMENEX 50MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t>EPIDEXONE 1MG/ML EYE/EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>13.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>EURONEMIA 100MG/5ML 5 AMP FOR I.V. OR INF.</t>
-  </si>
-  <si>
-    <t>192.50</t>
-  </si>
-  <si>
-    <t>77.0000</t>
-  </si>
-  <si>
-    <t>EXFORGE 10MG/160MG 14 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>218.00</t>
-  </si>
-  <si>
-    <t>218.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>FLATIDYL 40MG 30 CHEWABLE TABS</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>21.7800</t>
-  </si>
-  <si>
-    <t>GLUCOPHAGE XR 500 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>77.00</t>
-  </si>
-  <si>
-    <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>134.0000</t>
-  </si>
-  <si>
-    <t>IVYMOND SYRUP</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>JOMOGESTIVE TAB</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>83.1600</t>
-  </si>
-  <si>
-    <t>LACTOMAX 10 SACHETS</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>LUTOFOLONE 2 AMP.</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>MAVILOR 5MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
     <t>MILGA ADVANCE 30 F.C. TABS</t>
   </si>
   <si>
@@ -776,6 +797,9 @@
     <t>110.00</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -821,6 +845,9 @@
     <t>ZISROCIN 500MG 3 CAP</t>
   </si>
   <si>
+    <t>ايفا كريم 170 جم</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -854,6 +881,9 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>11:0</t>
+  </si>
+  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
@@ -878,9 +908,6 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
     <t>70.0000</t>
   </si>
   <si>
@@ -894,6 +921,9 @@
   </si>
   <si>
     <t>21:0</t>
+  </si>
+  <si>
+    <t>مناديل مبلله كبيره</t>
   </si>
   <si>
     <t>Wednesday, 10 September, 2025 9:09 PM</t>
@@ -1617,10 +1647,10 @@
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1629,14 +1659,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1646,11 +1676,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1662,14 +1692,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1679,14 +1709,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1695,14 +1725,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1712,14 +1742,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1728,14 +1758,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1745,14 +1775,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1761,7 +1791,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1778,14 +1808,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1794,14 +1824,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1811,14 +1841,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1827,14 +1857,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1844,11 +1874,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1860,14 +1890,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1877,11 +1907,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1893,14 +1923,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1910,14 +1940,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1926,7 +1956,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1943,14 +1973,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1959,14 +1989,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1976,14 +2006,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1992,14 +2022,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2009,11 +2039,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -2025,14 +2055,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2042,14 +2072,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2058,14 +2088,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2075,14 +2105,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2091,14 +2121,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2108,11 +2138,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2124,14 +2154,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2141,11 +2171,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2157,14 +2187,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2174,14 +2204,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2190,14 +2220,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2207,11 +2237,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2223,14 +2253,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2240,11 +2270,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2256,14 +2286,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2273,11 +2303,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2289,7 +2319,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2306,11 +2336,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2322,14 +2352,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2346,7 +2376,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2379,7 +2409,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2412,7 +2442,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2461,7 +2491,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2471,14 +2501,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2487,14 +2517,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2504,14 +2534,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>116</v>
-      </c>
-      <c t="s" r="Q36" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2527,7 +2557,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2544,7 +2574,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2560,7 +2590,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2577,7 +2607,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2593,7 +2623,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2610,7 +2640,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2626,7 +2656,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2643,7 +2673,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2659,7 +2689,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2669,14 +2699,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>133</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2685,14 +2715,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2702,14 +2732,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>136</v>
-      </c>
-      <c t="s" r="Q42" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2725,7 +2755,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2742,7 +2772,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2758,7 +2788,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2768,14 +2798,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2784,14 +2814,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2801,14 +2831,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2817,14 +2847,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2834,14 +2864,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2850,14 +2880,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2867,14 +2897,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2883,14 +2913,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2900,14 +2930,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2916,14 +2946,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2933,14 +2963,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2949,14 +2979,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2966,11 +2996,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>25</v>
@@ -2982,20 +3012,20 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -3006,7 +3036,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3022,24 +3052,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3055,24 +3085,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3081,31 +3111,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3131,14 +3161,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3147,14 +3177,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3164,11 +3194,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3180,14 +3210,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3197,14 +3227,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>53</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3220,7 +3250,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3230,14 +3260,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3246,14 +3276,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3263,14 +3293,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>46</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3279,14 +3309,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3296,14 +3326,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3312,14 +3342,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3329,14 +3359,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3345,14 +3375,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3362,14 +3392,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3378,14 +3408,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3395,14 +3425,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3411,14 +3441,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3428,14 +3458,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3444,14 +3474,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3461,14 +3491,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3477,14 +3507,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3494,14 +3524,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3510,14 +3540,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3527,11 +3557,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3543,14 +3573,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3560,11 +3590,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3576,14 +3606,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3593,14 +3623,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3609,14 +3639,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>212</v>
+        <v>60</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3626,11 +3656,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3642,14 +3672,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3659,14 +3689,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>135</v>
+        <v>216</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3675,14 +3705,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>25</v>
+        <v>219</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3692,11 +3722,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3708,14 +3738,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3725,14 +3755,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>220</v>
+        <v>138</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>74</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3741,14 +3771,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3758,11 +3788,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3774,14 +3804,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3791,14 +3821,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>226</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3807,14 +3837,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3824,14 +3854,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3840,14 +3870,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3857,11 +3887,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3873,14 +3903,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3890,14 +3920,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3906,14 +3936,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>237</v>
+        <v>60</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3923,14 +3953,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>147</v>
+        <v>238</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3939,14 +3969,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3956,14 +3986,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3972,31 +4002,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>69</v>
+        <v>244</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>242</v>
+        <v>151</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4005,31 +4035,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4038,28 +4068,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>39</v>
+        <v>249</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4071,28 +4101,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>248</v>
+        <v>193</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>249</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4104,14 +4134,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>251</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4121,14 +4151,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4137,28 +4167,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>31</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4170,14 +4200,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4187,14 +4217,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>257</v>
+        <v>89</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4203,28 +4233,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>261</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4243,7 +4273,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>263</v>
+        <v>102</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4253,14 +4283,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>264</v>
+        <v>99</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>265</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>133</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4269,14 +4299,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>34</v>
+        <v>264</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4286,14 +4316,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4302,14 +4332,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4319,11 +4349,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>201</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4348,18 +4378,18 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>14</v>
+        <v>272</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>169</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>83</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4368,31 +4398,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>273</v>
+        <v>35</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>177</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4401,28 +4431,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4434,31 +4464,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>277</v>
+        <v>193</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>278</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4474,24 +4504,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>59</v>
+        <v>280</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>280</v>
+        <v>14</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4507,24 +4537,24 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>51</v>
+        <v>282</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>242</v>
+        <v>283</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>243</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4533,28 +4563,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>283</v>
+        <v>174</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>284</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4573,24 +4603,24 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>14</v>
+        <v>286</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4599,20 +4629,20 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>288</v>
+        <v>60</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
@@ -4620,10 +4650,10 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q100" s="12">
         <v>290</v>
-      </c>
-      <c t="s" r="Q100" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4639,21 +4669,21 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>176</v>
+        <v>249</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4672,21 +4702,21 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>14</v>
+        <v>293</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>15</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4698,66 +4728,231 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>145</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>83</v>
+        <v>52</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
-      <c r="P104" s="13">
-        <v>5429.7399999999998</v>
-      </c>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="14">
-        <v>295</v>
-      </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c t="s" r="G105" s="15">
-        <v>296</v>
-      </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="16"/>
-      <c t="s" r="K105" s="17">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
         <v>297</v>
       </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>298</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>165</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>163</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>299</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>300</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>16</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>165</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>182</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>220</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>301</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>70</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>165</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>14</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>302</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>303</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>165</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>134</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>304</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>60</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>165</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>249</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>250</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>5748.4499999999998</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>305</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>306</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>307</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="497">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5251,10 +5446,35 @@
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -200,6 +200,15 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>BRONCHOPHANE 125ML SYRUP.</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>CAFTOHIST 0.25% EYE DROPS 3 ML</t>
   </si>
   <si>
@@ -413,9 +422,6 @@
     <t>6:2</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>15.8400</t>
   </si>
   <si>
@@ -485,7 +491,7 @@
     <t>173.00</t>
   </si>
   <si>
-    <t>86.5000</t>
+    <t>173.0000</t>
   </si>
   <si>
     <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
@@ -2029,7 +2035,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2062,7 +2068,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2072,14 +2078,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2105,14 +2111,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2121,14 +2127,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2145,7 +2151,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2161,7 +2167,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2171,11 +2177,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2187,14 +2193,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2211,7 +2217,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2227,7 +2233,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2237,14 +2243,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2253,14 +2259,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2270,11 +2276,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2286,14 +2292,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2303,11 +2309,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2319,14 +2325,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2359,7 +2365,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2376,7 +2382,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2392,7 +2398,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2402,14 +2408,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2418,14 +2424,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2435,14 +2441,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2451,14 +2457,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2468,14 +2474,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2524,7 +2530,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2534,14 +2540,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2550,14 +2556,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2567,14 +2573,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>119</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2590,7 +2596,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2623,7 +2629,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2640,7 +2646,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2656,7 +2662,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2673,7 +2679,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2689,7 +2695,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2706,7 +2712,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2722,7 +2728,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2732,14 +2738,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>136</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2748,14 +2754,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2765,14 +2771,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2781,14 +2787,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2798,11 +2804,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -2814,14 +2820,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2831,11 +2837,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>25</v>
@@ -2847,14 +2853,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2864,11 +2870,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>25</v>
@@ -2880,14 +2886,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2897,11 +2903,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>25</v>
@@ -2913,14 +2919,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2930,14 +2936,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2953,7 +2959,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2963,14 +2969,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2979,14 +2985,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2996,11 +3002,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>25</v>
@@ -3012,14 +3018,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3029,14 +3035,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3045,14 +3051,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3062,14 +3068,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3091,15 +3097,15 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3111,31 +3117,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3157,18 +3163,18 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3177,14 +3183,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3194,14 +3200,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3210,14 +3216,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3227,14 +3233,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>53</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3260,14 +3266,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>53</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3276,14 +3282,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3293,14 +3299,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3309,14 +3315,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3326,14 +3332,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3349,7 +3355,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3359,14 +3365,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3375,14 +3381,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3392,14 +3398,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3408,7 +3414,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3425,14 +3431,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3441,14 +3447,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3458,14 +3464,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3474,7 +3480,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3491,14 +3497,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3507,14 +3513,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3524,11 +3530,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3540,7 +3546,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3557,14 +3563,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>139</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3580,7 +3586,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3594,7 +3600,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3606,14 +3612,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3623,11 +3629,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3639,14 +3645,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3656,11 +3662,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3672,14 +3678,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3689,14 +3695,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3705,14 +3711,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>219</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3722,14 +3728,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3738,14 +3744,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>221</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3755,14 +3761,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>222</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3778,7 +3784,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3788,14 +3794,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>224</v>
+        <v>140</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3804,7 +3810,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3821,14 +3827,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>75</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3844,7 +3850,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3858,10 +3864,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>230</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3870,14 +3876,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3887,11 +3893,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3903,14 +3909,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3920,14 +3926,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3936,14 +3942,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3953,14 +3959,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3969,7 +3975,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3986,11 +3992,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4002,14 +4008,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>244</v>
+        <v>60</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4019,14 +4025,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>151</v>
+        <v>243</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4035,14 +4041,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>60</v>
+        <v>246</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4052,7 +4058,7 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>213</v>
+        <v>153</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
@@ -4075,24 +4081,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4101,28 +4107,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>193</v>
+        <v>251</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>169</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4134,28 +4140,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>253</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4174,7 +4180,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4184,11 +4190,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4200,14 +4206,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>258</v>
+        <v>25</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4217,14 +4223,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>89</v>
+        <v>257</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4233,31 +4239,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>60</v>
+        <v>260</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>261</v>
+        <v>92</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>33</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4273,24 +4279,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>99</v>
+        <v>263</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4299,14 +4305,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>264</v>
+        <v>105</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4316,14 +4322,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>265</v>
+        <v>102</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>266</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4332,14 +4338,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>60</v>
+        <v>266</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4349,11 +4355,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4365,14 +4371,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>271</v>
+        <v>60</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4382,14 +4388,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>136</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4398,14 +4404,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>35</v>
+        <v>273</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4415,14 +4421,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>35</v>
+        <v>138</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4431,14 +4437,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4448,14 +4454,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>207</v>
+        <v>277</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>208</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4464,28 +4470,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4497,31 +4503,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>280</v>
+        <v>143</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4543,18 +4549,18 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>283</v>
+        <v>14</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>141</v>
+        <v>87</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4563,31 +4569,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>284</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>174</v>
+        <v>285</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4596,31 +4602,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>286</v>
+        <v>176</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>287</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4629,7 +4635,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4642,18 +4648,18 @@
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>90</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>290</v>
+        <v>91</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4662,31 +4668,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>250</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>292</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4695,7 +4701,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4708,15 +4714,15 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>294</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4728,31 +4734,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>14</v>
+        <v>295</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>296</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4768,24 +4774,24 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>298</v>
+        <v>60</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4794,31 +4800,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>300</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>220</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4827,28 +4833,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>15</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4860,31 +4866,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>303</v>
+        <v>73</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4900,59 +4906,92 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>60</v>
+        <v>305</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>249</v>
+        <v>64</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>5748.4499999999998</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
-        <v>305</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
         <v>306</v>
       </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>60</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>167</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>251</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>252</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="P110" s="13">
+        <v>5858.9499999999998</v>
+      </c>
+      <c r="Q110" s="13"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="14">
         <v>307</v>
       </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c t="s" r="G111" s="15">
+        <v>308</v>
+      </c>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c t="s" r="K111" s="17">
+        <v>309</v>
+      </c>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="527">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5471,10 +5510,15 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="K111:Q111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -293,6 +293,15 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>CORNETEARS 1000IU/G AQUEOUS EYE GEL 10 GM</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
     <t>CYANOHEPTAN 6 I.M. AMP. 2 ML</t>
   </si>
   <si>
@@ -416,6 +425,18 @@
     <t>218.0000</t>
   </si>
   <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -464,9 +485,6 @@
     <t>144.00</t>
   </si>
   <si>
-    <t>72.0000</t>
-  </si>
-  <si>
     <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
   </si>
   <si>
@@ -512,9 +530,6 @@
     <t>IVYMOND SYRUP</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>49.00</t>
   </si>
   <si>
@@ -620,6 +635,15 @@
     <t>30.6900</t>
   </si>
   <si>
+    <t>NEVXAL 0.1% EYE DPS. 5 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
   </si>
   <si>
@@ -812,12 +836,6 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
     <t>VILDAGLUSE PLUS 50/1000MG 30 TABS</t>
   </si>
   <si>
@@ -932,7 +950,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 9:09 PM</t>
+    <t>Wednesday, 10 September, 2025 9:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2332,7 +2350,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2342,11 +2360,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2358,14 +2376,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2398,7 +2416,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2415,7 +2433,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2431,7 +2449,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2441,14 +2459,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2457,14 +2475,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2474,14 +2492,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2490,14 +2508,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2507,14 +2525,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2563,7 +2581,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2573,14 +2591,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2589,14 +2607,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2606,14 +2624,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>122</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2629,7 +2647,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2662,7 +2680,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2679,7 +2697,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2695,7 +2713,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2712,7 +2730,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2728,7 +2746,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2745,7 +2763,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2761,7 +2779,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2771,14 +2789,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>138</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2787,20 +2805,20 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2811,7 +2829,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2837,14 +2855,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q45" s="12">
         <v>145</v>
-      </c>
-      <c t="s" r="Q45" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2860,7 +2878,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2893,7 +2911,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2903,11 +2921,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>25</v>
@@ -2919,14 +2937,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2936,11 +2954,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>25</v>
@@ -2952,14 +2970,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2969,14 +2987,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2985,14 +3003,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3002,11 +3020,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>25</v>
@@ -3018,14 +3036,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3035,11 +3053,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3051,14 +3069,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3068,14 +3086,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3091,7 +3109,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3105,7 +3123,7 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3117,20 +3135,20 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3141,7 +3159,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3157,24 +3175,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3190,13 +3208,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3207,7 +3225,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3223,24 +3241,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3249,14 +3267,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3266,14 +3284,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>53</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3289,7 +3307,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3322,7 +3340,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3332,11 +3350,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>53</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>27</v>
@@ -3348,14 +3366,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3365,14 +3383,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3388,7 +3406,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3405,7 +3423,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3421,7 +3439,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3431,11 +3449,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>25</v>
@@ -3447,14 +3465,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3464,14 +3482,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3480,14 +3498,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3497,14 +3515,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3513,14 +3531,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3530,14 +3548,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3546,14 +3564,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3563,14 +3581,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3579,14 +3597,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3596,14 +3614,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>141</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3652,7 +3670,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3669,7 +3687,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3685,7 +3703,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3699,7 +3717,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>216</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3711,14 +3729,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3728,14 +3746,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3744,14 +3762,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>221</v>
+        <v>35</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3761,11 +3779,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3777,14 +3795,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3794,14 +3812,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>140</v>
+        <v>223</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>224</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3817,7 +3835,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3834,7 +3852,7 @@
         <v>227</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3850,7 +3868,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>27</v>
+        <v>229</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3860,14 +3878,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>78</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3876,14 +3894,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3893,14 +3911,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>231</v>
+        <v>147</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>232</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3916,7 +3934,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3949,7 +3967,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3963,7 +3981,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>238</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>25</v>
@@ -3975,7 +3993,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3992,11 +4010,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4008,14 +4026,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4025,11 +4043,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4041,14 +4059,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>246</v>
+        <v>35</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4058,11 +4076,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>153</v>
+        <v>245</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>25</v>
@@ -4074,7 +4092,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4091,14 +4109,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>249</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4114,13 +4132,13 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
@@ -4147,24 +4165,24 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>60</v>
+        <v>254</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>171</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4173,14 +4191,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4190,14 +4208,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4206,28 +4224,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4239,31 +4257,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>260</v>
+        <v>60</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>92</v>
+        <v>200</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>261</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4279,21 +4297,21 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>33</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4312,7 +4330,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4322,14 +4340,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>102</v>
+        <v>265</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>54</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4338,14 +4356,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4355,14 +4373,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>267</v>
+        <v>92</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4371,7 +4389,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4384,15 +4402,15 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>271</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4411,7 +4429,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>273</v>
+        <v>108</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4421,14 +4439,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>274</v>
+        <v>105</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>275</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>138</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4437,14 +4455,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>35</v>
+        <v>274</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4454,14 +4472,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>277</v>
+        <v>209</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>278</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4470,7 +4488,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4487,11 +4505,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>209</v>
+        <v>276</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>210</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4503,31 +4521,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>143</v>
+        <v>279</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>195</v>
+        <v>280</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>171</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4536,31 +4554,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>282</v>
+        <v>35</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>14</v>
+        <v>283</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>177</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>87</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4569,31 +4587,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>284</v>
+        <v>60</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>285</v>
+        <v>217</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>143</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4609,21 +4627,21 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4642,24 +4660,24 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>60</v>
+        <v>288</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>288</v>
+        <v>14</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>289</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4668,20 +4686,20 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
@@ -4689,10 +4707,10 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>292</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4701,28 +4719,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>251</v>
+        <v>181</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>252</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4734,31 +4752,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4767,7 +4785,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4780,18 +4798,18 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>14</v>
+        <v>297</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q104" s="12">
         <v>298</v>
-      </c>
-      <c t="s" r="Q104" s="12">
-        <v>52</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4807,24 +4825,24 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>300</v>
+        <v>52</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>165</v>
+        <v>259</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4833,28 +4851,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>184</v>
+        <v>301</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>222</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4873,13 +4891,13 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
@@ -4887,10 +4905,10 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>15</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4899,31 +4917,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>151</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>87</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4932,66 +4950,165 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
-      <c r="P110" s="13">
-        <v>5858.9499999999998</v>
-      </c>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="14">
-        <v>307</v>
-      </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c t="s" r="G111" s="15">
-        <v>308</v>
-      </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
-      <c t="s" r="K111" s="17">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
         <v>309</v>
       </c>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>73</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>139</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>14</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>310</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>311</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>139</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>64</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>312</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>60</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>139</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>259</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>5997.9499999999998</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
+        <v>313</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
+        <v>314</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>315</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="527">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5515,10 +5632,25 @@
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
     <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -440,423 +440,426 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>6:2</t>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>19.6800</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>FLATIDYL 40MG 30 CHEWABLE TABS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
+    <t>GLUCOPHAGE XR 500 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>77.00</t>
+  </si>
+  <si>
+    <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
   </si>
   <si>
     <t>15.8400</t>
   </si>
   <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>173.0000</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>134.0000</t>
+  </si>
+  <si>
+    <t>ITEM-N SHAMPOO 60ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>IVYMOND SYRUP</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>JOMOGESTIVE TAB</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>83.1600</t>
+  </si>
+  <si>
+    <t>LACTOMAX 10 SACHETS</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>LUTOFOLONE 2 AMP.</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>MAVILOR 5MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>-30.0000</t>
+  </si>
+  <si>
+    <t>NESTOGEN 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>255.00</t>
+  </si>
+  <si>
+    <t>255.0000</t>
+  </si>
+  <si>
+    <t>NEUROGLOPENTIN 400MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>NEVXAL 0.1% EYE DPS. 5 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>NORHINOSE 50MCG/DOSE NASAL SPRAY 120 DOSES</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
+    <t>NO-URIC 300MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>OCUMETHYL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>ORLY 120MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PEDICAL PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>PHENADONE SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>PRIANIL C.R. 400MG 30 CONTROLLED REL. TAB.</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>ROSITOR 20MG 14 F.C.TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>SALIBET OINT. 30 GM</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>SILDEN 100 MG 8F.C. TABS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
+    <t>SILDEN 50 MG 4 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>5.5000</t>
+  </si>
+  <si>
+    <t>SPOTLESS FACE CREAM 18 GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOPADOL  FORTE  SACHET</t>
+  </si>
+  <si>
+    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>TIRATAM 500MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>222.00</t>
+  </si>
+  <si>
+    <t>222.0000</t>
+  </si>
+  <si>
+    <t>TRYPTIZOL 25MG 30 TAB</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>10.8900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VANCE  30 TAB</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>VILDAGLUSE PLUS 50/1000MG 30 TABS</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>147.0000</t>
+  </si>
+  <si>
+    <t>VIRECTA 100 MG 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>1:7</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>58.0800</t>
+  </si>
+  <si>
     <t>0:4</t>
   </si>
   <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>FLATIDYL 40MG 30 CHEWABLE TABS</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>21.7800</t>
-  </si>
-  <si>
-    <t>GLUCOPHAGE XR 500 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>77.00</t>
-  </si>
-  <si>
-    <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>173.0000</t>
-  </si>
-  <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>134.0000</t>
-  </si>
-  <si>
-    <t>ITEM-N SHAMPOO 60ML</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>IVYMOND SYRUP</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>JOMOGESTIVE TAB</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>83.1600</t>
-  </si>
-  <si>
-    <t>LACTOMAX 10 SACHETS</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>LUTOFOLONE 2 AMP.</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>MAVILOR 5MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>105.0000</t>
-  </si>
-  <si>
-    <t>MILGA ADVANCE 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>-30.0000</t>
-  </si>
-  <si>
-    <t>NESTOGEN 1 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>255.00</t>
-  </si>
-  <si>
-    <t>255.0000</t>
-  </si>
-  <si>
-    <t>NEUROGLOPENTIN 400MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>NEVXAL 0.1% EYE DPS. 5 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>NORHINOSE 50MCG/DOSE NASAL SPRAY 120 DOSES</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>71.0000</t>
-  </si>
-  <si>
-    <t>NO-URIC 300MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>OCUMETHYL EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>ORLY 120MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>79.2000</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>2:5</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>59.4000</t>
-  </si>
-  <si>
-    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PEDICAL PLUS SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>PHENADONE SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>PRIANIL C.R. 400MG 30 CONTROLLED REL. TAB.</t>
-  </si>
-  <si>
-    <t>162.00</t>
-  </si>
-  <si>
-    <t>53.4600</t>
-  </si>
-  <si>
-    <t>ROSITOR 20MG 14 F.C.TAB</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>SALIBET OINT. 30 GM</t>
-  </si>
-  <si>
-    <t>29.00</t>
-  </si>
-  <si>
-    <t>29.0000</t>
-  </si>
-  <si>
-    <t>SILDEN 100 MG 8F.C. TABS</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>7.9200</t>
-  </si>
-  <si>
-    <t>SILDEN 50 MG 4 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>5.5000</t>
-  </si>
-  <si>
-    <t>SPOTLESS FACE CREAM 18 GM</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STOPADOL  FORTE  SACHET</t>
-  </si>
-  <si>
-    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>TIRATAM 500MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>222.00</t>
-  </si>
-  <si>
-    <t>222.0000</t>
-  </si>
-  <si>
-    <t>TRYPTIZOL 25MG 30 TAB</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>10.8900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VANCE  30 TAB</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>VILDAGLUSE PLUS 50/1000MG 30 TABS</t>
-  </si>
-  <si>
-    <t>147.00</t>
-  </si>
-  <si>
-    <t>147.0000</t>
-  </si>
-  <si>
-    <t>VIRECTA 100 MG 12 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>1:7</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>58.0800</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -878,6 +881,18 @@
     <t>23:0</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -908,18 +923,24 @@
     <t>11:0</t>
   </si>
   <si>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
     <t>فرشه شعر اطفال الجو</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -944,13 +965,10 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>21:0</t>
-  </si>
-  <si>
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 9:11 PM</t>
+    <t>Wednesday, 10 September, 2025 9:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2862,7 +2880,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>145</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2871,7 +2889,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2888,11 +2906,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>25</v>
@@ -2904,14 +2922,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2921,11 +2939,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>25</v>
@@ -2937,7 +2955,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2954,11 +2972,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>25</v>
@@ -2970,7 +2988,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2987,7 +3005,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -3003,7 +3021,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3020,11 +3038,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>25</v>
@@ -3036,7 +3054,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3053,7 +3071,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -3069,7 +3087,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3090,7 +3108,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -3717,7 +3735,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3911,7 +3929,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -4175,7 +4193,7 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -4545,7 +4563,7 @@
         <v>281</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>145</v>
+        <v>282</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4554,7 +4572,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4571,11 +4589,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>35</v>
@@ -4587,7 +4605,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4620,14 +4638,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4653,14 +4671,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4686,14 +4704,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4703,14 +4721,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>190</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>150</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4719,14 +4737,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>295</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4736,14 +4754,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>181</v>
+        <v>296</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>149</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4752,14 +4770,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4769,14 +4787,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>294</v>
+        <v>181</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>295</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4785,7 +4803,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4802,14 +4820,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>93</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>298</v>
+        <v>91</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4818,14 +4836,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4835,14 +4853,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>260</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>303</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4851,14 +4869,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>52</v>
+        <v>305</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4868,11 +4886,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4884,14 +4902,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4901,14 +4919,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>14</v>
+        <v>259</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4917,14 +4935,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>306</v>
+        <v>52</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4934,14 +4952,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>171</v>
+        <v>292</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4950,14 +4968,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4967,14 +4985,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>189</v>
+        <v>14</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>230</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4983,14 +5001,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>73</v>
+        <v>313</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5000,14 +5018,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>15</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5016,14 +5034,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>311</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5033,14 +5051,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>64</v>
+        <v>189</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>141</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5049,14 +5067,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5066,49 +5084,115 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>259</v>
+        <v>14</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>317</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>305</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>139</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>64</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>318</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>60</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>139</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>259</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
         <v>260</v>
       </c>
-      <c t="s" r="Q112" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>5997.9499999999998</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
-        <v>313</v>
-      </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
-        <v>314</v>
-      </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
-        <v>315</v>
-      </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c t="s" r="Q114" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>6038.79</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
+        <v>319</v>
+      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
+        <v>320</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>321</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5647,10 +5731,20 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -185,6 +185,15 @@
     <t>26.7300</t>
   </si>
   <si>
+    <t>BIDALKIN VAGINAL DOUCHE POWDER 12 SACHETS</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>BI-KETOGESIC 150 MG 30 TAB.</t>
   </si>
   <si>
@@ -260,6 +269,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>CIPRAMALINE 10 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
@@ -326,9 +344,6 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>23.7600</t>
   </si>
   <si>
@@ -368,6 +383,9 @@
     <t>82.0000</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -479,9 +497,6 @@
     <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
   </si>
   <si>
-    <t>144.00</t>
-  </si>
-  <si>
     <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
   </si>
   <si>
@@ -563,9 +578,6 @@
     <t>LAMIFEN 1% CREAM 15 GM</t>
   </si>
   <si>
-    <t>36.0000</t>
-  </si>
-  <si>
     <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
   </si>
   <si>
@@ -725,6 +737,9 @@
     <t>92.00</t>
   </si>
   <si>
+    <t>PANTOPRAZOLE 40MG 14 TAB.</t>
+  </si>
+  <si>
     <t>PEDICAL PLUS SYRUP 100 ML</t>
   </si>
   <si>
@@ -752,6 +767,15 @@
     <t>53.4600</t>
   </si>
   <si>
+    <t>PSYCHOLANZ 3/25 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
     <t>ROSITOR 20MG 14 F.C.TAB</t>
   </si>
   <si>
@@ -785,6 +809,9 @@
     <t>5.5000</t>
   </si>
   <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
     <t>SPOTLESS FACE CREAM 18 GM</t>
   </si>
   <si>
@@ -797,6 +824,9 @@
     <t xml:space="preserve">STOPADOL  FORTE  SACHET</t>
   </si>
   <si>
+    <t>TAVACIN 500MG 5 F.C. TAB</t>
+  </si>
+  <si>
     <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
   </si>
   <si>
@@ -911,9 +941,6 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>32.0000</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -968,7 +995,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 9:14 PM</t>
+    <t>Wednesday, 10 September, 2025 9:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2005,7 +2032,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2015,14 +2042,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2031,14 +2058,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2048,11 +2075,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>25</v>
@@ -2064,14 +2091,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2088,7 +2115,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2104,7 +2131,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2137,7 +2164,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2147,14 +2174,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2180,14 +2207,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2196,14 +2223,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2220,7 +2247,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2236,7 +2263,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2246,11 +2273,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2262,14 +2289,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2286,7 +2313,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2302,7 +2329,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2312,11 +2339,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2328,14 +2355,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2345,14 +2372,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2361,14 +2388,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2378,11 +2405,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2394,14 +2421,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2411,11 +2438,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2427,14 +2454,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2444,11 +2471,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2460,14 +2487,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2484,7 +2511,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2500,7 +2527,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2510,14 +2537,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2526,14 +2553,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2543,11 +2570,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2559,14 +2586,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2583,7 +2610,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2599,7 +2626,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2609,14 +2636,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2625,14 +2652,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2642,14 +2669,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>122</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2658,14 +2685,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2675,14 +2702,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2691,14 +2718,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2708,11 +2735,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>25</v>
@@ -2724,14 +2751,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2741,14 +2768,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2757,7 +2784,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2774,14 +2801,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2790,14 +2817,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2807,14 +2834,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2823,28 +2850,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2856,14 +2883,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2873,14 +2900,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>98</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2889,14 +2916,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2906,14 +2933,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2922,31 +2949,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2955,14 +2982,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2972,14 +2999,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2988,14 +3015,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3005,11 +3032,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>25</v>
@@ -3021,14 +3048,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>52</v>
+        <v>155</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3038,11 +3065,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>25</v>
@@ -3054,14 +3081,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3071,14 +3098,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3087,14 +3114,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3104,11 +3131,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -3120,14 +3147,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3137,14 +3164,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3153,14 +3180,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3170,14 +3197,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3186,14 +3213,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3203,14 +3230,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3219,28 +3246,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3252,31 +3279,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>40</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3285,14 +3312,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3302,14 +3329,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3318,28 +3345,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3351,31 +3378,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3384,14 +3411,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3401,14 +3428,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3417,14 +3444,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3434,14 +3461,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3450,14 +3477,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3467,14 +3494,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>53</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3483,14 +3510,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3500,11 +3527,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3516,14 +3543,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3533,14 +3560,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3549,14 +3576,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3566,14 +3593,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3582,14 +3609,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3599,11 +3626,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3615,14 +3642,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3632,11 +3659,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>25</v>
@@ -3648,14 +3675,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3665,14 +3692,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3681,14 +3708,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3698,14 +3725,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3714,14 +3741,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3731,14 +3758,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3747,14 +3774,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3764,11 +3791,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3780,14 +3807,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3797,14 +3824,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3813,14 +3840,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3830,11 +3857,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>224</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3846,14 +3873,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3863,14 +3890,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3879,14 +3906,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>229</v>
+        <v>35</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3896,11 +3923,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3912,14 +3939,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3929,14 +3956,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>146</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3945,14 +3972,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3962,14 +3989,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3978,14 +4005,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3995,14 +4022,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4011,14 +4038,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4028,14 +4055,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>239</v>
+        <v>152</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4044,14 +4071,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4061,11 +4088,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4077,14 +4104,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4094,11 +4121,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>246</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>25</v>
@@ -4110,14 +4137,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4127,14 +4154,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>249</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4143,14 +4170,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4160,11 +4187,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4176,14 +4203,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>254</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4193,14 +4220,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>158</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4209,14 +4236,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4226,11 +4253,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>25</v>
@@ -4242,28 +4269,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4275,28 +4302,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>200</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>176</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4308,14 +4335,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4325,11 +4352,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>40</v>
+        <v>259</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4341,14 +4368,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4358,14 +4385,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>265</v>
+        <v>163</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4374,14 +4401,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>268</v>
+        <v>63</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4391,11 +4418,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>92</v>
+        <v>227</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>25</v>
@@ -4407,28 +4434,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>271</v>
+        <v>190</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4440,31 +4467,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>54</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4473,28 +4500,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>274</v>
+        <v>63</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4506,14 +4533,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4523,11 +4550,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>276</v>
+        <v>219</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>277</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4539,14 +4566,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>279</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4556,14 +4583,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>280</v>
+        <v>40</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>282</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4572,14 +4599,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4589,14 +4616,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4605,14 +4632,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>60</v>
+        <v>278</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4622,14 +4649,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>217</v>
+        <v>98</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>218</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4638,28 +4665,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>200</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>176</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4671,31 +4698,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>289</v>
+        <v>113</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>182</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>87</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4704,28 +4731,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>292</v>
+        <v>213</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>293</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4737,31 +4764,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>295</v>
+        <v>63</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>190</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>149</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4770,31 +4797,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>181</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>292</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4803,31 +4830,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>91</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4836,31 +4863,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>302</v>
+        <v>221</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>93</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>303</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4869,28 +4896,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>305</v>
+        <v>155</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>306</v>
+        <v>204</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>307</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4902,31 +4929,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>52</v>
+        <v>299</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>259</v>
+        <v>14</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>260</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4935,28 +4962,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>52</v>
+        <v>301</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4968,31 +4995,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>60</v>
+        <v>305</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>14</v>
+        <v>306</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>311</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>52</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5001,31 +5028,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>313</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>314</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5034,31 +5061,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>189</v>
+        <v>309</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5067,31 +5094,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>14</v>
+        <v>311</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>312</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5100,31 +5127,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>64</v>
+        <v>315</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>141</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5133,66 +5160,297 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>6038.79</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>318</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>52</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>145</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>302</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>303</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
         <v>319</v>
       </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>63</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>145</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>14</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
         <v>320</v>
       </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
+      <c t="s" r="Q116" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
         <v>321</v>
       </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>322</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>145</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>176</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>323</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>324</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>16</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>145</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>193</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>325</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>76</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>145</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>14</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>326</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>314</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>145</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>67</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>327</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>63</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>145</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>268</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>269</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="P122" s="13">
+        <v>6550.79</v>
+      </c>
+      <c r="Q122" s="13"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="14">
+        <v>328</v>
+      </c>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c t="s" r="G123" s="15">
+        <v>329</v>
+      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c t="s" r="K123" s="17">
+        <v>330</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="587">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5741,10 +5999,45 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -383,6 +383,15 @@
     <t>82.0000</t>
   </si>
   <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -881,9 +890,6 @@
     <t>1:7</t>
   </si>
   <si>
-    <t>132.00</t>
-  </si>
-  <si>
     <t>58.0800</t>
   </si>
   <si>
@@ -995,7 +1001,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 9:23 PM</t>
+    <t>Wednesday, 10 September, 2025 9:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2725,7 +2731,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2735,11 +2741,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>25</v>
@@ -2751,14 +2757,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2768,14 +2774,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>128</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2784,14 +2790,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2801,14 +2807,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>131</v>
-      </c>
-      <c t="s" r="Q42" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2824,7 +2830,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2857,7 +2863,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2874,7 +2880,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2890,7 +2896,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2907,7 +2913,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2923,7 +2929,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2940,7 +2946,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2956,21 +2962,21 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2982,31 +2988,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3022,7 +3028,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3032,14 +3038,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>67</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3055,7 +3061,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>155</v>
+        <v>35</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3065,11 +3071,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>25</v>
@@ -3081,14 +3087,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>158</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3121,7 +3127,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3131,11 +3137,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -3147,14 +3153,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3164,11 +3170,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>87</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -3187,7 +3193,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3201,10 +3207,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3213,14 +3219,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3230,14 +3236,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3246,14 +3252,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3263,14 +3269,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3286,7 +3292,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3303,7 +3309,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3319,7 +3325,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3333,10 +3339,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3345,7 +3351,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3358,15 +3364,15 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3385,24 +3391,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3411,7 +3417,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3424,18 +3430,18 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3451,7 +3457,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3468,7 +3474,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3484,7 +3490,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3494,14 +3500,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>53</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3510,7 +3516,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3527,14 +3533,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>53</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3550,7 +3556,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3567,7 +3573,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3583,7 +3589,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3593,14 +3599,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3609,14 +3615,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3626,14 +3632,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3649,7 +3655,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3666,7 +3672,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3699,7 +3705,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3715,7 +3721,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3732,7 +3738,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3765,7 +3771,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3798,7 +3804,7 @@
         <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3814,7 +3820,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3831,7 +3837,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3861,10 +3867,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3873,14 +3879,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3890,11 +3896,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3913,7 +3919,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3946,7 +3952,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3979,7 +3985,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3996,7 +4002,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4012,7 +4018,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4022,14 +4028,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4045,7 +4051,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>236</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4055,14 +4061,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4071,14 +4077,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4088,14 +4094,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4125,10 +4131,10 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>81</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4137,14 +4143,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4154,11 +4160,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>187</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>25</v>
@@ -4170,7 +4176,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4187,14 +4193,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4210,7 +4216,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4243,7 +4249,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4260,7 +4266,7 @@
         <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4276,7 +4282,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4293,7 +4299,7 @@
         <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4309,7 +4315,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4375,7 +4381,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>262</v>
+        <v>63</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4385,14 +4391,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>163</v>
+        <v>262</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>263</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4408,7 +4414,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>63</v>
+        <v>265</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4418,11 +4424,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>25</v>
@@ -4434,14 +4440,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4451,14 +4457,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>191</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4467,28 +4473,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>268</v>
+        <v>193</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>269</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4507,21 +4513,21 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>204</v>
+        <v>271</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>181</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4533,28 +4539,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4566,7 +4572,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4583,11 +4589,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4599,14 +4605,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4616,7 +4622,7 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>40</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
@@ -4639,7 +4645,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>278</v>
+        <v>25</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4649,14 +4655,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>98</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4672,24 +4678,24 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>63</v>
+        <v>281</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>98</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>33</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4698,31 +4704,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>59</v>
+        <v>284</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4731,14 +4737,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>284</v>
+        <v>113</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4748,14 +4754,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>213</v>
+        <v>59</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>214</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4764,14 +4770,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>63</v>
+        <v>287</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4781,11 +4787,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>286</v>
+        <v>216</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4804,7 +4810,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>289</v>
+        <v>63</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4814,14 +4820,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>292</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4830,14 +4836,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>35</v>
+        <v>292</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4847,14 +4853,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>294</v>
+        <v>125</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>35</v>
+        <v>294</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4863,14 +4869,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4880,14 +4886,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>221</v>
+        <v>296</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>222</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4896,28 +4902,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>155</v>
+        <v>63</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>181</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4929,31 +4935,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>299</v>
+        <v>158</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>14</v>
+        <v>207</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4975,18 +4981,18 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>302</v>
+        <v>14</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>303</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4995,31 +5001,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>194</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>155</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5028,31 +5034,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>307</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>186</v>
+        <v>308</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5061,31 +5067,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>309</v>
+        <v>189</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5107,7 +5113,7 @@
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
@@ -5115,10 +5121,10 @@
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>99</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>312</v>
+        <v>83</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5127,31 +5133,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>314</v>
+        <v>63</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>316</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>314</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5160,28 +5166,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>52</v>
+        <v>316</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>269</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5193,7 +5199,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5206,15 +5212,15 @@
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5226,31 +5232,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>14</v>
+        <v>304</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5266,24 +5272,24 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>322</v>
+        <v>63</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5292,31 +5298,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>16</v>
+        <v>324</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>234</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5325,28 +5331,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>14</v>
+        <v>196</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>15</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5358,31 +5364,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>314</v>
+        <v>76</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5391,66 +5397,99 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>63</v>
+        <v>316</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>268</v>
+        <v>67</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>269</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
-      <c r="P122" s="13">
-        <v>6550.79</v>
-      </c>
-      <c r="Q122" s="13"/>
-    </row>
-    <row r="123" ht="16.5" customHeight="1">
-      <c t="s" r="A123" s="14">
-        <v>328</v>
-      </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c t="s" r="G123" s="15">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
         <v>329</v>
       </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="16"/>
-      <c t="s" r="K123" s="17">
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>63</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>148</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>271</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>272</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>6616.79</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
         <v>330</v>
       </c>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>331</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>332</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="587">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6034,10 +6073,15 @@
     <mergeCell ref="H121:K121"/>
     <mergeCell ref="L121:M121"/>
     <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -407,6 +407,9 @@
     <t>1:3</t>
   </si>
   <si>
+    <t>DOLO-D PLUS ORAL SUSP. 115 ML</t>
+  </si>
+  <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
   </si>
   <si>
@@ -905,6 +908,18 @@
     <t>67.8300</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8292:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>ZISROCIN 500MG 3 CAP</t>
   </si>
   <si>
@@ -944,9 +959,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -1001,7 +1013,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 9:27 PM</t>
+    <t>Wednesday, 10 September, 2025 9:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2830,7 +2842,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2840,14 +2852,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2856,14 +2868,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2873,11 +2885,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -2889,14 +2901,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2906,14 +2918,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2922,14 +2934,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2939,14 +2951,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2955,14 +2967,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2972,14 +2984,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2988,28 +3000,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -3021,31 +3033,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3054,14 +3066,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3071,14 +3083,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>67</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3087,14 +3099,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3104,11 +3116,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>25</v>
@@ -3120,14 +3132,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3137,11 +3149,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -3153,14 +3165,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3170,11 +3182,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -3193,7 +3205,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3203,11 +3215,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>87</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -3219,14 +3231,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3236,14 +3248,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3252,14 +3264,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3269,14 +3281,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3285,14 +3297,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3302,14 +3314,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3318,14 +3330,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3335,14 +3347,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3351,14 +3363,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3368,14 +3380,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3384,7 +3396,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3397,15 +3409,15 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3417,31 +3429,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>40</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3450,7 +3462,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3463,18 +3475,18 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3483,14 +3495,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3500,14 +3512,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3516,14 +3528,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3533,14 +3545,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>53</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3566,14 +3578,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>53</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3582,14 +3594,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3599,14 +3611,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3615,14 +3627,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3632,14 +3644,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3648,14 +3660,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3665,14 +3677,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3681,14 +3693,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3698,14 +3710,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3714,7 +3726,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3731,14 +3743,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3747,14 +3759,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3764,14 +3776,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3780,7 +3792,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3797,14 +3809,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3813,7 +3825,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3830,14 +3842,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3846,14 +3858,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3863,14 +3875,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3879,7 +3891,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3896,14 +3908,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>156</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3912,14 +3924,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3929,11 +3941,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3945,14 +3957,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3962,11 +3974,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3978,14 +3990,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3995,11 +4007,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4011,14 +4023,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4028,14 +4040,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4044,14 +4056,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>236</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4061,14 +4073,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>196</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4077,14 +4089,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>237</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4094,14 +4106,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4110,14 +4122,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4127,14 +4139,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>241</v>
+        <v>156</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4143,7 +4155,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4160,14 +4172,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>81</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4176,14 +4188,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4193,11 +4205,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>190</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>25</v>
@@ -4226,14 +4238,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4242,14 +4254,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4259,11 +4271,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4275,14 +4287,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4292,14 +4304,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4308,14 +4320,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4325,14 +4337,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4341,14 +4353,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4358,11 +4370,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4374,7 +4386,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4391,11 +4403,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4407,14 +4419,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>265</v>
+        <v>63</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4424,14 +4436,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>166</v>
+        <v>263</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4440,14 +4452,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>63</v>
+        <v>266</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4457,11 +4469,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>230</v>
+        <v>167</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>25</v>
@@ -4473,14 +4485,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4490,14 +4502,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>194</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4513,21 +4525,21 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>271</v>
+        <v>194</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>272</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4539,28 +4551,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>207</v>
+        <v>272</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>184</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4579,21 +4591,21 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4622,11 +4634,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4638,14 +4650,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4655,11 +4667,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>40</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4671,14 +4683,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>281</v>
+        <v>25</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4688,14 +4700,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>98</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4704,31 +4716,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>63</v>
+        <v>282</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>33</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4737,31 +4749,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>59</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4777,7 +4789,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>287</v>
+        <v>113</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4787,14 +4799,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>216</v>
+        <v>59</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>217</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4803,14 +4815,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>63</v>
+        <v>288</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4820,11 +4832,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>217</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4836,14 +4848,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>292</v>
+        <v>63</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4853,14 +4865,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>125</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>294</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4869,14 +4881,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>35</v>
+        <v>293</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4886,14 +4898,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>296</v>
+        <v>125</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>35</v>
+        <v>295</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4902,14 +4914,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4919,14 +4931,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>224</v>
+        <v>297</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>225</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4942,24 +4954,24 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>158</v>
+        <v>300</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>207</v>
+        <v>301</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>184</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4968,31 +4980,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>301</v>
+        <v>63</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5001,28 +5013,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>303</v>
+        <v>159</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>304</v>
+        <v>208</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>305</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5034,31 +5046,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>308</v>
+        <v>14</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>158</v>
+        <v>93</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5067,28 +5079,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>308</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>189</v>
+        <v>309</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>190</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5100,31 +5112,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>63</v>
+        <v>312</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>83</v>
+        <v>159</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5133,31 +5145,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>313</v>
+        <v>190</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>99</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>314</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5173,24 +5185,24 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>316</v>
+        <v>63</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>318</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5199,31 +5211,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>271</v>
+        <v>317</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>272</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>318</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5232,28 +5244,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>52</v>
+        <v>320</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5265,31 +5277,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>14</v>
+        <v>272</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5298,31 +5310,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>324</v>
+        <v>52</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>179</v>
+        <v>309</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5331,31 +5343,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>237</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5371,24 +5383,24 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>76</v>
+        <v>328</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>15</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5397,31 +5409,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>316</v>
+        <v>16</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>67</v>
+        <v>197</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>150</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5430,66 +5442,132 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>271</v>
+        <v>14</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>332</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>320</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>149</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>67</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>333</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>63</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>149</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
         <v>272</v>
       </c>
-      <c t="s" r="Q122" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>6616.79</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
-        <v>330</v>
-      </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
-        <v>331</v>
-      </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
-        <v>332</v>
-      </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>273</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="P125" s="13">
+        <v>6661.79</v>
+      </c>
+      <c r="Q125" s="13"/>
+    </row>
+    <row r="126" ht="16.5" customHeight="1">
+      <c t="s" r="A126" s="14">
+        <v>334</v>
+      </c>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c t="s" r="G126" s="15">
+        <v>335</v>
+      </c>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="16"/>
+      <c t="s" r="K126" s="17">
+        <v>336</v>
+      </c>
+      <c r="L126" s="17"/>
+      <c r="M126" s="17"/>
+      <c r="N126" s="17"/>
+      <c r="O126" s="17"/>
+      <c r="P126" s="17"/>
+      <c r="Q126" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="602">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6078,10 +6156,20 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="P125:Q125"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="K126:Q126"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -1013,7 +1013,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 9:35 PM</t>
+    <t>Wednesday, 10 September, 2025 9:54 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -260,705 +260,729 @@
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>CIPRAMALINE 10 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>-20.7900</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CORNETEARS 1000IU/G AQUEOUS EYE GEL 10 GM</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>CYANOHEPTAN 6 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DESA 5MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>DEXATROL EYE/EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>DICETEL 100MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>95.5200</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>DOLO-D PLUS ORAL SUSP. 115 ML</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>EPIDEXONE 1MG/ML EYE/EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>EURONEMIA 100MG/5ML 5 AMP FOR I.V. OR INF.</t>
+  </si>
+  <si>
+    <t>192.50</t>
+  </si>
+  <si>
+    <t>77.0000</t>
+  </si>
+  <si>
+    <t>EXFORGE 10MG/160MG 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>218.00</t>
+  </si>
+  <si>
+    <t>218.0000</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>19.6800</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>FLATIDYL 40MG 30 CHEWABLE TABS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
+    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
+    <t>GLUCOPHAGE XR 500 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>77.00</t>
+  </si>
+  <si>
+    <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>173.0000</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>134.0000</t>
+  </si>
+  <si>
+    <t>ITEM-N SHAMPOO 60ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>IVYMOND SYRUP</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>JOMOGESTIVE TAB</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>83.1600</t>
+  </si>
+  <si>
+    <t>LACTOMAX 10 SACHETS</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>LUTOFOLONE 2 AMP.</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>MAVILOR 5MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>-30.0000</t>
+  </si>
+  <si>
+    <t>NESTOGEN 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>255.00</t>
+  </si>
+  <si>
+    <t>255.0000</t>
+  </si>
+  <si>
+    <t>NEUROGLOPENTIN 400MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>NEVXAL 0.1% EYE DPS. 5 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>NOLAVER CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>NORHINOSE 50MCG/DOSE NASAL SPRAY 120 DOSES</t>
+  </si>
+  <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
+    <t>NO-URIC 300MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>OCUMETHYL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>ORLY 120MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANTOPRAZOLE 40MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>PEDICAL PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>PHENADONE SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>PRIANIL C.R. 400MG 30 CONTROLLED REL. TAB.</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>PSYCHOLANZ 3/25 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
+    <t>ROSITOR 20MG 14 F.C.TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>SALIBET OINT. 30 GM</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>SILDEN 100 MG 8F.C. TABS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
+    <t>SILDEN 50 MG 4 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>5.5000</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>SPOTLESS FACE CREAM 18 GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOPADOL  FORTE  SACHET</t>
+  </si>
+  <si>
+    <t>TAVACIN 500MG 5 F.C. TAB</t>
+  </si>
+  <si>
+    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>TIRATAM 500MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>222.00</t>
+  </si>
+  <si>
+    <t>222.0000</t>
+  </si>
+  <si>
+    <t>TRYPTIZOL 25MG 30 TAB</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>10.8900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VANCE  30 TAB</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>VILDAGLUSE PLUS 50/1000MG 30 TABS</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>147.0000</t>
+  </si>
+  <si>
+    <t>VIRECTA 100 MG 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>1:7</t>
+  </si>
+  <si>
+    <t>58.0800</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>67.8300</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8292:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>ZISROCIN 500MG 3 CAP</t>
+  </si>
+  <si>
+    <t>ايفا كريم 170 جم</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>52:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>زيت الو ايفا85ملل</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
     <t>19:0</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>CIPRAMALINE 10 MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>COLOVATIL 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>-20.7900</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>16:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CORNETEARS 1000IU/G AQUEOUS EYE GEL 10 GM</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>CYANOHEPTAN 6 I.M. AMP. 2 ML</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DESA 5MG 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>DEXATROL EYE/EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>DICETEL 100MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>95.5200</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>DOLO-D PLUS ORAL SUSP. 115 ML</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>50.5000</t>
-  </si>
-  <si>
-    <t>DRAMENEX 50MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t>EPIDEXONE 1MG/ML EYE/EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>13.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>EURONEMIA 100MG/5ML 5 AMP FOR I.V. OR INF.</t>
-  </si>
-  <si>
-    <t>192.50</t>
-  </si>
-  <si>
-    <t>77.0000</t>
-  </si>
-  <si>
-    <t>EXFORGE 10MG/160MG 14 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>218.00</t>
-  </si>
-  <si>
-    <t>218.0000</t>
-  </si>
-  <si>
-    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>19.6800</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>FLATIDYL 40MG 30 CHEWABLE TABS</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>21.7800</t>
-  </si>
-  <si>
-    <t>GLUCOPHAGE XR 500 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>77.00</t>
-  </si>
-  <si>
-    <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>173.0000</t>
-  </si>
-  <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>134.0000</t>
-  </si>
-  <si>
-    <t>ITEM-N SHAMPOO 60ML</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>IVYMOND SYRUP</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>JOMOGESTIVE TAB</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>83.1600</t>
-  </si>
-  <si>
-    <t>LACTOMAX 10 SACHETS</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>LUTOFOLONE 2 AMP.</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>MAVILOR 5MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>105.0000</t>
-  </si>
-  <si>
-    <t>MILGA ADVANCE 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>-30.0000</t>
-  </si>
-  <si>
-    <t>NESTOGEN 1 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>255.00</t>
-  </si>
-  <si>
-    <t>255.0000</t>
-  </si>
-  <si>
-    <t>NEUROGLOPENTIN 400MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>NEVXAL 0.1% EYE DPS. 5 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>NORHINOSE 50MCG/DOSE NASAL SPRAY 120 DOSES</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>71.0000</t>
-  </si>
-  <si>
-    <t>NO-URIC 300MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>OCUMETHYL EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>ORLY 120MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>79.2000</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>2:5</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>59.4000</t>
-  </si>
-  <si>
-    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PANTOPRAZOLE 40MG 14 TAB.</t>
-  </si>
-  <si>
-    <t>PEDICAL PLUS SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>PHENADONE SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>PRIANIL C.R. 400MG 30 CONTROLLED REL. TAB.</t>
-  </si>
-  <si>
-    <t>162.00</t>
-  </si>
-  <si>
-    <t>53.4600</t>
-  </si>
-  <si>
-    <t>PSYCHOLANZ 3/25 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>117.0000</t>
-  </si>
-  <si>
-    <t>ROSITOR 20MG 14 F.C.TAB</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>SALIBET OINT. 30 GM</t>
-  </si>
-  <si>
-    <t>29.00</t>
-  </si>
-  <si>
-    <t>29.0000</t>
-  </si>
-  <si>
-    <t>SILDEN 100 MG 8F.C. TABS</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>7.9200</t>
-  </si>
-  <si>
-    <t>SILDEN 50 MG 4 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>5.5000</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>SPOTLESS FACE CREAM 18 GM</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STOPADOL  FORTE  SACHET</t>
-  </si>
-  <si>
-    <t>TAVACIN 500MG 5 F.C. TAB</t>
-  </si>
-  <si>
-    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>TIRATAM 500MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>222.00</t>
-  </si>
-  <si>
-    <t>222.0000</t>
-  </si>
-  <si>
-    <t>TRYPTIZOL 25MG 30 TAB</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>10.8900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VANCE  30 TAB</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>VILDAGLUSE PLUS 50/1000MG 30 TABS</t>
-  </si>
-  <si>
-    <t>147.00</t>
-  </si>
-  <si>
-    <t>147.0000</t>
-  </si>
-  <si>
-    <t>VIRECTA 100 MG 12 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>1:7</t>
-  </si>
-  <si>
-    <t>58.0800</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>67.8300</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8292:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>ZISROCIN 500MG 3 CAP</t>
-  </si>
-  <si>
-    <t>ايفا كريم 170 جم</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>23:0</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2.5 سم</t>
-  </si>
-  <si>
-    <t>20:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>52:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>زيت الو ايفا85ملل</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -1013,7 +1037,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 9:54 PM</t>
+    <t>Wednesday, 10 September, 2025 9:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2331,7 +2355,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -3238,7 +3262,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3255,7 +3279,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3271,7 +3295,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3285,10 +3309,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3297,14 +3321,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3314,14 +3338,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3330,14 +3354,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3347,14 +3371,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3370,7 +3394,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3387,7 +3411,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3403,7 +3427,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3417,10 +3441,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3429,7 +3453,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3442,15 +3466,15 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3469,24 +3493,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3495,31 +3519,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3528,31 +3552,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3568,7 +3592,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3578,14 +3602,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>53</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>60</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3594,14 +3618,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3611,11 +3635,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3627,14 +3651,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3644,11 +3668,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>53</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>27</v>
@@ -3667,7 +3691,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3677,14 +3701,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3693,14 +3717,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3710,14 +3734,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3726,14 +3750,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3743,7 +3767,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3766,7 +3790,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3783,7 +3807,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3799,7 +3823,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3816,7 +3840,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3832,7 +3856,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3849,7 +3873,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3898,7 +3922,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3931,7 +3955,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3945,7 +3969,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>157</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3957,14 +3981,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3974,14 +3998,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3990,14 +4014,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4007,11 +4031,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4030,7 +4054,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4040,11 +4064,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4056,14 +4080,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4073,14 +4097,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4089,14 +4113,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>237</v>
+        <v>35</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4106,11 +4130,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4122,14 +4146,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4139,14 +4163,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>156</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4155,14 +4179,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4172,14 +4196,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4188,14 +4212,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>27</v>
+        <v>244</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4205,14 +4229,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>81</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4228,7 +4252,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4238,11 +4262,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>223</v>
+        <v>156</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>25</v>
@@ -4254,14 +4278,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4271,11 +4295,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4287,14 +4311,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4304,14 +4328,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4327,7 +4351,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4337,11 +4361,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>25</v>
@@ -4353,14 +4377,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4370,11 +4394,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4386,14 +4410,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4403,11 +4427,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4419,14 +4443,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4436,14 +4460,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4452,14 +4476,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>266</v>
+        <v>25</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4469,14 +4493,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>167</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4485,7 +4509,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4502,14 +4526,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4518,14 +4542,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4535,11 +4559,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>194</v>
+        <v>270</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>195</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4551,31 +4575,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>272</v>
+        <v>170</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4584,7 +4608,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4597,18 +4621,18 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>185</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4617,7 +4641,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4634,11 +4658,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4650,28 +4674,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>40</v>
+        <v>279</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4683,28 +4707,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>214</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4716,14 +4740,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>282</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4733,14 +4757,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>98</v>
+        <v>229</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4749,28 +4773,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>40</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>33</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4782,14 +4806,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4799,14 +4823,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>59</v>
+        <v>286</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>54</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4815,14 +4839,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4832,14 +4856,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>217</v>
+        <v>98</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>218</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4848,7 +4872,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4861,15 +4885,15 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4881,14 +4905,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>293</v>
+        <v>113</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4898,14 +4922,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>294</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>295</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4914,14 +4938,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>35</v>
+        <v>295</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4931,14 +4955,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>297</v>
+        <v>223</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>298</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4947,14 +4971,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>300</v>
+        <v>63</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4964,14 +4988,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4980,14 +5004,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>63</v>
+        <v>300</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4997,14 +5021,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>226</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>302</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5013,31 +5037,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>208</v>
+        <v>304</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>185</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5046,31 +5070,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>14</v>
+        <v>308</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>191</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>93</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5079,28 +5103,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>308</v>
+        <v>63</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>309</v>
+        <v>232</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>310</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5119,7 +5143,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>312</v>
+        <v>159</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5129,14 +5153,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>313</v>
+        <v>214</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>159</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5145,14 +5169,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>313</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5162,14 +5186,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>190</v>
+        <v>14</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5178,14 +5202,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>63</v>
+        <v>315</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5195,14 +5219,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>229</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5211,14 +5235,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>63</v>
+        <v>319</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5228,14 +5252,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>99</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>318</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5244,14 +5268,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>320</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5261,11 +5285,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>321</v>
+        <v>196</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>322</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5277,14 +5301,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5294,14 +5318,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>323</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5317,7 +5341,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5327,14 +5351,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>310</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>326</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5343,14 +5367,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>63</v>
+        <v>328</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5360,14 +5384,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>14</v>
+        <v>329</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5376,14 +5400,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>328</v>
+        <v>52</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5393,14 +5417,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>180</v>
+        <v>279</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5409,14 +5433,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5426,11 +5450,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>197</v>
+        <v>316</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>238</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5442,14 +5466,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5463,10 +5487,10 @@
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>15</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5475,14 +5499,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5492,14 +5516,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>67</v>
+        <v>183</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>151</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>93</v>
+        <v>27</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5508,14 +5532,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5525,49 +5549,148 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>272</v>
+        <v>203</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
-      <c r="P125" s="13">
-        <v>6661.79</v>
-      </c>
-      <c r="Q125" s="13"/>
-    </row>
-    <row r="126" ht="16.5" customHeight="1">
-      <c t="s" r="A126" s="14">
-        <v>334</v>
-      </c>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c t="s" r="G126" s="15">
-        <v>335</v>
-      </c>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="16"/>
-      <c t="s" r="K126" s="17">
-        <v>336</v>
-      </c>
-      <c r="L126" s="17"/>
-      <c r="M126" s="17"/>
-      <c r="N126" s="17"/>
-      <c r="O126" s="17"/>
-      <c r="P126" s="17"/>
-      <c r="Q126" s="17"/>
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>339</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>76</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>149</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>14</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>340</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>328</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>149</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>67</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>341</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>63</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>149</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>279</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>280</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="P128" s="13">
+        <v>6926.79</v>
+      </c>
+      <c r="Q128" s="13"/>
+    </row>
+    <row r="129" ht="16.5" customHeight="1">
+      <c t="s" r="A129" s="14">
+        <v>342</v>
+      </c>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c t="s" r="G129" s="15">
+        <v>343</v>
+      </c>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c t="s" r="K129" s="17">
+        <v>344</v>
+      </c>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="602">
+  <mergeCells count="617">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6166,10 +6289,25 @@
     <mergeCell ref="H124:K124"/>
     <mergeCell ref="L124:M124"/>
     <mergeCell ref="N124:O124"/>
-    <mergeCell ref="P125:Q125"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="K126:Q126"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="K129:Q129"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -1037,7 +1037,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 9:55 PM</t>
+    <t>Wednesday, 10 September, 2025 9:57 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -1037,7 +1037,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 9:57 PM</t>
+    <t>Wednesday, 10 September, 2025 9:59 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -1037,7 +1037,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 9:59 PM</t>
+    <t>Wednesday, 10 September, 2025 10:03 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -428,6 +428,15 @@
     <t>14.0000</t>
   </si>
   <si>
+    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>386.00</t>
+  </si>
+  <si>
+    <t>127.3800</t>
+  </si>
+  <si>
     <t>EPIDEXONE 1MG/ML EYE/EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -800,6 +809,15 @@
     <t>53.4600</t>
   </si>
   <si>
+    <t xml:space="preserve">PRIMOFAL  TAB</t>
+  </si>
+  <si>
+    <t>129.00</t>
+  </si>
+  <si>
+    <t>42.5700</t>
+  </si>
+  <si>
     <t>PSYCHOLANZ 3/25 MG 30 CAPS.</t>
   </si>
   <si>
@@ -944,6 +962,18 @@
     <t>ZISROCIN 500MG 3 CAP</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>ايفا كريم 170 جم</t>
   </si>
   <si>
@@ -959,12 +989,6 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -1019,9 +1043,6 @@
     <t>كريم فيرند لافلي الكبير</t>
   </si>
   <si>
-    <t>12:0</t>
-  </si>
-  <si>
     <t>70.0000</t>
   </si>
   <si>
@@ -1037,7 +1058,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 10:03 PM</t>
+    <t>Wednesday, 10 September, 2025 10:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2965,7 +2986,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2982,7 +3003,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2998,7 +3019,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3015,7 +3036,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3031,7 +3052,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3048,7 +3069,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3064,21 +3085,21 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3090,31 +3111,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3130,7 +3151,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3140,14 +3161,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3163,7 +3184,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3173,11 +3194,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -3189,14 +3210,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3229,7 +3250,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3239,11 +3260,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -3255,14 +3276,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3272,14 +3293,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3295,7 +3316,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3312,7 +3333,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3328,7 +3349,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3342,10 +3363,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3354,14 +3375,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3371,14 +3392,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3387,14 +3408,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3404,14 +3425,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3427,7 +3448,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3444,7 +3465,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3460,7 +3481,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3474,10 +3495,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3486,14 +3507,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3503,11 +3524,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3526,13 +3547,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3559,24 +3580,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3585,7 +3606,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3598,18 +3619,18 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3625,7 +3646,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3642,7 +3663,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3658,7 +3679,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3668,14 +3689,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>53</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3684,7 +3705,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3701,14 +3722,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>53</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3724,7 +3745,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3741,7 +3762,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3757,7 +3778,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3767,14 +3788,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3783,14 +3804,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3800,14 +3821,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3823,7 +3844,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3840,7 +3861,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3873,7 +3894,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3889,7 +3910,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3906,7 +3927,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3939,7 +3960,7 @@
         <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3972,7 +3993,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3988,7 +4009,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4005,7 +4026,7 @@
         <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4021,7 +4042,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4035,10 +4056,10 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>157</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4047,14 +4068,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4064,11 +4085,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4080,14 +4101,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4101,7 +4122,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4120,7 +4141,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4153,7 +4174,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4186,7 +4207,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4203,7 +4224,7 @@
         <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4219,7 +4240,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>244</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4229,14 +4250,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4252,7 +4273,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>247</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4262,14 +4283,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4278,14 +4299,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4295,14 +4316,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>159</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4332,10 +4353,10 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>81</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4344,14 +4365,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4361,11 +4382,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>25</v>
@@ -4377,7 +4398,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4394,14 +4415,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4417,7 +4438,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4450,7 +4471,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4467,7 +4488,7 @@
         <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4483,7 +4504,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4500,7 +4521,7 @@
         <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4516,13 +4537,13 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
@@ -4533,7 +4554,7 @@
         <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4549,7 +4570,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4582,7 +4603,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>273</v>
+        <v>63</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4592,14 +4613,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>170</v>
+        <v>273</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>274</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4625,14 +4646,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4641,14 +4662,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>279</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4658,14 +4679,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>201</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4674,31 +4695,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4707,28 +4728,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4740,28 +4761,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>229</v>
+        <v>285</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>157</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4773,28 +4794,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4806,14 +4827,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4823,11 +4844,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4839,14 +4860,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>289</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4856,14 +4877,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4879,13 +4900,13 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
@@ -4893,7 +4914,7 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>33</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4905,14 +4926,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>113</v>
+        <v>295</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4922,11 +4943,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>54</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>25</v>
@@ -4938,28 +4959,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>295</v>
+        <v>63</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>223</v>
+        <v>298</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>224</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4971,14 +4992,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4988,14 +5009,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>297</v>
+        <v>59</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>298</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5004,14 +5025,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5021,14 +5042,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>125</v>
+        <v>226</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>301</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>302</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5037,14 +5058,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5054,14 +5075,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5070,14 +5091,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5087,14 +5108,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>308</v>
+        <v>125</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>27</v>
+        <v>308</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5103,14 +5124,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5120,14 +5141,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>232</v>
+        <v>310</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>233</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5136,31 +5157,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>159</v>
+        <v>313</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>214</v>
+        <v>314</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>191</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5169,31 +5190,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>313</v>
+        <v>63</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5202,28 +5223,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5235,31 +5256,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>319</v>
+        <v>162</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>320</v>
+        <v>217</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>159</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5268,31 +5289,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>16</v>
+        <v>323</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5301,31 +5322,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>63</v>
+        <v>325</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>323</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5334,31 +5355,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>63</v>
+        <v>327</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>99</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>326</v>
+        <v>162</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5367,28 +5388,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>328</v>
+        <v>16</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>329</v>
+        <v>199</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5400,31 +5421,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>331</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5440,24 +5461,24 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>317</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>334</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5466,31 +5487,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>63</v>
+        <v>336</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>14</v>
+        <v>337</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5499,31 +5520,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>336</v>
+        <v>52</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>183</v>
+        <v>285</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>337</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5532,28 +5553,28 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>245</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5565,20 +5586,20 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
@@ -5586,10 +5607,10 @@
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>15</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5598,31 +5619,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>67</v>
+        <v>186</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>151</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>93</v>
+        <v>27</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5631,66 +5652,165 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>279</v>
+        <v>206</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
-      <c r="P128" s="13">
-        <v>6926.79</v>
-      </c>
-      <c r="Q128" s="13"/>
-    </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c t="s" r="A129" s="14">
-        <v>342</v>
-      </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c t="s" r="G129" s="15">
-        <v>343</v>
-      </c>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="16"/>
-      <c t="s" r="K129" s="17">
-        <v>344</v>
-      </c>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="17"/>
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>346</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>76</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>152</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>14</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>347</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>336</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>152</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>67</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>348</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>63</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>152</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>285</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>286</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="P131" s="13">
+        <v>7121.7399999999998</v>
+      </c>
+      <c r="Q131" s="13"/>
+    </row>
+    <row r="132" ht="16.5" customHeight="1">
+      <c t="s" r="A132" s="14">
+        <v>349</v>
+      </c>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c t="s" r="G132" s="15">
+        <v>350</v>
+      </c>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c t="s" r="K132" s="17">
+        <v>351</v>
+      </c>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="617">
+  <mergeCells count="632">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6304,10 +6424,25 @@
     <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
     <mergeCell ref="N127:O127"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="K132:Q132"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -278,6 +278,15 @@
     <t>144.0000</t>
   </si>
   <si>
+    <t>CLOPEX GREL 75MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
@@ -635,6 +644,12 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>LUCIDRIL 500MG 20 F.C TAB</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>LUTOFOLONE 2 AMP.</t>
   </si>
   <si>
@@ -653,12 +668,6 @@
     <t>MILGA ADVANCE 30 F.C. TABS</t>
   </si>
   <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
     <t>MOVEASY 5 MG 20 F.C.TABS.</t>
   </si>
   <si>
@@ -1037,9 +1046,6 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>75.0000</t>
-  </si>
-  <si>
     <t>كريم فيرند لافلي الكبير</t>
   </si>
   <si>
@@ -1058,7 +1064,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 10:04 PM</t>
+    <t>Wednesday, 10 September, 2025 10:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2425,7 +2431,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2442,7 +2448,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2458,7 +2464,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2468,14 +2474,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2484,14 +2490,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2501,11 +2507,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2517,14 +2523,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2557,7 +2563,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2567,11 +2573,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2583,14 +2589,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2623,7 +2629,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2633,14 +2639,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2649,14 +2655,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2666,14 +2672,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2682,14 +2688,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2699,14 +2705,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2715,14 +2721,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2732,14 +2738,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2805,7 +2811,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2821,7 +2827,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2831,11 +2837,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>25</v>
@@ -2847,14 +2853,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2864,14 +2870,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>131</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2880,14 +2886,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2897,14 +2903,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2913,14 +2919,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2930,14 +2936,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2953,7 +2959,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2986,7 +2992,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3019,7 +3025,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3036,7 +3042,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3052,7 +3058,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3069,7 +3075,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3085,7 +3091,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3102,7 +3108,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3118,21 +3124,21 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3144,31 +3150,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3184,7 +3190,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3194,14 +3200,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>67</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3217,7 +3223,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3227,11 +3233,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -3243,14 +3249,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3283,7 +3289,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3293,11 +3299,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -3309,14 +3315,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3326,14 +3332,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>87</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3349,7 +3355,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3366,7 +3372,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3382,7 +3388,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3396,10 +3402,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3408,14 +3414,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3425,14 +3431,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3441,14 +3447,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3458,14 +3464,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3481,7 +3487,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3498,7 +3504,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3514,7 +3520,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3528,10 +3534,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>115</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3540,14 +3546,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3557,11 +3563,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3580,13 +3586,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3613,24 +3619,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3639,7 +3645,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3652,18 +3658,18 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3679,7 +3685,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3696,7 +3702,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3712,7 +3718,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3722,14 +3728,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>53</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>60</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3738,7 +3744,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3755,14 +3761,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>53</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3778,7 +3784,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3795,7 +3801,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3811,7 +3817,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3821,14 +3827,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3837,14 +3843,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3854,14 +3860,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>90</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3877,7 +3883,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3887,11 +3893,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>25</v>
@@ -3903,14 +3909,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3920,14 +3926,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3936,14 +3942,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3953,14 +3959,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3969,14 +3975,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3986,14 +3992,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4002,7 +4008,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4019,11 +4025,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4035,14 +4041,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4052,11 +4058,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>25</v>
@@ -4068,7 +4074,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4085,11 +4091,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4101,7 +4107,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4122,10 +4128,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4155,7 +4161,7 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4167,14 +4173,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4184,11 +4190,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4200,7 +4206,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4217,11 +4223,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4233,14 +4239,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4250,14 +4256,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4266,14 +4272,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>247</v>
+        <v>63</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4283,11 +4289,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4299,7 +4305,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4316,11 +4322,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>159</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>25</v>
@@ -4332,14 +4338,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>27</v>
+        <v>250</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4349,11 +4355,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4365,14 +4371,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4382,11 +4388,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>162</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>81</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>25</v>
@@ -4398,14 +4404,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4415,14 +4421,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>200</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4438,7 +4444,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4452,10 +4458,10 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4464,14 +4470,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4481,14 +4487,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4497,14 +4503,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4514,14 +4520,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4530,31 +4536,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4563,14 +4569,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4580,14 +4586,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4596,31 +4602,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4629,14 +4635,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4646,11 +4652,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4662,14 +4668,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>279</v>
+        <v>63</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4679,14 +4685,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>173</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4695,7 +4701,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4712,14 +4718,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4728,14 +4734,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>282</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4745,14 +4751,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>204</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4768,24 +4774,24 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4794,28 +4800,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4827,28 +4833,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>232</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>160</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4860,28 +4866,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4900,7 +4906,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4910,11 +4916,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4926,14 +4932,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>295</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4943,14 +4949,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4959,28 +4965,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>33</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4992,14 +4998,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>113</v>
+        <v>298</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5009,11 +5015,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>54</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>25</v>
@@ -5032,21 +5038,21 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>301</v>
+        <v>63</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>226</v>
+        <v>301</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>227</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5065,7 +5071,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5075,14 +5081,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>303</v>
+        <v>59</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>304</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5091,14 +5097,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5108,14 +5114,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>125</v>
+        <v>229</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>307</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>308</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5124,14 +5130,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5141,14 +5147,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5157,14 +5163,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5174,14 +5180,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>314</v>
+        <v>128</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>27</v>
+        <v>311</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5190,14 +5196,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5207,14 +5213,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>235</v>
+        <v>313</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>236</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5223,31 +5229,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5256,28 +5262,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5289,31 +5295,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>14</v>
+        <v>322</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>200</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5329,21 +5335,21 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>325</v>
+        <v>165</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>319</v>
+        <v>220</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>320</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5355,31 +5361,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>328</v>
+        <v>14</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>162</v>
+        <v>96</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5388,28 +5394,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>16</v>
+        <v>328</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>199</v>
+        <v>322</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>200</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5421,31 +5427,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>63</v>
+        <v>330</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>331</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5461,24 +5467,24 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>333</v>
+        <v>202</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>99</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>334</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5487,31 +5493,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>336</v>
+        <v>63</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>338</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>334</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5520,31 +5526,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>285</v>
+        <v>336</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>286</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>337</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5553,28 +5559,28 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>52</v>
+        <v>339</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5586,31 +5592,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>14</v>
+        <v>288</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>342</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5626,24 +5632,24 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>318</v>
+        <v>52</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>186</v>
+        <v>322</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5652,31 +5658,31 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>206</v>
+        <v>14</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5685,31 +5691,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>76</v>
+        <v>321</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>15</v>
+        <v>346</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5725,24 +5731,24 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>336</v>
+        <v>16</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>67</v>
+        <v>209</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>154</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5758,59 +5764,125 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>285</v>
+        <v>14</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>286</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
-      <c r="P131" s="13">
-        <v>7121.7399999999998</v>
-      </c>
-      <c r="Q131" s="13"/>
-    </row>
-    <row r="132" ht="16.5" customHeight="1">
-      <c t="s" r="A132" s="14">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
         <v>349</v>
       </c>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c t="s" r="G132" s="15">
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>339</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>155</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>67</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
         <v>350</v>
       </c>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="16"/>
-      <c t="s" r="K132" s="17">
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>63</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>155</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>288</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>289</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="P133" s="13">
+        <v>7246.2399999999998</v>
+      </c>
+      <c r="Q133" s="13"/>
+    </row>
+    <row r="134" ht="16.5" customHeight="1">
+      <c t="s" r="A134" s="14">
         <v>351</v>
       </c>
-      <c r="L132" s="17"/>
-      <c r="M132" s="17"/>
-      <c r="N132" s="17"/>
-      <c r="O132" s="17"/>
-      <c r="P132" s="17"/>
-      <c r="Q132" s="17"/>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c t="s" r="G134" s="15">
+        <v>352</v>
+      </c>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="16"/>
+      <c t="s" r="K134" s="17">
+        <v>353</v>
+      </c>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="632">
+  <mergeCells count="642">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6439,10 +6511,20 @@
     <mergeCell ref="H130:K130"/>
     <mergeCell ref="L130:M130"/>
     <mergeCell ref="N130:O130"/>
-    <mergeCell ref="P131:Q131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="K132:Q132"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="K134:Q134"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -455,6 +455,15 @@
     <t>13.0000</t>
   </si>
   <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
     <t>EURONEMIA 100MG/5ML 5 AMP FOR I.V. OR INF.</t>
   </si>
   <si>
@@ -836,6 +845,12 @@
     <t>117.0000</t>
   </si>
   <si>
+    <t>PURGATON 20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>14.8500</t>
+  </si>
+  <si>
     <t>ROSITOR 20MG 14 F.C.TAB</t>
   </si>
   <si>
@@ -956,6 +971,15 @@
     <t>67.8300</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>4:4</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -1013,9 +1037,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>19:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -1064,7 +1085,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 10:05 PM</t>
+    <t>Wednesday, 10 September, 2025 10:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3091,7 +3112,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3108,7 +3129,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3124,7 +3145,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3141,7 +3162,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3157,21 +3178,21 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3183,31 +3204,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3223,7 +3244,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3233,14 +3254,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>67</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3256,7 +3277,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3266,11 +3287,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -3282,14 +3303,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3322,7 +3343,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3332,11 +3353,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>25</v>
@@ -3348,14 +3369,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3365,14 +3386,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3388,7 +3409,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3405,7 +3426,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3421,7 +3442,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3435,10 +3456,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3447,14 +3468,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3464,14 +3485,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3480,14 +3501,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3497,14 +3518,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3520,7 +3541,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3537,7 +3558,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3553,7 +3574,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3567,10 +3588,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3579,14 +3600,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3596,11 +3617,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3619,13 +3640,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3652,24 +3673,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3678,7 +3699,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3691,18 +3712,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3718,7 +3739,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3735,7 +3756,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3751,7 +3772,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3761,14 +3782,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>53</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>60</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3777,7 +3798,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3794,14 +3815,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>53</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3817,7 +3838,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3834,7 +3855,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3850,7 +3871,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3860,14 +3881,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>90</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3876,14 +3897,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3893,11 +3914,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>90</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>25</v>
@@ -3909,14 +3930,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3926,14 +3947,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3949,7 +3970,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3959,14 +3980,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>90</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>91</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3975,7 +3996,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3992,14 +4013,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4015,7 +4036,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4032,7 +4053,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4065,7 +4086,7 @@
         <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4098,7 +4119,7 @@
         <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4114,7 +4135,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4131,7 +4152,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4147,7 +4168,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4161,10 +4182,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>163</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4173,14 +4194,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4190,11 +4211,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4206,14 +4227,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4227,7 +4248,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4246,7 +4267,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4279,7 +4300,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4312,7 +4333,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4329,7 +4350,7 @@
         <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4345,7 +4366,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>250</v>
+        <v>21</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4355,14 +4376,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4378,7 +4399,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>21</v>
+        <v>253</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4388,14 +4409,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4404,14 +4425,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4421,14 +4442,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>165</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4458,10 +4479,10 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>81</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4470,14 +4491,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4487,11 +4508,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>203</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>25</v>
@@ -4503,7 +4524,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4520,14 +4541,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4543,7 +4564,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4576,7 +4597,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4593,7 +4614,7 @@
         <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4609,13 +4630,13 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
@@ -4642,13 +4663,13 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
@@ -4659,7 +4680,7 @@
         <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4675,7 +4696,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4708,7 +4729,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>63</v>
+        <v>168</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4718,14 +4739,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>279</v>
+        <v>205</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4734,14 +4755,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>282</v>
+        <v>63</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4751,14 +4772,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>176</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4767,7 +4788,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4784,14 +4805,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>285</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4807,7 +4828,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>287</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4817,14 +4838,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>207</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4833,31 +4854,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4866,28 +4887,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4899,28 +4920,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>235</v>
+        <v>293</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>163</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4932,28 +4953,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4965,14 +4986,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4982,11 +5003,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>238</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -5005,7 +5026,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>298</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5015,14 +5036,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5031,28 +5052,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>33</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5071,7 +5092,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>116</v>
+        <v>303</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5081,11 +5102,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>54</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>25</v>
@@ -5097,28 +5118,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>304</v>
+        <v>63</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>230</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5130,14 +5151,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5147,14 +5168,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>306</v>
+        <v>59</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>307</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5180,14 +5201,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>128</v>
+        <v>232</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>310</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>311</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5196,14 +5217,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5213,14 +5234,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5229,14 +5250,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5246,14 +5267,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>317</v>
+        <v>128</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>27</v>
+        <v>316</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5262,14 +5283,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5279,14 +5300,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>239</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5308,18 +5329,18 @@
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>322</v>
+        <v>28</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5328,31 +5349,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>165</v>
+        <v>324</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>220</v>
+        <v>325</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>197</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5361,31 +5382,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>326</v>
+        <v>63</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5394,28 +5415,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5427,31 +5448,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>330</v>
+        <v>168</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>331</v>
+        <v>223</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>165</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5460,31 +5481,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>16</v>
+        <v>334</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>202</v>
+        <v>14</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5493,31 +5514,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>63</v>
+        <v>336</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>242</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>334</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5526,31 +5547,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>63</v>
+        <v>338</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>102</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>337</v>
+        <v>168</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5559,28 +5580,28 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>339</v>
+        <v>16</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>340</v>
+        <v>205</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>341</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5592,31 +5613,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>336</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5625,31 +5646,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>323</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>344</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5658,31 +5679,31 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>63</v>
+        <v>346</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>14</v>
+        <v>347</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>212</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5691,31 +5712,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>321</v>
+        <v>52</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>189</v>
+        <v>293</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>346</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5724,28 +5745,28 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>209</v>
+        <v>330</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>251</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5757,20 +5778,20 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
@@ -5778,10 +5799,10 @@
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5790,31 +5811,31 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>157</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>96</v>
+        <v>27</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5823,66 +5844,165 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>288</v>
+        <v>212</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
-      <c r="P133" s="13">
-        <v>7246.2399999999998</v>
-      </c>
-      <c r="Q133" s="13"/>
-    </row>
-    <row r="134" ht="16.5" customHeight="1">
-      <c t="s" r="A134" s="14">
-        <v>351</v>
-      </c>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c t="s" r="G134" s="15">
-        <v>352</v>
-      </c>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="16"/>
-      <c t="s" r="K134" s="17">
-        <v>353</v>
-      </c>
-      <c r="L134" s="17"/>
-      <c r="M134" s="17"/>
-      <c r="N134" s="17"/>
-      <c r="O134" s="17"/>
-      <c r="P134" s="17"/>
-      <c r="Q134" s="17"/>
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>355</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>76</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>158</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>14</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>356</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>346</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>158</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>67</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>357</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>63</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>158</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>293</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>294</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="P136" s="13">
+        <v>7378.4099999999999</v>
+      </c>
+      <c r="Q136" s="13"/>
+    </row>
+    <row r="137" ht="16.5" customHeight="1">
+      <c t="s" r="A137" s="14">
+        <v>358</v>
+      </c>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c t="s" r="G137" s="15">
+        <v>359</v>
+      </c>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c t="s" r="K137" s="17">
+        <v>360</v>
+      </c>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="642">
+  <mergeCells count="657">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6521,10 +6641,25 @@
     <mergeCell ref="H132:K132"/>
     <mergeCell ref="L132:M132"/>
     <mergeCell ref="N132:O132"/>
-    <mergeCell ref="P133:Q133"/>
-    <mergeCell ref="A134:F134"/>
-    <mergeCell ref="G134:I134"/>
-    <mergeCell ref="K134:Q134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="K137:Q137"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -455,6 +455,15 @@
     <t>13.0000</t>
   </si>
   <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>191.5200</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -1085,7 +1094,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 10:07 PM</t>
+    <t>Wednesday, 10 September, 2025 10:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3112,7 +3121,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3122,14 +3131,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q49" s="12">
         <v>150</v>
-      </c>
-      <c t="s" r="Q49" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3145,7 +3154,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3162,7 +3171,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3178,7 +3187,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3195,7 +3204,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3211,21 +3220,21 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3237,31 +3246,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3277,7 +3286,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3287,14 +3296,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>67</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3310,7 +3319,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>35</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3320,11 +3329,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -3336,14 +3345,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3376,7 +3385,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3386,11 +3395,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>25</v>
@@ -3402,14 +3411,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3419,14 +3428,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>87</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3442,7 +3451,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3459,7 +3468,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3475,7 +3484,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3489,10 +3498,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3501,14 +3510,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3518,14 +3527,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3534,14 +3543,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3551,14 +3560,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3574,7 +3583,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3591,7 +3600,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3607,7 +3616,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3621,10 +3630,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>118</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3633,14 +3642,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3650,11 +3659,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3673,13 +3682,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3706,24 +3715,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3732,7 +3741,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3745,18 +3754,18 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3772,7 +3781,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3789,7 +3798,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3805,7 +3814,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3815,14 +3824,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>53</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3831,7 +3840,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3848,14 +3857,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>53</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3871,7 +3880,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3888,7 +3897,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3904,7 +3913,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3914,14 +3923,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>90</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3930,14 +3939,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3947,11 +3956,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>90</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>25</v>
@@ -3963,14 +3972,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3980,14 +3989,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4003,7 +4012,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4013,14 +4022,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>90</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>91</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4029,7 +4038,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4046,14 +4055,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>90</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4069,7 +4078,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4086,7 +4095,7 @@
         <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4119,7 +4128,7 @@
         <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4152,7 +4161,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4168,7 +4177,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4185,7 +4194,7 @@
         <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4201,7 +4210,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4215,10 +4224,10 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>166</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4227,14 +4236,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4244,11 +4253,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4260,14 +4269,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4281,7 +4290,7 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4300,7 +4309,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4333,7 +4342,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4366,7 +4375,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4383,7 +4392,7 @@
         <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4399,7 +4408,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>253</v>
+        <v>21</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4409,14 +4418,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>212</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4432,7 +4441,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>21</v>
+        <v>256</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4442,14 +4451,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>165</v>
+        <v>215</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4458,14 +4467,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4475,14 +4484,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>168</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4512,10 +4521,10 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4524,14 +4533,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4541,11 +4550,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>25</v>
@@ -4557,7 +4566,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4574,14 +4583,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4597,7 +4606,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4630,7 +4639,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4647,7 +4656,7 @@
         <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4663,13 +4672,13 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
@@ -4696,13 +4705,13 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
@@ -4713,7 +4722,7 @@
         <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4729,7 +4738,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>168</v>
+        <v>25</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4739,14 +4748,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>205</v>
+        <v>279</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4755,14 +4764,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>63</v>
+        <v>171</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4772,14 +4781,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>208</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4828,7 +4837,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>287</v>
+        <v>63</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4838,14 +4847,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>179</v>
+        <v>287</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>288</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4861,7 +4870,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>63</v>
+        <v>290</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4871,11 +4880,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>247</v>
+        <v>182</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>25</v>
@@ -4887,14 +4896,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4904,14 +4913,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>210</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4920,28 +4929,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>293</v>
+        <v>212</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>294</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4960,21 +4969,21 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>200</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4986,28 +4995,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -5019,7 +5028,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -5036,11 +5045,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>40</v>
+        <v>241</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>298</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5052,14 +5061,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5069,7 +5078,7 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
@@ -5092,7 +5101,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>303</v>
+        <v>25</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5102,14 +5111,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>101</v>
+        <v>303</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
         <v>304</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5125,24 +5134,24 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>63</v>
+        <v>306</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>306</v>
+        <v>101</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>33</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5151,31 +5160,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>59</v>
+        <v>309</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5184,14 +5193,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>309</v>
+        <v>116</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5201,14 +5210,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>232</v>
+        <v>59</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>233</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5217,14 +5226,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>63</v>
+        <v>312</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5234,11 +5243,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>311</v>
+        <v>235</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>312</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5257,7 +5266,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>314</v>
+        <v>63</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5267,14 +5276,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>128</v>
+        <v>314</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
         <v>315</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>316</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5283,14 +5292,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>35</v>
+        <v>317</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5300,14 +5309,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>318</v>
+        <v>128</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
+        <v>318</v>
+      </c>
+      <c t="s" r="Q115" s="12">
         <v>319</v>
-      </c>
-      <c t="s" r="Q115" s="12">
-        <v>35</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5323,7 +5332,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>321</v>
+        <v>35</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5333,14 +5342,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>28</v>
+        <v>321</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
         <v>322</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5366,14 +5375,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>325</v>
+        <v>28</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5382,14 +5391,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>63</v>
+        <v>327</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5399,14 +5408,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>241</v>
+        <v>328</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>242</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5415,28 +5424,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>329</v>
+        <v>63</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>330</v>
+        <v>244</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>331</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5448,28 +5457,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>168</v>
+        <v>332</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>223</v>
+        <v>333</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>200</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5481,31 +5490,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>334</v>
+        <v>171</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5514,31 +5523,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>330</v>
+        <v>14</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>331</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5547,31 +5556,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>213</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>168</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5587,24 +5596,24 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>16</v>
+        <v>341</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>205</v>
+        <v>342</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>171</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5613,31 +5622,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>325</v>
+        <v>208</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>336</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5646,7 +5655,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5659,18 +5668,18 @@
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>102</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5686,24 +5695,24 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>346</v>
+        <v>63</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>348</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>347</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5712,28 +5721,28 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>52</v>
+        <v>349</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>294</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5745,7 +5754,7 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -5758,15 +5767,15 @@
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5778,31 +5787,31 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>14</v>
+        <v>333</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>215</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5811,31 +5820,31 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>329</v>
+        <v>63</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>192</v>
+        <v>14</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>353</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5844,31 +5853,31 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>16</v>
+        <v>332</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>254</v>
+        <v>356</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5877,28 +5886,28 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>15</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -5910,31 +5919,31 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>346</v>
+        <v>76</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5943,66 +5952,99 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>63</v>
+        <v>349</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>293</v>
+        <v>67</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>294</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
-      <c r="P136" s="13">
-        <v>7378.4099999999999</v>
-      </c>
-      <c r="Q136" s="13"/>
-    </row>
-    <row r="137" ht="16.5" customHeight="1">
-      <c t="s" r="A137" s="14">
-        <v>358</v>
-      </c>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c t="s" r="G137" s="15">
-        <v>359</v>
-      </c>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="16"/>
-      <c t="s" r="K137" s="17">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
         <v>360</v>
       </c>
-      <c r="L137" s="17"/>
-      <c r="M137" s="17"/>
-      <c r="N137" s="17"/>
-      <c r="O137" s="17"/>
-      <c r="P137" s="17"/>
-      <c r="Q137" s="17"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>63</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>161</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>296</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>297</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="P137" s="13">
+        <v>7569.9300000000003</v>
+      </c>
+      <c r="Q137" s="13"/>
+    </row>
+    <row r="138" ht="16.5" customHeight="1">
+      <c t="s" r="A138" s="14">
+        <v>361</v>
+      </c>
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c t="s" r="G138" s="15">
+        <v>362</v>
+      </c>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="16"/>
+      <c t="s" r="K138" s="17">
+        <v>363</v>
+      </c>
+      <c r="L138" s="17"/>
+      <c r="M138" s="17"/>
+      <c r="N138" s="17"/>
+      <c r="O138" s="17"/>
+      <c r="P138" s="17"/>
+      <c r="Q138" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="657">
+  <mergeCells count="662">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6656,10 +6698,15 @@
     <mergeCell ref="H135:K135"/>
     <mergeCell ref="L135:M135"/>
     <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P136:Q136"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="K137:Q137"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="P137:Q137"/>
+    <mergeCell ref="A138:F138"/>
+    <mergeCell ref="G138:I138"/>
+    <mergeCell ref="K138:Q138"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -458,10 +458,10 @@
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
-    <t>191.5200</t>
-  </si>
-  <si>
-    <t>1:4</t>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>0:4</t>
   </si>
   <si>
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
@@ -966,9 +966,6 @@
   </si>
   <si>
     <t>58.0800</t>
-  </si>
-  <si>
-    <t>0:4</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
@@ -3121,7 +3118,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -5316,7 +5313,7 @@
         <v>318</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>319</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5325,7 +5322,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5342,11 +5339,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>35</v>
@@ -5358,14 +5355,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5379,7 +5376,7 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>25</v>
@@ -5391,14 +5388,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5408,11 +5405,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>27</v>
@@ -5424,7 +5421,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5457,14 +5454,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5474,11 +5471,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5490,7 +5487,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5523,14 +5520,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5556,14 +5553,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5573,11 +5570,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5589,14 +5586,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5606,7 +5603,7 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
@@ -5622,7 +5619,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5655,7 +5652,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5672,14 +5669,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
         <v>257</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5688,7 +5685,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5705,14 +5702,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5721,14 +5718,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5738,11 +5735,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5754,7 +5751,7 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -5787,7 +5784,7 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -5804,11 +5801,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5820,7 +5817,7 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
@@ -5853,14 +5850,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5874,7 +5871,7 @@
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>27</v>
@@ -5886,7 +5883,7 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
@@ -5919,7 +5916,7 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
@@ -5952,14 +5949,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5985,7 +5982,7 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
@@ -6014,13 +6011,13 @@
     </row>
     <row r="137" ht="25.5" customHeight="1">
       <c r="P137" s="13">
-        <v>7569.9300000000003</v>
+        <v>7425.9300000000003</v>
       </c>
       <c r="Q137" s="13"/>
     </row>
     <row r="138" ht="16.5" customHeight="1">
       <c t="s" r="A138" s="14">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B138" s="14"/>
       <c r="C138" s="14"/>
@@ -6028,13 +6025,13 @@
       <c r="E138" s="14"/>
       <c r="F138" s="14"/>
       <c t="s" r="G138" s="15">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H138" s="15"/>
       <c r="I138" s="15"/>
       <c r="J138" s="16"/>
       <c t="s" r="K138" s="17">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L138" s="17"/>
       <c r="M138" s="17"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -1091,7 +1091,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 10:09 PM</t>
+    <t>Wednesday, 10 September, 2025 10:10 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -662,6 +662,15 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>LIMITLESS WOMAN MAX 30 TABS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
     <t>LUCIDRIL 500MG 20 F.C TAB</t>
   </si>
   <si>
@@ -770,9 +779,6 @@
     <t>ORLY 120MG 30 CAPS.</t>
   </si>
   <si>
-    <t>240.00</t>
-  </si>
-  <si>
     <t>79.2000</t>
   </si>
   <si>
@@ -860,6 +866,15 @@
     <t>14.8500</t>
   </si>
   <si>
+    <t>RICHI PANTHENOL CREAM 20GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>ROSITOR 20MG 14 F.C.TAB</t>
   </si>
   <si>
@@ -897,12 +912,6 @@
   </si>
   <si>
     <t>SPOTLESS FACE CREAM 18 GM</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
   </si>
   <si>
     <t xml:space="preserve">STOPADOL  FORTE  SACHET</t>
@@ -3943,7 +3952,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3953,14 +3962,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>90</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3969,14 +3978,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3986,11 +3995,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>25</v>
@@ -4002,14 +4011,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4019,14 +4028,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4042,7 +4051,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4052,14 +4061,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>91</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4068,7 +4077,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4085,14 +4094,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>90</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4108,7 +4117,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4125,7 +4134,7 @@
         <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4158,7 +4167,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4191,7 +4200,7 @@
         <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4207,7 +4216,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4224,7 +4233,7 @@
         <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4240,7 +4249,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4254,10 +4263,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4266,14 +4275,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4283,7 +4292,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4299,14 +4308,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4320,7 +4329,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4339,7 +4348,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4372,7 +4381,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4405,7 +4414,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4422,7 +4431,7 @@
         <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4438,7 +4447,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>256</v>
+        <v>21</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4448,14 +4457,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4464,14 +4473,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>21</v>
+        <v>258</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4481,14 +4490,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4504,7 +4513,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4514,14 +4523,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>168</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4530,7 +4539,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4547,14 +4556,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>81</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4570,7 +4579,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4580,11 +4589,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>25</v>
@@ -4596,7 +4605,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4613,14 +4622,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4629,14 +4638,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4646,11 +4655,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4662,14 +4671,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4679,14 +4688,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4695,28 +4704,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>25</v>
@@ -4728,31 +4737,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4761,14 +4770,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4778,14 +4787,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>208</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4801,7 +4810,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>63</v>
+        <v>171</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4811,14 +4820,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>284</v>
+        <v>208</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4827,14 +4836,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4844,11 +4853,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4860,14 +4869,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>290</v>
+        <v>63</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4877,14 +4886,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>182</v>
+        <v>289</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4893,7 +4902,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4910,14 +4919,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>293</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4933,7 +4942,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>295</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4943,14 +4952,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>213</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4959,31 +4968,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>296</v>
+        <v>253</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4992,28 +5001,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -5025,28 +5034,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>241</v>
+        <v>286</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>169</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5058,28 +5067,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>301</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5098,7 +5107,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5108,11 +5117,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>303</v>
+        <v>244</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>304</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5124,14 +5133,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>306</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5141,14 +5150,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5157,28 +5166,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>33</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5190,14 +5199,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>116</v>
+        <v>309</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5207,11 +5216,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>54</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>25</v>
@@ -5230,21 +5239,21 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>312</v>
+        <v>63</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>235</v>
+        <v>312</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>236</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5263,7 +5272,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5273,14 +5282,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>314</v>
+        <v>59</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>315</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5289,14 +5298,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5306,14 +5315,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>128</v>
+        <v>238</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>318</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>150</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5322,14 +5331,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5339,14 +5348,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5355,14 +5364,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5372,14 +5381,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>25</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5388,14 +5397,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>326</v>
+        <v>35</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5405,14 +5414,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5421,14 +5430,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>63</v>
+        <v>326</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5438,14 +5447,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>244</v>
+        <v>28</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>245</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5454,31 +5463,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5487,28 +5496,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>171</v>
+        <v>63</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>203</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5520,14 +5529,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5537,14 +5546,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>14</v>
+        <v>335</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>209</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5560,7 +5569,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>338</v>
+        <v>171</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5570,11 +5579,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>332</v>
+        <v>229</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>333</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5586,14 +5595,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5603,14 +5612,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>341</v>
+        <v>14</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>171</v>
+        <v>96</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5619,14 +5628,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>16</v>
+        <v>341</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5636,11 +5645,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>208</v>
+        <v>335</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>209</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5652,14 +5661,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>63</v>
+        <v>343</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5669,14 +5678,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>338</v>
+        <v>171</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5685,14 +5694,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5702,14 +5711,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>345</v>
+        <v>208</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>102</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>346</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5718,14 +5727,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>348</v>
+        <v>63</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5735,14 +5744,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>350</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>341</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5751,14 +5760,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5768,14 +5777,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>296</v>
+        <v>348</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>297</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>16</v>
+        <v>349</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5784,14 +5793,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>52</v>
+        <v>351</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5801,11 +5810,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5817,14 +5826,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5834,14 +5843,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>14</v>
+        <v>286</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>218</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5850,14 +5859,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>331</v>
+        <v>52</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5867,14 +5876,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>195</v>
+        <v>335</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5890,7 +5899,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5900,14 +5909,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>215</v>
+        <v>14</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5923,7 +5932,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>76</v>
+        <v>334</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5933,14 +5942,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>15</v>
+        <v>358</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5949,14 +5958,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>348</v>
+        <v>16</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5966,14 +5975,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>67</v>
+        <v>215</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>163</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -5982,14 +5991,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -5999,49 +6008,115 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>296</v>
+        <v>14</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>297</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
-      <c r="P137" s="13">
-        <v>7425.9300000000003</v>
-      </c>
-      <c r="Q137" s="13"/>
-    </row>
-    <row r="138" ht="16.5" customHeight="1">
-      <c t="s" r="A138" s="14">
-        <v>360</v>
-      </c>
-      <c r="B138" s="14"/>
-      <c r="C138" s="14"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
-      <c t="s" r="G138" s="15">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
         <v>361</v>
       </c>
-      <c r="H138" s="15"/>
-      <c r="I138" s="15"/>
-      <c r="J138" s="16"/>
-      <c t="s" r="K138" s="17">
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>351</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>161</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>67</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
         <v>362</v>
       </c>
-      <c r="L138" s="17"/>
-      <c r="M138" s="17"/>
-      <c r="N138" s="17"/>
-      <c r="O138" s="17"/>
-      <c r="P138" s="17"/>
-      <c r="Q138" s="17"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>63</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>161</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>286</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
+        <v>287</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="P139" s="13">
+        <v>7695.9300000000003</v>
+      </c>
+      <c r="Q139" s="13"/>
+    </row>
+    <row r="140" ht="16.5" customHeight="1">
+      <c t="s" r="A140" s="14">
+        <v>363</v>
+      </c>
+      <c r="B140" s="14"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
+      <c t="s" r="G140" s="15">
+        <v>364</v>
+      </c>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="16"/>
+      <c t="s" r="K140" s="17">
+        <v>365</v>
+      </c>
+      <c r="L140" s="17"/>
+      <c r="M140" s="17"/>
+      <c r="N140" s="17"/>
+      <c r="O140" s="17"/>
+      <c r="P140" s="17"/>
+      <c r="Q140" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="662">
+  <mergeCells count="672">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6700,10 +6775,20 @@
     <mergeCell ref="H136:K136"/>
     <mergeCell ref="L136:M136"/>
     <mergeCell ref="N136:O136"/>
-    <mergeCell ref="P137:Q137"/>
-    <mergeCell ref="A138:F138"/>
-    <mergeCell ref="G138:I138"/>
-    <mergeCell ref="K138:Q138"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="P139:Q139"/>
+    <mergeCell ref="A140:F140"/>
+    <mergeCell ref="G140:I140"/>
+    <mergeCell ref="K140:Q140"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -518,234 +518,237 @@
     <t>180.00</t>
   </si>
   <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>FLATIDYL 40MG 30 CHEWABLE TABS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
+    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
+    <t>GLUCOPHAGE XR 500 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>77.00</t>
+  </si>
+  <si>
+    <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>173.0000</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>134.0000</t>
+  </si>
+  <si>
+    <t>ITEM-N SHAMPOO 60ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>IVYMOND SYRUP</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>JOMOGESTIVE TAB</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>83.1600</t>
+  </si>
+  <si>
+    <t>LACTOMAX 10 SACHETS</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>LIMITLESS WOMAN MAX 30 TABS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t>LUCIDRIL 500MG 20 F.C TAB</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>LUTOFOLONE 2 AMP.</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>MAVILOR 5MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>-30.0000</t>
+  </si>
+  <si>
+    <t>NESTOGEN 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>255.00</t>
+  </si>
+  <si>
+    <t>255.0000</t>
+  </si>
+  <si>
+    <t>NEUROGLOPENTIN 400MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>NEVXAL 0.1% EYE DPS. 5 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>NOLAVER CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
     <t>90.0000</t>
   </si>
   <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>FLATIDYL 40MG 30 CHEWABLE TABS</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>79.00</t>
-  </si>
-  <si>
-    <t>79.0000</t>
-  </si>
-  <si>
-    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>21.7800</t>
-  </si>
-  <si>
-    <t>GLUCOPHAGE XR 500 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>77.00</t>
-  </si>
-  <si>
-    <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>173.0000</t>
-  </si>
-  <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>134.0000</t>
-  </si>
-  <si>
-    <t>ITEM-N SHAMPOO 60ML</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>IVYMOND SYRUP</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>JOMOGESTIVE TAB</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>83.1600</t>
-  </si>
-  <si>
-    <t>LACTOMAX 10 SACHETS</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>LIMITLESS WOMAN MAX 30 TABS.</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
-    <t>LUCIDRIL 500MG 20 F.C TAB</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>LUTOFOLONE 2 AMP.</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>MAVILOR 5MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>105.0000</t>
-  </si>
-  <si>
-    <t>MILGA ADVANCE 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>-30.0000</t>
-  </si>
-  <si>
-    <t>NESTOGEN 1 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>255.00</t>
-  </si>
-  <si>
-    <t>255.0000</t>
-  </si>
-  <si>
-    <t>NEUROGLOPENTIN 400MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>NEVXAL 0.1% EYE DPS. 5 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>NOLAVER CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
     <t>NORHINOSE 50MCG/DOSE NASAL SPRAY 120 DOSES</t>
   </si>
   <si>
@@ -1100,7 +1103,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 10:10 PM</t>
+    <t>Wednesday, 10 September, 2025 10:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3325,7 +3328,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3342,7 +3345,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -4296,7 +4299,7 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>169</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4308,7 +4311,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4329,7 +4332,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>169</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4341,7 +4344,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4358,11 +4361,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4374,7 +4377,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4391,11 +4394,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4407,7 +4410,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4424,11 +4427,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4440,7 +4443,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4461,7 +4464,7 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>25</v>
@@ -4473,14 +4476,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4494,7 +4497,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4506,7 +4509,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4527,7 +4530,7 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>25</v>
@@ -4539,7 +4542,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4556,11 +4559,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4572,7 +4575,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4589,7 +4592,7 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
@@ -4605,7 +4608,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4638,7 +4641,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4655,11 +4658,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4671,7 +4674,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4688,11 +4691,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4704,7 +4707,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4721,11 +4724,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>25</v>
@@ -4737,7 +4740,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4754,11 +4757,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>25</v>
@@ -4770,7 +4773,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4787,11 +4790,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4803,7 +4806,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4824,7 +4827,7 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>25</v>
@@ -4836,7 +4839,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4853,11 +4856,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4869,7 +4872,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4886,11 +4889,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4902,7 +4905,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4919,11 +4922,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4935,14 +4938,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4956,7 +4959,7 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>25</v>
@@ -4968,7 +4971,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4985,11 +4988,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>25</v>
@@ -5001,7 +5004,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -5034,7 +5037,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -5051,11 +5054,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5067,7 +5070,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5100,7 +5103,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5121,7 +5124,7 @@
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>169</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5133,7 +5136,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5154,7 +5157,7 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5166,7 +5169,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5183,11 +5186,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5199,14 +5202,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5220,7 +5223,7 @@
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>25</v>
@@ -5232,7 +5235,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5249,7 +5252,7 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
@@ -5265,7 +5268,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5298,14 +5301,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5331,7 +5334,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5348,11 +5351,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5364,14 +5367,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5385,7 +5388,7 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>150</v>
@@ -5397,7 +5400,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5414,11 +5417,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>35</v>
@@ -5430,14 +5433,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5451,7 +5454,7 @@
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>25</v>
@@ -5463,14 +5466,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5480,11 +5483,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>27</v>
@@ -5496,7 +5499,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5513,11 +5516,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5529,14 +5532,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5546,11 +5549,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5562,7 +5565,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5595,14 +5598,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5628,14 +5631,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5645,11 +5648,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5661,14 +5664,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5678,7 +5681,7 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
@@ -5694,7 +5697,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5727,7 +5730,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5744,14 +5747,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5760,7 +5763,7 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -5777,14 +5780,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5793,14 +5796,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5810,11 +5813,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5826,7 +5829,7 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
@@ -5843,11 +5846,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5859,7 +5862,7 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
@@ -5876,11 +5879,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5892,7 +5895,7 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
@@ -5925,14 +5928,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5946,7 +5949,7 @@
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>27</v>
@@ -5958,7 +5961,7 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
@@ -5979,7 +5982,7 @@
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -5991,7 +5994,7 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
@@ -6024,14 +6027,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6057,7 +6060,7 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
@@ -6074,11 +6077,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>16</v>
@@ -6086,13 +6089,13 @@
     </row>
     <row r="139" ht="25.5" customHeight="1">
       <c r="P139" s="13">
-        <v>7695.9300000000003</v>
+        <v>7785.9300000000003</v>
       </c>
       <c r="Q139" s="13"/>
     </row>
     <row r="140" ht="16.5" customHeight="1">
       <c t="s" r="A140" s="14">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B140" s="14"/>
       <c r="C140" s="14"/>
@@ -6100,13 +6103,13 @@
       <c r="E140" s="14"/>
       <c r="F140" s="14"/>
       <c t="s" r="G140" s="15">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H140" s="15"/>
       <c r="I140" s="15"/>
       <c r="J140" s="16"/>
       <c t="s" r="K140" s="17">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L140" s="17"/>
       <c r="M140" s="17"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -1103,7 +1103,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 10:19 PM</t>
+    <t>Wednesday, 10 September, 2025 10:35 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -524,348 +524,351 @@
     <t>FLAGYL 500MG 20 TAB.</t>
   </si>
   <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>FLATIDYL 40MG 30 CHEWABLE TABS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
+    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
+    <t>GLUCOPHAGE XR 500 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>77.00</t>
+  </si>
+  <si>
+    <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>173.0000</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>134.0000</t>
+  </si>
+  <si>
+    <t>ITEM-N SHAMPOO 60ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>IVYMOND SYRUP</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>JOMOGESTIVE TAB</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>83.1600</t>
+  </si>
+  <si>
+    <t>LACTOMAX 10 SACHETS</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>LIMITLESS WOMAN MAX 30 TABS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t>LUCIDRIL 500MG 20 F.C TAB</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>LUTOFOLONE 2 AMP.</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>MAVILOR 5MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>-30.0000</t>
+  </si>
+  <si>
+    <t>NESTOGEN 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>255.00</t>
+  </si>
+  <si>
+    <t>255.0000</t>
+  </si>
+  <si>
+    <t>NEUROGLOPENTIN 400MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>NEVXAL 0.1% EYE DPS. 5 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>NOLAVER CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>NORHINOSE 50MCG/DOSE NASAL SPRAY 120 DOSES</t>
+  </si>
+  <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
+    <t>NO-URIC 300MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>OCUMETHYL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>ORLY 120MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANTOPRAZOLE 40MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>PEDICAL PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>PHENADONE SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>PRIANIL C.R. 400MG 30 CONTROLLED REL. TAB.</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIMOFAL  TAB</t>
+  </si>
+  <si>
+    <t>129.00</t>
+  </si>
+  <si>
+    <t>42.5700</t>
+  </si>
+  <si>
+    <t>PSYCHOLANZ 3/25 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
+    <t>PURGATON 20MG 30 TAB.</t>
+  </si>
+  <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>FLATIDYL 40MG 30 CHEWABLE TABS</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>79.00</t>
-  </si>
-  <si>
-    <t>79.0000</t>
-  </si>
-  <si>
-    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>21.7800</t>
-  </si>
-  <si>
-    <t>GLUCOPHAGE XR 500 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>77.00</t>
-  </si>
-  <si>
-    <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>173.0000</t>
-  </si>
-  <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>134.0000</t>
-  </si>
-  <si>
-    <t>ITEM-N SHAMPOO 60ML</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>IVYMOND SYRUP</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>JOMOGESTIVE TAB</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>83.1600</t>
-  </si>
-  <si>
-    <t>LACTOMAX 10 SACHETS</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>LIMITLESS WOMAN MAX 30 TABS.</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
-    <t>LUCIDRIL 500MG 20 F.C TAB</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>LUTOFOLONE 2 AMP.</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>MAVILOR 5MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>105.0000</t>
-  </si>
-  <si>
-    <t>MILGA ADVANCE 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>-30.0000</t>
-  </si>
-  <si>
-    <t>NESTOGEN 1 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>255.00</t>
-  </si>
-  <si>
-    <t>255.0000</t>
-  </si>
-  <si>
-    <t>NEUROGLOPENTIN 400MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>NEVXAL 0.1% EYE DPS. 5 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>NOLAVER CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>NORHINOSE 50MCG/DOSE NASAL SPRAY 120 DOSES</t>
-  </si>
-  <si>
-    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>71.0000</t>
-  </si>
-  <si>
-    <t>NO-URIC 300MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>OCUMETHYL EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>ORLY 120MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>79.2000</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>2:5</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>59.4000</t>
-  </si>
-  <si>
-    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PANTOPRAZOLE 40MG 14 TAB.</t>
-  </si>
-  <si>
-    <t>PEDICAL PLUS SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>PHENADONE SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>PRIANIL C.R. 400MG 30 CONTROLLED REL. TAB.</t>
-  </si>
-  <si>
-    <t>162.00</t>
-  </si>
-  <si>
-    <t>53.4600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRIMOFAL  TAB</t>
-  </si>
-  <si>
-    <t>129.00</t>
-  </si>
-  <si>
-    <t>42.5700</t>
-  </si>
-  <si>
-    <t>PSYCHOLANZ 3/25 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>117.0000</t>
-  </si>
-  <si>
-    <t>PURGATON 20MG 30 TAB.</t>
-  </si>
-  <si>
     <t>14.8500</t>
   </si>
   <si>
@@ -1103,7 +1106,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 10:35 PM</t>
+    <t>Wednesday, 10 September, 2025 10:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3378,7 +3381,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -4813,7 +4816,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>171</v>
+        <v>285</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4827,7 +4830,7 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>25</v>
@@ -4839,7 +4842,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4856,11 +4859,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4872,7 +4875,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4889,11 +4892,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4905,7 +4908,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4922,11 +4925,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4938,14 +4941,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4959,7 +4962,7 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>25</v>
@@ -4971,7 +4974,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4992,7 +4995,7 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>25</v>
@@ -5004,7 +5007,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -5037,7 +5040,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -5054,11 +5057,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5070,7 +5073,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5103,7 +5106,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5136,7 +5139,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5157,7 +5160,7 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5169,7 +5172,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5186,11 +5189,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5202,14 +5205,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5223,7 +5226,7 @@
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>25</v>
@@ -5235,7 +5238,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5252,7 +5255,7 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
@@ -5268,7 +5271,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5301,14 +5304,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5334,7 +5337,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5351,11 +5354,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5367,14 +5370,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5388,7 +5391,7 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>150</v>
@@ -5400,7 +5403,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5417,11 +5420,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>35</v>
@@ -5433,14 +5436,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5454,7 +5457,7 @@
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>25</v>
@@ -5466,14 +5469,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5483,11 +5486,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>27</v>
@@ -5499,7 +5502,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5532,14 +5535,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5549,11 +5552,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5565,14 +5568,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>171</v>
+        <v>285</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5598,14 +5601,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5631,14 +5634,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5648,11 +5651,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5664,14 +5667,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5681,14 +5684,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
         <v>216</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>171</v>
+        <v>285</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5697,7 +5700,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5730,7 +5733,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5747,14 +5750,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
         <v>260</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5763,7 +5766,7 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -5780,14 +5783,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5796,14 +5799,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5813,11 +5816,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5829,7 +5832,7 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
@@ -5846,11 +5849,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5862,7 +5865,7 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
@@ -5879,11 +5882,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5895,7 +5898,7 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
@@ -5928,14 +5931,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5949,7 +5952,7 @@
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>27</v>
@@ -5961,7 +5964,7 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
@@ -5994,7 +5997,7 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
@@ -6027,14 +6030,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6060,7 +6063,7 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
@@ -6077,11 +6080,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>16</v>
@@ -6089,13 +6092,13 @@
     </row>
     <row r="139" ht="25.5" customHeight="1">
       <c r="P139" s="13">
-        <v>7785.9300000000003</v>
+        <v>7802.9300000000003</v>
       </c>
       <c r="Q139" s="13"/>
     </row>
     <row r="140" ht="16.5" customHeight="1">
       <c t="s" r="A140" s="14">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B140" s="14"/>
       <c r="C140" s="14"/>
@@ -6103,13 +6106,13 @@
       <c r="E140" s="14"/>
       <c r="F140" s="14"/>
       <c t="s" r="G140" s="15">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H140" s="15"/>
       <c r="I140" s="15"/>
       <c r="J140" s="16"/>
       <c t="s" r="K140" s="17">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L140" s="17"/>
       <c r="M140" s="17"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -164,6 +164,15 @@
     <t>136.0000</t>
   </si>
   <si>
+    <t>BEBELAC 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>310.00</t>
+  </si>
+  <si>
+    <t>310.0000</t>
+  </si>
+  <si>
     <t>BETADERM 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -926,6 +935,12 @@
     <t>TAVACIN 500MG 5 F.C. TAB</t>
   </si>
   <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
   </si>
   <si>
@@ -1043,6 +1058,9 @@
     <t>20:0</t>
   </si>
   <si>
+    <t xml:space="preserve">بيبرونه ALGO صغيره </t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -1106,7 +1124,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 10:37 PM</t>
+    <t>Wednesday, 10 September, 2025 10:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2077,7 +2095,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2087,11 +2105,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -2103,14 +2121,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2127,7 +2145,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2143,7 +2161,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2160,7 +2178,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2176,7 +2194,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2186,14 +2204,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2202,14 +2220,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2219,11 +2237,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>25</v>
@@ -2235,14 +2253,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2259,7 +2277,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2275,7 +2293,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2308,7 +2326,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2318,14 +2336,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2351,14 +2369,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2367,14 +2385,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2391,7 +2409,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2407,7 +2425,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2417,14 +2435,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2433,14 +2451,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2457,7 +2475,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2473,7 +2491,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2490,7 +2508,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2506,7 +2524,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2523,7 +2541,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2539,7 +2557,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2549,14 +2567,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2565,14 +2583,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2582,11 +2600,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2598,14 +2616,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2638,7 +2656,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2648,11 +2666,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2664,14 +2682,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2704,7 +2722,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2714,14 +2732,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2730,14 +2748,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2747,14 +2765,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2763,14 +2781,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2780,14 +2798,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2796,14 +2814,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2813,14 +2831,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2886,7 +2904,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2902,7 +2920,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2912,11 +2930,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>25</v>
@@ -2928,14 +2946,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2945,14 +2963,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>134</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2961,14 +2979,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2978,14 +2996,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2994,14 +3012,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3011,14 +3029,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3034,7 +3052,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3067,7 +3085,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3100,7 +3118,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3117,7 +3135,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3133,7 +3151,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3143,14 +3161,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>150</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3166,7 +3184,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3176,14 +3194,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q50" s="12">
         <v>153</v>
-      </c>
-      <c t="s" r="Q50" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3199,7 +3217,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3216,7 +3234,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3232,7 +3250,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3249,7 +3267,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3265,21 +3283,21 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3291,31 +3309,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3331,7 +3349,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3341,14 +3359,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>70</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3364,7 +3382,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3374,11 +3392,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3390,14 +3408,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3414,7 +3432,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3430,7 +3448,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3440,11 +3458,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -3456,14 +3474,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3473,14 +3491,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3496,7 +3514,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3513,7 +3531,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3529,7 +3547,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3543,10 +3561,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3555,14 +3573,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3572,14 +3590,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3588,14 +3606,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3605,14 +3623,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3628,7 +3646,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3645,7 +3663,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3661,7 +3679,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3675,10 +3693,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>118</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3687,14 +3705,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3704,11 +3722,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3727,13 +3745,13 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3760,24 +3778,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3786,7 +3804,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3799,18 +3817,18 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>40</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3826,7 +3844,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3843,7 +3861,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3859,7 +3877,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3869,14 +3887,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>53</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>60</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3885,7 +3903,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3902,14 +3920,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>56</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3925,7 +3943,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3942,7 +3960,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3958,7 +3976,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3975,7 +3993,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3991,7 +4009,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4001,14 +4019,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>90</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4017,14 +4035,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4034,11 +4052,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>93</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>25</v>
@@ -4050,14 +4068,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4067,14 +4085,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4090,7 +4108,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4100,14 +4118,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>90</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>91</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4116,7 +4134,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4133,14 +4151,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>93</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4156,7 +4174,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4173,7 +4191,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4189,7 +4207,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4206,7 +4224,7 @@
         <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4222,7 +4240,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4239,7 +4257,7 @@
         <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4255,7 +4273,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4272,7 +4290,7 @@
         <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4288,7 +4306,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4305,7 +4323,7 @@
         <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4321,7 +4339,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4331,11 +4349,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4347,14 +4365,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4364,11 +4382,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4387,7 +4405,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4420,7 +4438,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4453,7 +4471,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4463,14 +4481,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>218</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4479,14 +4497,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>259</v>
+        <v>21</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4496,14 +4514,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4519,7 +4537,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>21</v>
+        <v>262</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4529,14 +4547,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4545,14 +4563,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4562,14 +4580,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>171</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4599,10 +4617,10 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>81</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4611,14 +4629,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4628,11 +4646,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>209</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>25</v>
@@ -4644,14 +4662,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4661,14 +4679,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4684,7 +4702,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4717,7 +4735,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4734,7 +4752,7 @@
         <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4750,13 +4768,13 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
@@ -4783,13 +4801,13 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4800,7 +4818,7 @@
         <v>283</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4816,7 +4834,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>285</v>
+        <v>25</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4826,14 +4844,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>208</v>
+        <v>285</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>286</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4849,7 +4867,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>27</v>
+        <v>288</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4859,14 +4877,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>288</v>
+        <v>211</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>289</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4882,7 +4900,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4915,7 +4933,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4948,7 +4966,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>297</v>
+        <v>66</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4958,14 +4976,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>182</v>
+        <v>297</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>298</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4981,7 +4999,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>63</v>
+        <v>300</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4991,11 +5009,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>254</v>
+        <v>185</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>25</v>
@@ -5007,14 +5025,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5024,14 +5042,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>212</v>
+        <v>257</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>213</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5040,28 +5058,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>288</v>
+        <v>215</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>289</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5073,28 +5091,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>229</v>
+        <v>291</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>203</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5106,28 +5124,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5139,7 +5157,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5156,11 +5174,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>40</v>
+        <v>247</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>306</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5172,14 +5190,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5189,7 +5207,7 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>308</v>
+        <v>143</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
@@ -5212,7 +5230,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>311</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5222,14 +5240,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5238,28 +5256,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>33</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5278,7 +5296,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>116</v>
+        <v>316</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5288,11 +5306,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>54</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>25</v>
@@ -5304,28 +5322,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>317</v>
+        <v>66</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>238</v>
+        <v>319</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>239</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5337,14 +5355,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5354,14 +5372,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>319</v>
+        <v>62</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>320</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5387,14 +5405,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>128</v>
+        <v>241</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>150</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5403,14 +5421,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5420,14 +5438,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5436,14 +5454,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5453,14 +5471,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>25</v>
+        <v>153</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5469,14 +5487,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>331</v>
+        <v>35</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5486,14 +5504,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5502,14 +5520,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>63</v>
+        <v>333</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5519,14 +5537,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>248</v>
+        <v>28</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>249</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5548,7 +5566,7 @@
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
@@ -5559,7 +5577,7 @@
         <v>338</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5575,21 +5593,21 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>285</v>
+        <v>66</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>203</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5614,18 +5632,18 @@
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>14</v>
+        <v>342</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>209</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5634,28 +5652,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>343</v>
+        <v>288</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>337</v>
+        <v>232</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>338</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5667,31 +5685,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>346</v>
+        <v>14</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>285</v>
+        <v>99</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5707,21 +5725,21 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>16</v>
+        <v>348</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>208</v>
+        <v>342</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>209</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5733,31 +5751,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>260</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>343</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5766,31 +5784,31 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>63</v>
+        <v>351</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>102</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>351</v>
+        <v>288</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5799,28 +5817,28 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>353</v>
+        <v>16</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>354</v>
+        <v>211</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>355</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5832,31 +5850,31 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>16</v>
+        <v>348</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5865,31 +5883,31 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>338</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>16</v>
+        <v>357</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5905,24 +5923,24 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>63</v>
+        <v>359</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>14</v>
+        <v>360</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>221</v>
+        <v>361</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5931,31 +5949,31 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>195</v>
+        <v>291</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>360</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5964,28 +5982,28 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>215</v>
+        <v>342</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>260</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -5997,20 +6015,20 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
       <c t="s" r="L136" s="10">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
@@ -6018,10 +6036,10 @@
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>15</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6030,31 +6048,31 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
       <c t="s" r="L137" s="10">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>67</v>
+        <v>198</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>163</v>
+        <v>366</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>96</v>
+        <v>27</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6063,66 +6081,165 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
       <c t="s" r="L138" s="10">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>288</v>
+        <v>218</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
-      <c r="P139" s="13">
-        <v>7802.9300000000003</v>
-      </c>
-      <c r="Q139" s="13"/>
-    </row>
-    <row r="140" ht="16.5" customHeight="1">
-      <c t="s" r="A140" s="14">
-        <v>365</v>
-      </c>
-      <c r="B140" s="14"/>
-      <c r="C140" s="14"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
-      <c t="s" r="G140" s="15">
-        <v>366</v>
-      </c>
-      <c r="H140" s="15"/>
-      <c r="I140" s="15"/>
-      <c r="J140" s="16"/>
-      <c t="s" r="K140" s="17">
-        <v>367</v>
-      </c>
-      <c r="L140" s="17"/>
-      <c r="M140" s="17"/>
-      <c r="N140" s="17"/>
-      <c r="O140" s="17"/>
-      <c r="P140" s="17"/>
-      <c r="Q140" s="17"/>
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
+        <v>368</v>
+      </c>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>79</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>164</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
+        <v>14</v>
+      </c>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q139" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c t="s" r="C140" s="8">
+        <v>369</v>
+      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
+        <v>359</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c t="s" r="L140" s="10">
+        <v>164</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c t="s" r="N140" s="8">
+        <v>70</v>
+      </c>
+      <c r="O140" s="8"/>
+      <c t="s" r="P140" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="A141" s="7">
+        <v>135</v>
+      </c>
+      <c r="B141" s="7"/>
+      <c t="s" r="C141" s="8">
+        <v>370</v>
+      </c>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c t="s" r="H141" s="9">
+        <v>66</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c t="s" r="L141" s="10">
+        <v>164</v>
+      </c>
+      <c r="M141" s="10"/>
+      <c t="s" r="N141" s="8">
+        <v>291</v>
+      </c>
+      <c r="O141" s="8"/>
+      <c t="s" r="P141" s="11">
+        <v>292</v>
+      </c>
+      <c t="s" r="Q141" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="P142" s="13">
+        <v>8165.9300000000003</v>
+      </c>
+      <c r="Q142" s="13"/>
+    </row>
+    <row r="143" ht="16.5" customHeight="1">
+      <c t="s" r="A143" s="14">
+        <v>371</v>
+      </c>
+      <c r="B143" s="14"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c t="s" r="G143" s="15">
+        <v>372</v>
+      </c>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="16"/>
+      <c t="s" r="K143" s="17">
+        <v>373</v>
+      </c>
+      <c r="L143" s="17"/>
+      <c r="M143" s="17"/>
+      <c r="N143" s="17"/>
+      <c r="O143" s="17"/>
+      <c r="P143" s="17"/>
+      <c r="Q143" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="672">
+  <mergeCells count="687">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6791,10 +6908,25 @@
     <mergeCell ref="H138:K138"/>
     <mergeCell ref="L138:M138"/>
     <mergeCell ref="N138:O138"/>
-    <mergeCell ref="P139:Q139"/>
-    <mergeCell ref="A140:F140"/>
-    <mergeCell ref="G140:I140"/>
-    <mergeCell ref="K140:Q140"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="P142:Q142"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="G143:I143"/>
+    <mergeCell ref="K143:Q143"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -1124,7 +1124,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 10:39 PM</t>
+    <t>Wednesday, 10 September, 2025 10:40 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-10_00-00.xlsx
+++ b/DaySale_2025-09-10_00-00.xlsx
@@ -515,10 +515,7 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>19.6800</t>
+    <t>23.5200</t>
   </si>
   <si>
     <t>FEROGLOBIN 30 CAPS</t>
@@ -1121,10 +1118,13 @@
     <t>محلول ملح</t>
   </si>
   <si>
+    <t>مزيل عرق فوج FOGG MASTER</t>
+  </si>
+  <si>
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Wednesday, 10 September, 2025 10:40 PM</t>
+    <t>Wednesday, 10 September, 2025 10:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3349,7 +3349,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3363,10 +3363,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>110</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3375,7 +3375,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3392,11 +3392,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3408,14 +3408,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3425,11 +3425,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3458,11 +3458,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3524,11 +3524,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3557,11 +3557,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3590,7 +3590,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>25</v>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3656,11 +3656,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3689,11 +3689,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>27</v>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3722,7 +3722,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3738,7 +3738,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3755,11 +3755,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3788,11 +3788,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>25</v>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3854,11 +3854,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3887,11 +3887,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3903,7 +3903,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3953,11 +3953,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3986,11 +3986,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>27</v>
@@ -4002,7 +4002,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -4019,11 +4019,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4056,7 +4056,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>25</v>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4085,11 +4085,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>25</v>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4118,11 +4118,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4134,7 +4134,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4167,7 +4167,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4184,11 +4184,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>38</v>
@@ -4200,7 +4200,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4217,11 +4217,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4250,11 +4250,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>25</v>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4283,11 +4283,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4316,11 +4316,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>25</v>
@@ -4332,7 +4332,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4349,11 +4349,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4382,11 +4382,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4398,7 +4398,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4415,11 +4415,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4448,11 +4448,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4464,7 +4464,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4481,11 +4481,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4514,11 +4514,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>25</v>
@@ -4530,14 +4530,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4547,11 +4547,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4563,7 +4563,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4580,11 +4580,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>25</v>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4613,11 +4613,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4629,7 +4629,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4646,7 +4646,7 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
@@ -4662,7 +4662,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4679,11 +4679,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>25</v>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4712,11 +4712,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4728,7 +4728,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4745,11 +4745,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4761,7 +4761,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4778,11 +4778,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>25</v>
@@ -4794,7 +4794,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4811,11 +4811,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>25</v>
@@ -4827,7 +4827,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4844,11 +4844,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4860,14 +4860,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4877,11 +4877,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>25</v>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4910,11 +4910,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4926,7 +4926,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4943,11 +4943,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4959,7 +4959,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4976,11 +4976,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4992,14 +4992,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5009,11 +5009,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>25</v>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -5042,11 +5042,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>25</v>
@@ -5058,7 +5058,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D107" s="8